--- a/Dicionário_Dados_MicroDados_Enem_2019/Dicionário_Microdados_Enem_2019.xlsx
+++ b/Dicionário_Dados_MicroDados_Enem_2019/Dicionário_Microdados_Enem_2019.xlsx
@@ -2738,33 +2738,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2792,15 +2765,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2813,6 +2777,24 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2820,6 +2802,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2837,31 +2834,31 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2869,6 +2866,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3281,8 +3281,8 @@
   </sheetPr>
   <dimension ref="A1:G441"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C256" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C262" sqref="C262"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A283" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B286" sqref="B286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3297,62 +3297,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="77" t="s">
         <v>459</v>
       </c>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="92" t="s">
+      <c r="D3" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92" t="s">
+      <c r="E3" s="80"/>
+      <c r="F3" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="92" t="s">
+      <c r="G3" s="80" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
       <c r="D4" s="16" t="s">
         <v>70</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
     </row>
     <row r="5" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="75" t="s">
         <v>382</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
     </row>
     <row r="6" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="52" t="s">
@@ -3393,67 +3393,67 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="90" t="s">
         <v>479</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="68" t="s">
         <v>339</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="D8" s="88"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="84">
+      <c r="D8" s="81"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="83">
         <v>7</v>
       </c>
-      <c r="G8" s="84" t="s">
+      <c r="G8" s="83" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="57"/>
-      <c r="B9" s="61"/>
+      <c r="A9" s="91"/>
+      <c r="B9" s="68"/>
       <c r="C9" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="88"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="57"/>
-      <c r="B10" s="61"/>
+      <c r="A10" s="91"/>
+      <c r="B10" s="68"/>
       <c r="C10" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="88"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="57"/>
-      <c r="B11" s="61"/>
+      <c r="A11" s="91"/>
+      <c r="B11" s="68"/>
       <c r="C11" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="88"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="56"/>
-      <c r="B12" s="61"/>
+      <c r="A12" s="92"/>
+      <c r="B12" s="68"/>
       <c r="C12" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="88"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
     </row>
     <row r="13" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="52" t="s">
@@ -3532,13 +3532,13 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="55" t="s">
+      <c r="A17" s="90" t="s">
         <v>484</v>
       </c>
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="C17" s="69" t="s">
         <v>73</v>
       </c>
       <c r="D17" s="25" t="s">
@@ -3547,34 +3547,34 @@
       <c r="E17" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="63">
-        <v>1</v>
-      </c>
-      <c r="G17" s="63" t="s">
+      <c r="F17" s="70">
+        <v>1</v>
+      </c>
+      <c r="G17" s="70" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="56"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="62"/>
+      <c r="A18" s="92"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="69"/>
       <c r="D18" s="25" t="s">
         <v>122</v>
       </c>
       <c r="E18" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
     </row>
     <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="58" t="s">
+      <c r="A19" s="93" t="s">
         <v>484</v>
       </c>
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="67" t="s">
+      <c r="C19" s="58" t="s">
         <v>82</v>
       </c>
       <c r="D19" s="28">
@@ -3583,73 +3583,73 @@
       <c r="E19" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="F19" s="70">
-        <v>1</v>
-      </c>
-      <c r="G19" s="70" t="s">
+      <c r="F19" s="61">
+        <v>1</v>
+      </c>
+      <c r="G19" s="61" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="59"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="68"/>
+      <c r="A20" s="94"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="59"/>
       <c r="D20" s="49">
         <v>1</v>
       </c>
       <c r="E20" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
     </row>
     <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="59"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="68"/>
+      <c r="A21" s="94"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="59"/>
       <c r="D21" s="49">
         <v>2</v>
       </c>
       <c r="E21" s="49" t="s">
         <v>383</v>
       </c>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
     </row>
     <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="59"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="68"/>
+      <c r="A22" s="94"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="59"/>
       <c r="D22" s="49">
         <v>3</v>
       </c>
       <c r="E22" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
     </row>
     <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="60"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="69"/>
+      <c r="A23" s="95"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="60"/>
       <c r="D23" s="28">
         <v>4</v>
       </c>
       <c r="E23" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="58" t="s">
+      <c r="A24" s="93" t="s">
         <v>484</v>
       </c>
-      <c r="B24" s="76" t="s">
+      <c r="B24" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="78" t="s">
+      <c r="C24" s="66" t="s">
         <v>85</v>
       </c>
       <c r="D24" s="45">
@@ -3658,86 +3658,86 @@
       <c r="E24" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="F24" s="70">
-        <v>1</v>
-      </c>
-      <c r="G24" s="70" t="s">
+      <c r="F24" s="61">
+        <v>1</v>
+      </c>
+      <c r="G24" s="61" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="59"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="79"/>
+      <c r="A25" s="94"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="67"/>
       <c r="D25" s="45">
         <v>1</v>
       </c>
       <c r="E25" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
     </row>
     <row r="26" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="59"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="79"/>
+      <c r="A26" s="94"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="67"/>
       <c r="D26" s="45">
         <v>2</v>
       </c>
       <c r="E26" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
     </row>
     <row r="27" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="59"/>
-      <c r="B27" s="77"/>
-      <c r="C27" s="79"/>
+      <c r="A27" s="94"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="67"/>
       <c r="D27" s="45">
         <v>3</v>
       </c>
       <c r="E27" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
     </row>
     <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="59"/>
-      <c r="B28" s="77"/>
-      <c r="C28" s="79"/>
+      <c r="A28" s="94"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="67"/>
       <c r="D28" s="45">
         <v>4</v>
       </c>
       <c r="E28" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
     </row>
     <row r="29" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="60"/>
-      <c r="B29" s="82"/>
-      <c r="C29" s="80"/>
+      <c r="A29" s="95"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="74"/>
       <c r="D29" s="45">
         <v>5</v>
       </c>
       <c r="E29" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="55" t="s">
+      <c r="A30" s="90" t="s">
         <v>484</v>
       </c>
-      <c r="B30" s="61" t="s">
+      <c r="B30" s="68" t="s">
         <v>350</v>
       </c>
-      <c r="C30" s="62" t="s">
+      <c r="C30" s="69" t="s">
         <v>134</v>
       </c>
       <c r="D30" s="45">
@@ -3746,127 +3746,127 @@
       <c r="E30" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="F30" s="70">
-        <v>1</v>
-      </c>
-      <c r="G30" s="70" t="s">
+      <c r="F30" s="61">
+        <v>1</v>
+      </c>
+      <c r="G30" s="61" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="57"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="62"/>
+      <c r="A31" s="91"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="69"/>
       <c r="D31" s="45">
         <v>1</v>
       </c>
       <c r="E31" s="45" t="s">
         <v>181</v>
       </c>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="57"/>
-      <c r="B32" s="61"/>
-      <c r="C32" s="62"/>
+      <c r="A32" s="91"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="69"/>
       <c r="D32" s="45">
         <v>2</v>
       </c>
       <c r="E32" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="57"/>
-      <c r="B33" s="61"/>
-      <c r="C33" s="62"/>
+      <c r="A33" s="91"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="69"/>
       <c r="D33" s="45">
         <v>3</v>
       </c>
       <c r="E33" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="56"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="62"/>
+      <c r="A34" s="92"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="69"/>
       <c r="D34" s="45">
         <v>4</v>
       </c>
       <c r="E34" s="45" t="s">
         <v>137</v>
       </c>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="55" t="s">
+      <c r="A35" s="90" t="s">
         <v>479</v>
       </c>
-      <c r="B35" s="61" t="s">
+      <c r="B35" s="68" t="s">
         <v>351</v>
       </c>
       <c r="C35" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="D35" s="88"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="84">
+      <c r="D35" s="81"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="83">
         <v>7</v>
       </c>
-      <c r="G35" s="84" t="s">
+      <c r="G35" s="83" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="57"/>
-      <c r="B36" s="61"/>
+      <c r="A36" s="91"/>
+      <c r="B36" s="68"/>
       <c r="C36" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="88"/>
-      <c r="E36" s="83"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="84"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="83"/>
+      <c r="G36" s="83"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="57"/>
-      <c r="B37" s="61"/>
+      <c r="A37" s="91"/>
+      <c r="B37" s="68"/>
       <c r="C37" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="88"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="84"/>
-      <c r="G37" s="84"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="83"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="57"/>
-      <c r="B38" s="61"/>
+      <c r="A38" s="91"/>
+      <c r="B38" s="68"/>
       <c r="C38" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="88"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="84"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="83"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="56"/>
-      <c r="B39" s="61"/>
+      <c r="A39" s="92"/>
+      <c r="B39" s="68"/>
       <c r="C39" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="88"/>
-      <c r="E39" s="83"/>
-      <c r="F39" s="84"/>
-      <c r="G39" s="84"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="82"/>
+      <c r="F39" s="83"/>
+      <c r="G39" s="83"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="52" t="s">
@@ -3926,13 +3926,13 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="55" t="s">
+      <c r="A43" s="90" t="s">
         <v>484</v>
       </c>
-      <c r="B43" s="61" t="s">
+      <c r="B43" s="68" t="s">
         <v>354</v>
       </c>
-      <c r="C43" s="62" t="s">
+      <c r="C43" s="69" t="s">
         <v>77</v>
       </c>
       <c r="D43" s="25">
@@ -3941,60 +3941,60 @@
       <c r="E43" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="F43" s="63">
-        <v>1</v>
-      </c>
-      <c r="G43" s="63" t="s">
+      <c r="F43" s="70">
+        <v>1</v>
+      </c>
+      <c r="G43" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="57"/>
-      <c r="B44" s="61"/>
-      <c r="C44" s="62"/>
+      <c r="A44" s="91"/>
+      <c r="B44" s="68"/>
+      <c r="C44" s="69"/>
       <c r="D44" s="25">
         <v>2</v>
       </c>
       <c r="E44" s="25" t="s">
         <v>460</v>
       </c>
-      <c r="F44" s="63"/>
-      <c r="G44" s="63"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="70"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="57"/>
-      <c r="B45" s="61"/>
-      <c r="C45" s="62"/>
+      <c r="A45" s="91"/>
+      <c r="B45" s="68"/>
+      <c r="C45" s="69"/>
       <c r="D45" s="25">
         <v>3</v>
       </c>
       <c r="E45" s="25" t="s">
         <v>461</v>
       </c>
-      <c r="F45" s="63"/>
-      <c r="G45" s="63"/>
+      <c r="F45" s="70"/>
+      <c r="G45" s="70"/>
     </row>
     <row r="46" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="56"/>
-      <c r="B46" s="61"/>
-      <c r="C46" s="62"/>
+      <c r="A46" s="92"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="69"/>
       <c r="D46" s="25">
         <v>4</v>
       </c>
       <c r="E46" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="F46" s="63"/>
-      <c r="G46" s="63"/>
+      <c r="F46" s="70"/>
+      <c r="G46" s="70"/>
     </row>
     <row r="47" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="55" t="s">
+      <c r="A47" s="90" t="s">
         <v>484</v>
       </c>
-      <c r="B47" s="64" t="s">
+      <c r="B47" s="55" t="s">
         <v>355</v>
       </c>
-      <c r="C47" s="67" t="s">
+      <c r="C47" s="58" t="s">
         <v>78</v>
       </c>
       <c r="D47" s="45">
@@ -4003,190 +4003,190 @@
       <c r="E47" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="F47" s="70">
-        <v>1</v>
-      </c>
-      <c r="G47" s="70" t="s">
+      <c r="F47" s="61">
+        <v>1</v>
+      </c>
+      <c r="G47" s="61" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="57"/>
-      <c r="B48" s="65"/>
-      <c r="C48" s="68"/>
+      <c r="A48" s="91"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="59"/>
       <c r="D48" s="48">
         <v>1</v>
       </c>
       <c r="E48" s="48">
         <v>2018</v>
       </c>
-      <c r="F48" s="71"/>
-      <c r="G48" s="71"/>
+      <c r="F48" s="62"/>
+      <c r="G48" s="62"/>
     </row>
     <row r="49" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="57"/>
-      <c r="B49" s="65"/>
-      <c r="C49" s="68"/>
+      <c r="A49" s="91"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="59"/>
       <c r="D49" s="48">
         <v>2</v>
       </c>
       <c r="E49" s="45">
         <v>2017</v>
       </c>
-      <c r="F49" s="71"/>
-      <c r="G49" s="71"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="62"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="57"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="68"/>
+      <c r="A50" s="91"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="59"/>
       <c r="D50" s="48">
         <v>3</v>
       </c>
       <c r="E50" s="46">
         <v>2016</v>
       </c>
-      <c r="F50" s="71"/>
-      <c r="G50" s="71"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="62"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="57"/>
-      <c r="B51" s="65"/>
-      <c r="C51" s="68"/>
+      <c r="A51" s="91"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="59"/>
       <c r="D51" s="48">
         <v>4</v>
       </c>
       <c r="E51" s="46">
         <v>2015</v>
       </c>
-      <c r="F51" s="71"/>
-      <c r="G51" s="71"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="62"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" s="57"/>
-      <c r="B52" s="65"/>
-      <c r="C52" s="68"/>
+      <c r="A52" s="91"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="59"/>
       <c r="D52" s="48">
         <v>5</v>
       </c>
       <c r="E52" s="46">
         <v>2014</v>
       </c>
-      <c r="F52" s="71"/>
-      <c r="G52" s="71"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="62"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" s="57"/>
-      <c r="B53" s="65"/>
-      <c r="C53" s="68"/>
+      <c r="A53" s="91"/>
+      <c r="B53" s="56"/>
+      <c r="C53" s="59"/>
       <c r="D53" s="48">
         <v>6</v>
       </c>
       <c r="E53" s="46">
         <v>2013</v>
       </c>
-      <c r="F53" s="71"/>
-      <c r="G53" s="71"/>
+      <c r="F53" s="62"/>
+      <c r="G53" s="62"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="57"/>
-      <c r="B54" s="65"/>
-      <c r="C54" s="68"/>
+      <c r="A54" s="91"/>
+      <c r="B54" s="56"/>
+      <c r="C54" s="59"/>
       <c r="D54" s="48">
         <v>7</v>
       </c>
       <c r="E54" s="46">
         <v>2012</v>
       </c>
-      <c r="F54" s="71"/>
-      <c r="G54" s="71"/>
+      <c r="F54" s="62"/>
+      <c r="G54" s="62"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="57"/>
-      <c r="B55" s="65"/>
-      <c r="C55" s="68"/>
+      <c r="A55" s="91"/>
+      <c r="B55" s="56"/>
+      <c r="C55" s="59"/>
       <c r="D55" s="48">
         <v>8</v>
       </c>
       <c r="E55" s="46">
         <v>2011</v>
       </c>
-      <c r="F55" s="71"/>
-      <c r="G55" s="71"/>
+      <c r="F55" s="62"/>
+      <c r="G55" s="62"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="57"/>
-      <c r="B56" s="65"/>
-      <c r="C56" s="68"/>
+      <c r="A56" s="91"/>
+      <c r="B56" s="56"/>
+      <c r="C56" s="59"/>
       <c r="D56" s="48">
         <v>9</v>
       </c>
       <c r="E56" s="46">
         <v>2010</v>
       </c>
-      <c r="F56" s="71"/>
-      <c r="G56" s="71"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="62"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" s="57"/>
-      <c r="B57" s="65"/>
-      <c r="C57" s="68"/>
+      <c r="A57" s="91"/>
+      <c r="B57" s="56"/>
+      <c r="C57" s="59"/>
       <c r="D57" s="48">
         <v>10</v>
       </c>
       <c r="E57" s="46">
         <v>2009</v>
       </c>
-      <c r="F57" s="71"/>
-      <c r="G57" s="71"/>
+      <c r="F57" s="62"/>
+      <c r="G57" s="62"/>
     </row>
     <row r="58" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="57"/>
-      <c r="B58" s="65"/>
-      <c r="C58" s="68"/>
+      <c r="A58" s="91"/>
+      <c r="B58" s="56"/>
+      <c r="C58" s="59"/>
       <c r="D58" s="48">
         <v>11</v>
       </c>
       <c r="E58" s="46">
         <v>2008</v>
       </c>
-      <c r="F58" s="71"/>
-      <c r="G58" s="71"/>
+      <c r="F58" s="62"/>
+      <c r="G58" s="62"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="57"/>
-      <c r="B59" s="65"/>
-      <c r="C59" s="68"/>
+      <c r="A59" s="91"/>
+      <c r="B59" s="56"/>
+      <c r="C59" s="59"/>
       <c r="D59" s="48">
         <v>12</v>
       </c>
       <c r="E59" s="46">
         <v>2007</v>
       </c>
-      <c r="F59" s="71"/>
-      <c r="G59" s="71"/>
+      <c r="F59" s="62"/>
+      <c r="G59" s="62"/>
     </row>
     <row r="60" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="56"/>
-      <c r="B60" s="66"/>
-      <c r="C60" s="69"/>
+      <c r="A60" s="92"/>
+      <c r="B60" s="57"/>
+      <c r="C60" s="60"/>
       <c r="D60" s="45">
         <v>13</v>
       </c>
       <c r="E60" s="45" t="s">
         <v>443</v>
       </c>
-      <c r="F60" s="72"/>
-      <c r="G60" s="72"/>
+      <c r="F60" s="63"/>
+      <c r="G60" s="63"/>
     </row>
     <row r="61" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="58" t="s">
+      <c r="A61" s="93" t="s">
         <v>484</v>
       </c>
-      <c r="B61" s="61" t="s">
+      <c r="B61" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="C61" s="85" t="s">
+      <c r="C61" s="84" t="s">
         <v>178</v>
       </c>
       <c r="D61" s="29">
@@ -4195,60 +4195,60 @@
       <c r="E61" s="29" t="s">
         <v>378</v>
       </c>
-      <c r="F61" s="70">
-        <v>1</v>
-      </c>
-      <c r="G61" s="70" t="s">
+      <c r="F61" s="61">
+        <v>1</v>
+      </c>
+      <c r="G61" s="61" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="59"/>
-      <c r="B62" s="61"/>
-      <c r="C62" s="86"/>
+      <c r="A62" s="94"/>
+      <c r="B62" s="68"/>
+      <c r="C62" s="85"/>
       <c r="D62" s="28">
         <v>2</v>
       </c>
       <c r="E62" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="F62" s="71"/>
-      <c r="G62" s="71"/>
+      <c r="F62" s="62"/>
+      <c r="G62" s="62"/>
     </row>
     <row r="63" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="59"/>
-      <c r="B63" s="61"/>
-      <c r="C63" s="86"/>
+      <c r="A63" s="94"/>
+      <c r="B63" s="68"/>
+      <c r="C63" s="85"/>
       <c r="D63" s="28">
         <v>3</v>
       </c>
       <c r="E63" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="F63" s="71"/>
-      <c r="G63" s="71"/>
+      <c r="F63" s="62"/>
+      <c r="G63" s="62"/>
     </row>
     <row r="64" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="60"/>
-      <c r="B64" s="61"/>
-      <c r="C64" s="87"/>
+      <c r="A64" s="95"/>
+      <c r="B64" s="68"/>
+      <c r="C64" s="86"/>
       <c r="D64" s="28">
         <v>4</v>
       </c>
       <c r="E64" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="F64" s="72"/>
-      <c r="G64" s="72"/>
+      <c r="F64" s="63"/>
+      <c r="G64" s="63"/>
     </row>
     <row r="65" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="58" t="s">
+      <c r="A65" s="93" t="s">
         <v>484</v>
       </c>
-      <c r="B65" s="62" t="s">
+      <c r="B65" s="69" t="s">
         <v>356</v>
       </c>
-      <c r="C65" s="62" t="s">
+      <c r="C65" s="69" t="s">
         <v>80</v>
       </c>
       <c r="D65" s="28">
@@ -4257,47 +4257,47 @@
       <c r="E65" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="F65" s="84">
-        <v>1</v>
-      </c>
-      <c r="G65" s="63" t="s">
+      <c r="F65" s="83">
+        <v>1</v>
+      </c>
+      <c r="G65" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="59"/>
-      <c r="B66" s="62"/>
-      <c r="C66" s="62"/>
+      <c r="A66" s="94"/>
+      <c r="B66" s="69"/>
+      <c r="C66" s="69"/>
       <c r="D66" s="28">
         <v>2</v>
       </c>
       <c r="E66" s="28" t="s">
         <v>379</v>
       </c>
-      <c r="F66" s="84"/>
-      <c r="G66" s="63"/>
+      <c r="F66" s="83"/>
+      <c r="G66" s="70"/>
     </row>
     <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="60"/>
-      <c r="B67" s="62"/>
-      <c r="C67" s="62"/>
+      <c r="A67" s="95"/>
+      <c r="B67" s="69"/>
+      <c r="C67" s="69"/>
       <c r="D67" s="28">
         <v>3</v>
       </c>
       <c r="E67" s="28" t="s">
         <v>380</v>
       </c>
-      <c r="F67" s="84"/>
-      <c r="G67" s="63"/>
+      <c r="F67" s="83"/>
+      <c r="G67" s="70"/>
     </row>
     <row r="68" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="55" t="s">
+      <c r="A68" s="90" t="s">
         <v>484</v>
       </c>
-      <c r="B68" s="61" t="s">
+      <c r="B68" s="68" t="s">
         <v>284</v>
       </c>
-      <c r="C68" s="62" t="s">
+      <c r="C68" s="69" t="s">
         <v>397</v>
       </c>
       <c r="D68" s="25">
@@ -4306,36 +4306,36 @@
       <c r="E68" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="F68" s="63">
-        <v>1</v>
-      </c>
-      <c r="G68" s="63" t="s">
+      <c r="F68" s="70">
+        <v>1</v>
+      </c>
+      <c r="G68" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:7" s="5" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="56"/>
-      <c r="B69" s="61"/>
-      <c r="C69" s="62"/>
+      <c r="A69" s="92"/>
+      <c r="B69" s="68"/>
+      <c r="C69" s="69"/>
       <c r="D69" s="25">
         <v>0</v>
       </c>
       <c r="E69" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="F69" s="63"/>
-      <c r="G69" s="63"/>
+      <c r="F69" s="70"/>
+      <c r="G69" s="70"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="52"/>
-      <c r="B70" s="81" t="s">
+      <c r="B70" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="C70" s="81"/>
-      <c r="D70" s="81"/>
-      <c r="E70" s="81"/>
-      <c r="F70" s="81"/>
-      <c r="G70" s="81"/>
+      <c r="C70" s="75"/>
+      <c r="D70" s="75"/>
+      <c r="E70" s="75"/>
+      <c r="F70" s="75"/>
+      <c r="G70" s="75"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="52" t="s">
@@ -4357,67 +4357,67 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" s="55" t="s">
+      <c r="A72" s="90" t="s">
         <v>479</v>
       </c>
-      <c r="B72" s="62" t="s">
+      <c r="B72" s="69" t="s">
         <v>343</v>
       </c>
       <c r="C72" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="D72" s="83"/>
-      <c r="E72" s="83"/>
-      <c r="F72" s="63">
+      <c r="D72" s="82"/>
+      <c r="E72" s="82"/>
+      <c r="F72" s="70">
         <v>7</v>
       </c>
-      <c r="G72" s="63" t="s">
+      <c r="G72" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" s="57"/>
-      <c r="B73" s="61"/>
+      <c r="A73" s="91"/>
+      <c r="B73" s="68"/>
       <c r="C73" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D73" s="83"/>
-      <c r="E73" s="83"/>
-      <c r="F73" s="63"/>
-      <c r="G73" s="63"/>
+      <c r="D73" s="82"/>
+      <c r="E73" s="82"/>
+      <c r="F73" s="70"/>
+      <c r="G73" s="70"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" s="57"/>
-      <c r="B74" s="61"/>
+      <c r="A74" s="91"/>
+      <c r="B74" s="68"/>
       <c r="C74" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D74" s="83"/>
-      <c r="E74" s="83"/>
-      <c r="F74" s="63"/>
-      <c r="G74" s="63"/>
+      <c r="D74" s="82"/>
+      <c r="E74" s="82"/>
+      <c r="F74" s="70"/>
+      <c r="G74" s="70"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" s="57"/>
-      <c r="B75" s="61"/>
+      <c r="A75" s="91"/>
+      <c r="B75" s="68"/>
       <c r="C75" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D75" s="83"/>
-      <c r="E75" s="83"/>
-      <c r="F75" s="63"/>
-      <c r="G75" s="63"/>
+      <c r="D75" s="82"/>
+      <c r="E75" s="82"/>
+      <c r="F75" s="70"/>
+      <c r="G75" s="70"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" s="56"/>
-      <c r="B76" s="61"/>
+      <c r="A76" s="92"/>
+      <c r="B76" s="68"/>
       <c r="C76" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D76" s="83"/>
-      <c r="E76" s="83"/>
-      <c r="F76" s="63"/>
-      <c r="G76" s="63"/>
+      <c r="D76" s="82"/>
+      <c r="E76" s="82"/>
+      <c r="F76" s="70"/>
+      <c r="G76" s="70"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="52" t="s">
@@ -4477,13 +4477,13 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" s="55" t="s">
+      <c r="A80" s="90" t="s">
         <v>484</v>
       </c>
-      <c r="B80" s="61" t="s">
+      <c r="B80" s="68" t="s">
         <v>346</v>
       </c>
-      <c r="C80" s="62" t="s">
+      <c r="C80" s="69" t="s">
         <v>91</v>
       </c>
       <c r="D80" s="25">
@@ -4492,60 +4492,60 @@
       <c r="E80" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="F80" s="63">
-        <v>1</v>
-      </c>
-      <c r="G80" s="63" t="s">
+      <c r="F80" s="70">
+        <v>1</v>
+      </c>
+      <c r="G80" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="57"/>
-      <c r="B81" s="61"/>
-      <c r="C81" s="62"/>
+      <c r="A81" s="91"/>
+      <c r="B81" s="68"/>
+      <c r="C81" s="69"/>
       <c r="D81" s="25">
         <v>2</v>
       </c>
       <c r="E81" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="F81" s="63"/>
-      <c r="G81" s="63"/>
+      <c r="F81" s="70"/>
+      <c r="G81" s="70"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="57"/>
-      <c r="B82" s="61"/>
-      <c r="C82" s="62"/>
+      <c r="A82" s="91"/>
+      <c r="B82" s="68"/>
+      <c r="C82" s="69"/>
       <c r="D82" s="25">
         <v>3</v>
       </c>
       <c r="E82" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="F82" s="63"/>
-      <c r="G82" s="63"/>
+      <c r="F82" s="70"/>
+      <c r="G82" s="70"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" s="56"/>
-      <c r="B83" s="61"/>
-      <c r="C83" s="62"/>
+      <c r="A83" s="92"/>
+      <c r="B83" s="68"/>
+      <c r="C83" s="69"/>
       <c r="D83" s="25">
         <v>4</v>
       </c>
       <c r="E83" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="F83" s="63"/>
-      <c r="G83" s="63"/>
+      <c r="F83" s="70"/>
+      <c r="G83" s="70"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" s="55" t="s">
+      <c r="A84" s="90" t="s">
         <v>484</v>
       </c>
-      <c r="B84" s="61" t="s">
+      <c r="B84" s="68" t="s">
         <v>347</v>
       </c>
-      <c r="C84" s="62" t="s">
+      <c r="C84" s="69" t="s">
         <v>93</v>
       </c>
       <c r="D84" s="25">
@@ -4554,34 +4554,34 @@
       <c r="E84" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="F84" s="63">
-        <v>1</v>
-      </c>
-      <c r="G84" s="63" t="s">
+      <c r="F84" s="70">
+        <v>1</v>
+      </c>
+      <c r="G84" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" s="56"/>
-      <c r="B85" s="61"/>
-      <c r="C85" s="62"/>
+      <c r="A85" s="92"/>
+      <c r="B85" s="68"/>
+      <c r="C85" s="69"/>
       <c r="D85" s="25">
         <v>2</v>
       </c>
       <c r="E85" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="F85" s="63"/>
-      <c r="G85" s="63"/>
+      <c r="F85" s="70"/>
+      <c r="G85" s="70"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" s="55" t="s">
+      <c r="A86" s="90" t="s">
         <v>484</v>
       </c>
-      <c r="B86" s="61" t="s">
+      <c r="B86" s="68" t="s">
         <v>348</v>
       </c>
-      <c r="C86" s="62" t="s">
+      <c r="C86" s="69" t="s">
         <v>95</v>
       </c>
       <c r="D86" s="44">
@@ -4590,56 +4590,56 @@
       <c r="E86" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="F86" s="84">
-        <v>1</v>
-      </c>
-      <c r="G86" s="84" t="s">
+      <c r="F86" s="83">
+        <v>1</v>
+      </c>
+      <c r="G86" s="83" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A87" s="57"/>
-      <c r="B87" s="61"/>
-      <c r="C87" s="62"/>
+      <c r="A87" s="91"/>
+      <c r="B87" s="68"/>
+      <c r="C87" s="69"/>
       <c r="D87" s="44">
         <v>2</v>
       </c>
       <c r="E87" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="F87" s="84"/>
-      <c r="G87" s="84"/>
+      <c r="F87" s="83"/>
+      <c r="G87" s="83"/>
     </row>
     <row r="88" spans="1:7" s="5" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="56"/>
-      <c r="B88" s="61"/>
-      <c r="C88" s="62"/>
+      <c r="A88" s="92"/>
+      <c r="B88" s="68"/>
+      <c r="C88" s="69"/>
       <c r="D88" s="44">
         <v>3</v>
       </c>
       <c r="E88" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="F88" s="84"/>
-      <c r="G88" s="84"/>
+      <c r="F88" s="83"/>
+      <c r="G88" s="83"/>
     </row>
     <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="52"/>
-      <c r="B89" s="81" t="s">
+      <c r="B89" s="75" t="s">
         <v>387</v>
       </c>
-      <c r="C89" s="81"/>
-      <c r="D89" s="81"/>
-      <c r="E89" s="81"/>
-      <c r="F89" s="81"/>
-      <c r="G89" s="81"/>
+      <c r="C89" s="75"/>
+      <c r="D89" s="75"/>
+      <c r="E89" s="75"/>
+      <c r="F89" s="75"/>
+      <c r="G89" s="75"/>
     </row>
     <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="52"/>
-      <c r="B90" s="61" t="s">
+      <c r="B90" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="C90" s="62" t="s">
+      <c r="C90" s="69" t="s">
         <v>287</v>
       </c>
       <c r="D90" s="36">
@@ -4648,32 +4648,32 @@
       <c r="E90" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="F90" s="63">
-        <v>1</v>
-      </c>
-      <c r="G90" s="63" t="s">
+      <c r="F90" s="70">
+        <v>1</v>
+      </c>
+      <c r="G90" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="52"/>
-      <c r="B91" s="61"/>
-      <c r="C91" s="62"/>
+      <c r="B91" s="68"/>
+      <c r="C91" s="69"/>
       <c r="D91" s="36">
         <v>0</v>
       </c>
       <c r="E91" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="F91" s="63"/>
-      <c r="G91" s="63"/>
+      <c r="F91" s="70"/>
+      <c r="G91" s="70"/>
     </row>
     <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="52"/>
-      <c r="B92" s="61" t="s">
+      <c r="B92" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="C92" s="62" t="s">
+      <c r="C92" s="69" t="s">
         <v>288</v>
       </c>
       <c r="D92" s="36">
@@ -4682,32 +4682,32 @@
       <c r="E92" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="F92" s="63">
-        <v>1</v>
-      </c>
-      <c r="G92" s="63" t="s">
+      <c r="F92" s="70">
+        <v>1</v>
+      </c>
+      <c r="G92" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="52"/>
-      <c r="B93" s="61"/>
-      <c r="C93" s="62"/>
+      <c r="B93" s="68"/>
+      <c r="C93" s="69"/>
       <c r="D93" s="36">
         <v>0</v>
       </c>
       <c r="E93" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="F93" s="63"/>
-      <c r="G93" s="63"/>
+      <c r="F93" s="70"/>
+      <c r="G93" s="70"/>
     </row>
     <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="52"/>
-      <c r="B94" s="61" t="s">
+      <c r="B94" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="C94" s="62" t="s">
+      <c r="C94" s="69" t="s">
         <v>289</v>
       </c>
       <c r="D94" s="36">
@@ -4716,32 +4716,32 @@
       <c r="E94" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="F94" s="63">
-        <v>1</v>
-      </c>
-      <c r="G94" s="63" t="s">
+      <c r="F94" s="70">
+        <v>1</v>
+      </c>
+      <c r="G94" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="52"/>
-      <c r="B95" s="61"/>
-      <c r="C95" s="62"/>
+      <c r="B95" s="68"/>
+      <c r="C95" s="69"/>
       <c r="D95" s="36">
         <v>0</v>
       </c>
       <c r="E95" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="F95" s="63"/>
-      <c r="G95" s="63"/>
+      <c r="F95" s="70"/>
+      <c r="G95" s="70"/>
     </row>
     <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="52"/>
-      <c r="B96" s="61" t="s">
+      <c r="B96" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="C96" s="62" t="s">
+      <c r="C96" s="69" t="s">
         <v>290</v>
       </c>
       <c r="D96" s="36">
@@ -4750,32 +4750,32 @@
       <c r="E96" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="F96" s="63">
-        <v>1</v>
-      </c>
-      <c r="G96" s="63" t="s">
+      <c r="F96" s="70">
+        <v>1</v>
+      </c>
+      <c r="G96" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="52"/>
-      <c r="B97" s="61"/>
-      <c r="C97" s="62"/>
+      <c r="B97" s="68"/>
+      <c r="C97" s="69"/>
       <c r="D97" s="36">
         <v>0</v>
       </c>
       <c r="E97" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="F97" s="63"/>
-      <c r="G97" s="63"/>
+      <c r="F97" s="70"/>
+      <c r="G97" s="70"/>
     </row>
     <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="52"/>
-      <c r="B98" s="61" t="s">
+      <c r="B98" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="C98" s="62" t="s">
+      <c r="C98" s="69" t="s">
         <v>291</v>
       </c>
       <c r="D98" s="36">
@@ -4784,32 +4784,32 @@
       <c r="E98" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="F98" s="63">
-        <v>1</v>
-      </c>
-      <c r="G98" s="63" t="s">
+      <c r="F98" s="70">
+        <v>1</v>
+      </c>
+      <c r="G98" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="52"/>
-      <c r="B99" s="61"/>
-      <c r="C99" s="62"/>
+      <c r="B99" s="68"/>
+      <c r="C99" s="69"/>
       <c r="D99" s="36">
         <v>0</v>
       </c>
       <c r="E99" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="F99" s="63"/>
-      <c r="G99" s="63"/>
+      <c r="F99" s="70"/>
+      <c r="G99" s="70"/>
     </row>
     <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="52"/>
-      <c r="B100" s="61" t="s">
+      <c r="B100" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="C100" s="62" t="s">
+      <c r="C100" s="69" t="s">
         <v>292</v>
       </c>
       <c r="D100" s="36">
@@ -4818,32 +4818,32 @@
       <c r="E100" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="F100" s="63">
-        <v>1</v>
-      </c>
-      <c r="G100" s="63" t="s">
+      <c r="F100" s="70">
+        <v>1</v>
+      </c>
+      <c r="G100" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="52"/>
-      <c r="B101" s="61"/>
-      <c r="C101" s="62"/>
+      <c r="B101" s="68"/>
+      <c r="C101" s="69"/>
       <c r="D101" s="36">
         <v>0</v>
       </c>
       <c r="E101" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="F101" s="63"/>
-      <c r="G101" s="63"/>
+      <c r="F101" s="70"/>
+      <c r="G101" s="70"/>
     </row>
     <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="52"/>
-      <c r="B102" s="61" t="s">
+      <c r="B102" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C102" s="62" t="s">
+      <c r="C102" s="69" t="s">
         <v>293</v>
       </c>
       <c r="D102" s="36">
@@ -4852,32 +4852,32 @@
       <c r="E102" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="F102" s="63">
-        <v>1</v>
-      </c>
-      <c r="G102" s="63" t="s">
+      <c r="F102" s="70">
+        <v>1</v>
+      </c>
+      <c r="G102" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="52"/>
-      <c r="B103" s="61"/>
-      <c r="C103" s="62"/>
+      <c r="B103" s="68"/>
+      <c r="C103" s="69"/>
       <c r="D103" s="36">
         <v>0</v>
       </c>
       <c r="E103" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="F103" s="63"/>
-      <c r="G103" s="63"/>
+      <c r="F103" s="70"/>
+      <c r="G103" s="70"/>
     </row>
     <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="52"/>
-      <c r="B104" s="61" t="s">
+      <c r="B104" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="C104" s="62" t="s">
+      <c r="C104" s="69" t="s">
         <v>294</v>
       </c>
       <c r="D104" s="36">
@@ -4886,32 +4886,32 @@
       <c r="E104" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="F104" s="63">
-        <v>1</v>
-      </c>
-      <c r="G104" s="63" t="s">
+      <c r="F104" s="70">
+        <v>1</v>
+      </c>
+      <c r="G104" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="52"/>
-      <c r="B105" s="61"/>
-      <c r="C105" s="62"/>
+      <c r="B105" s="68"/>
+      <c r="C105" s="69"/>
       <c r="D105" s="36">
         <v>0</v>
       </c>
       <c r="E105" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="F105" s="63"/>
-      <c r="G105" s="63"/>
+      <c r="F105" s="70"/>
+      <c r="G105" s="70"/>
     </row>
     <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="52"/>
-      <c r="B106" s="61" t="s">
+      <c r="B106" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="C106" s="62" t="s">
+      <c r="C106" s="69" t="s">
         <v>295</v>
       </c>
       <c r="D106" s="36">
@@ -4920,32 +4920,32 @@
       <c r="E106" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="F106" s="63">
-        <v>1</v>
-      </c>
-      <c r="G106" s="63" t="s">
+      <c r="F106" s="70">
+        <v>1</v>
+      </c>
+      <c r="G106" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="52"/>
-      <c r="B107" s="61"/>
-      <c r="C107" s="62"/>
+      <c r="B107" s="68"/>
+      <c r="C107" s="69"/>
       <c r="D107" s="36">
         <v>0</v>
       </c>
       <c r="E107" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="F107" s="63"/>
-      <c r="G107" s="63"/>
+      <c r="F107" s="70"/>
+      <c r="G107" s="70"/>
     </row>
     <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="52"/>
-      <c r="B108" s="76" t="s">
+      <c r="B108" s="64" t="s">
         <v>187</v>
       </c>
-      <c r="C108" s="78" t="s">
+      <c r="C108" s="66" t="s">
         <v>299</v>
       </c>
       <c r="D108" s="36">
@@ -4954,32 +4954,32 @@
       <c r="E108" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="F108" s="70">
-        <v>1</v>
-      </c>
-      <c r="G108" s="70" t="s">
+      <c r="F108" s="61">
+        <v>1</v>
+      </c>
+      <c r="G108" s="61" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="52"/>
-      <c r="B109" s="82"/>
-      <c r="C109" s="80"/>
+      <c r="B109" s="76"/>
+      <c r="C109" s="74"/>
       <c r="D109" s="36">
         <v>0</v>
       </c>
       <c r="E109" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="F109" s="72"/>
-      <c r="G109" s="72"/>
+      <c r="F109" s="63"/>
+      <c r="G109" s="63"/>
     </row>
     <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="52"/>
-      <c r="B110" s="61" t="s">
+      <c r="B110" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="C110" s="62" t="s">
+      <c r="C110" s="69" t="s">
         <v>300</v>
       </c>
       <c r="D110" s="36">
@@ -4988,32 +4988,32 @@
       <c r="E110" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="F110" s="63">
-        <v>1</v>
-      </c>
-      <c r="G110" s="63" t="s">
+      <c r="F110" s="70">
+        <v>1</v>
+      </c>
+      <c r="G110" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="52"/>
-      <c r="B111" s="61"/>
-      <c r="C111" s="62"/>
+      <c r="B111" s="68"/>
+      <c r="C111" s="69"/>
       <c r="D111" s="36">
         <v>0</v>
       </c>
       <c r="E111" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="F111" s="63"/>
-      <c r="G111" s="63"/>
+      <c r="F111" s="70"/>
+      <c r="G111" s="70"/>
     </row>
     <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="52"/>
-      <c r="B112" s="76" t="s">
+      <c r="B112" s="64" t="s">
         <v>188</v>
       </c>
-      <c r="C112" s="78" t="s">
+      <c r="C112" s="66" t="s">
         <v>301</v>
       </c>
       <c r="D112" s="36">
@@ -5022,32 +5022,32 @@
       <c r="E112" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="F112" s="70">
-        <v>1</v>
-      </c>
-      <c r="G112" s="70" t="s">
+      <c r="F112" s="61">
+        <v>1</v>
+      </c>
+      <c r="G112" s="61" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="52"/>
-      <c r="B113" s="82"/>
-      <c r="C113" s="80"/>
+      <c r="B113" s="76"/>
+      <c r="C113" s="74"/>
       <c r="D113" s="36">
         <v>0</v>
       </c>
       <c r="E113" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="F113" s="72"/>
-      <c r="G113" s="72"/>
+      <c r="F113" s="63"/>
+      <c r="G113" s="63"/>
     </row>
     <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="52"/>
-      <c r="B114" s="61" t="s">
+      <c r="B114" s="68" t="s">
         <v>189</v>
       </c>
-      <c r="C114" s="62" t="s">
+      <c r="C114" s="69" t="s">
         <v>302</v>
       </c>
       <c r="D114" s="36">
@@ -5056,43 +5056,43 @@
       <c r="E114" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="F114" s="63">
-        <v>1</v>
-      </c>
-      <c r="G114" s="63" t="s">
+      <c r="F114" s="70">
+        <v>1</v>
+      </c>
+      <c r="G114" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="115" spans="1:7" s="5" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="52"/>
-      <c r="B115" s="61"/>
-      <c r="C115" s="62"/>
+      <c r="B115" s="68"/>
+      <c r="C115" s="69"/>
       <c r="D115" s="36">
         <v>0</v>
       </c>
       <c r="E115" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="F115" s="63"/>
-      <c r="G115" s="63"/>
+      <c r="F115" s="70"/>
+      <c r="G115" s="70"/>
     </row>
     <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="52"/>
-      <c r="B116" s="81" t="s">
+      <c r="B116" s="75" t="s">
         <v>388</v>
       </c>
-      <c r="C116" s="81"/>
-      <c r="D116" s="81"/>
-      <c r="E116" s="81"/>
-      <c r="F116" s="81"/>
-      <c r="G116" s="81"/>
+      <c r="C116" s="75"/>
+      <c r="D116" s="75"/>
+      <c r="E116" s="75"/>
+      <c r="F116" s="75"/>
+      <c r="G116" s="75"/>
     </row>
     <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="52"/>
-      <c r="B117" s="61" t="s">
+      <c r="B117" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C117" s="62" t="s">
+      <c r="C117" s="69" t="s">
         <v>296</v>
       </c>
       <c r="D117" s="36">
@@ -5101,32 +5101,32 @@
       <c r="E117" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="F117" s="63">
-        <v>1</v>
-      </c>
-      <c r="G117" s="63" t="s">
+      <c r="F117" s="70">
+        <v>1</v>
+      </c>
+      <c r="G117" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="52"/>
-      <c r="B118" s="61"/>
-      <c r="C118" s="62"/>
+      <c r="B118" s="68"/>
+      <c r="C118" s="69"/>
       <c r="D118" s="36">
         <v>0</v>
       </c>
       <c r="E118" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="F118" s="63"/>
-      <c r="G118" s="63"/>
+      <c r="F118" s="70"/>
+      <c r="G118" s="70"/>
     </row>
     <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="52"/>
-      <c r="B119" s="61" t="s">
+      <c r="B119" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="C119" s="62" t="s">
+      <c r="C119" s="69" t="s">
         <v>297</v>
       </c>
       <c r="D119" s="36">
@@ -5135,32 +5135,32 @@
       <c r="E119" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="F119" s="63">
-        <v>1</v>
-      </c>
-      <c r="G119" s="63" t="s">
+      <c r="F119" s="70">
+        <v>1</v>
+      </c>
+      <c r="G119" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="52"/>
-      <c r="B120" s="61"/>
-      <c r="C120" s="62"/>
+      <c r="B120" s="68"/>
+      <c r="C120" s="69"/>
       <c r="D120" s="36">
         <v>0</v>
       </c>
       <c r="E120" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="F120" s="63"/>
-      <c r="G120" s="63"/>
+      <c r="F120" s="70"/>
+      <c r="G120" s="70"/>
     </row>
     <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="52"/>
-      <c r="B121" s="61" t="s">
+      <c r="B121" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="C121" s="62" t="s">
+      <c r="C121" s="69" t="s">
         <v>298</v>
       </c>
       <c r="D121" s="36">
@@ -5169,32 +5169,32 @@
       <c r="E121" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="F121" s="63">
-        <v>1</v>
-      </c>
-      <c r="G121" s="63" t="s">
+      <c r="F121" s="70">
+        <v>1</v>
+      </c>
+      <c r="G121" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="122" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A122" s="52"/>
-      <c r="B122" s="61"/>
-      <c r="C122" s="62"/>
+      <c r="B122" s="68"/>
+      <c r="C122" s="69"/>
       <c r="D122" s="36">
         <v>0</v>
       </c>
       <c r="E122" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="F122" s="63"/>
-      <c r="G122" s="63"/>
+      <c r="F122" s="70"/>
+      <c r="G122" s="70"/>
     </row>
     <row r="123" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A123" s="52"/>
-      <c r="B123" s="61" t="s">
+      <c r="B123" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="C123" s="62" t="s">
+      <c r="C123" s="69" t="s">
         <v>400</v>
       </c>
       <c r="D123" s="36">
@@ -5203,43 +5203,43 @@
       <c r="E123" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="F123" s="63">
-        <v>1</v>
-      </c>
-      <c r="G123" s="63" t="s">
+      <c r="F123" s="70">
+        <v>1</v>
+      </c>
+      <c r="G123" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="124" spans="1:7" s="5" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="52"/>
-      <c r="B124" s="61"/>
-      <c r="C124" s="62"/>
+      <c r="B124" s="68"/>
+      <c r="C124" s="69"/>
       <c r="D124" s="36">
         <v>0</v>
       </c>
       <c r="E124" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="F124" s="63"/>
-      <c r="G124" s="63"/>
+      <c r="F124" s="70"/>
+      <c r="G124" s="70"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="52"/>
-      <c r="B125" s="81" t="s">
+      <c r="B125" s="75" t="s">
         <v>384</v>
       </c>
-      <c r="C125" s="81"/>
-      <c r="D125" s="81"/>
-      <c r="E125" s="81"/>
-      <c r="F125" s="81"/>
-      <c r="G125" s="81"/>
+      <c r="C125" s="75"/>
+      <c r="D125" s="75"/>
+      <c r="E125" s="75"/>
+      <c r="F125" s="75"/>
+      <c r="G125" s="75"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" s="52"/>
-      <c r="B126" s="61" t="s">
+      <c r="B126" s="68" t="s">
         <v>190</v>
       </c>
-      <c r="C126" s="62" t="s">
+      <c r="C126" s="69" t="s">
         <v>286</v>
       </c>
       <c r="D126" s="30">
@@ -5248,32 +5248,32 @@
       <c r="E126" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="F126" s="63">
-        <v>1</v>
-      </c>
-      <c r="G126" s="63" t="s">
+      <c r="F126" s="70">
+        <v>1</v>
+      </c>
+      <c r="G126" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="52"/>
-      <c r="B127" s="61"/>
-      <c r="C127" s="62"/>
+      <c r="B127" s="68"/>
+      <c r="C127" s="69"/>
       <c r="D127" s="30">
         <v>0</v>
       </c>
       <c r="E127" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="F127" s="63"/>
-      <c r="G127" s="63"/>
+      <c r="F127" s="70"/>
+      <c r="G127" s="70"/>
     </row>
     <row r="128" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="52"/>
-      <c r="B128" s="61" t="s">
+      <c r="B128" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="C128" s="62" t="s">
+      <c r="C128" s="69" t="s">
         <v>303</v>
       </c>
       <c r="D128" s="30">
@@ -5282,32 +5282,32 @@
       <c r="E128" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="F128" s="63">
-        <v>1</v>
-      </c>
-      <c r="G128" s="63" t="s">
+      <c r="F128" s="70">
+        <v>1</v>
+      </c>
+      <c r="G128" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="52"/>
-      <c r="B129" s="61"/>
-      <c r="C129" s="62"/>
+      <c r="B129" s="68"/>
+      <c r="C129" s="69"/>
       <c r="D129" s="30">
         <v>0</v>
       </c>
       <c r="E129" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="F129" s="63"/>
-      <c r="G129" s="63"/>
+      <c r="F129" s="70"/>
+      <c r="G129" s="70"/>
     </row>
     <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="52"/>
-      <c r="B130" s="61" t="s">
+      <c r="B130" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="C130" s="62" t="s">
+      <c r="C130" s="69" t="s">
         <v>417</v>
       </c>
       <c r="D130" s="30">
@@ -5316,32 +5316,32 @@
       <c r="E130" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="F130" s="63">
-        <v>1</v>
-      </c>
-      <c r="G130" s="63" t="s">
+      <c r="F130" s="70">
+        <v>1</v>
+      </c>
+      <c r="G130" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="52"/>
-      <c r="B131" s="61"/>
-      <c r="C131" s="62"/>
+      <c r="B131" s="68"/>
+      <c r="C131" s="69"/>
       <c r="D131" s="30">
         <v>0</v>
       </c>
       <c r="E131" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="F131" s="63"/>
-      <c r="G131" s="63"/>
+      <c r="F131" s="70"/>
+      <c r="G131" s="70"/>
     </row>
     <row r="132" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="52"/>
-      <c r="B132" s="61" t="s">
+      <c r="B132" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="C132" s="62" t="s">
+      <c r="C132" s="69" t="s">
         <v>418</v>
       </c>
       <c r="D132" s="30">
@@ -5350,32 +5350,32 @@
       <c r="E132" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="F132" s="63">
-        <v>1</v>
-      </c>
-      <c r="G132" s="63" t="s">
+      <c r="F132" s="70">
+        <v>1</v>
+      </c>
+      <c r="G132" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="52"/>
-      <c r="B133" s="61"/>
-      <c r="C133" s="62"/>
+      <c r="B133" s="68"/>
+      <c r="C133" s="69"/>
       <c r="D133" s="30">
         <v>0</v>
       </c>
       <c r="E133" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="F133" s="63"/>
-      <c r="G133" s="63"/>
+      <c r="F133" s="70"/>
+      <c r="G133" s="70"/>
     </row>
     <row r="134" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="52"/>
-      <c r="B134" s="61" t="s">
+      <c r="B134" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="C134" s="62" t="s">
+      <c r="C134" s="69" t="s">
         <v>419</v>
       </c>
       <c r="D134" s="30">
@@ -5384,32 +5384,32 @@
       <c r="E134" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="F134" s="63">
-        <v>1</v>
-      </c>
-      <c r="G134" s="63" t="s">
+      <c r="F134" s="70">
+        <v>1</v>
+      </c>
+      <c r="G134" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="52"/>
-      <c r="B135" s="61"/>
-      <c r="C135" s="62"/>
+      <c r="B135" s="68"/>
+      <c r="C135" s="69"/>
       <c r="D135" s="30">
         <v>0</v>
       </c>
       <c r="E135" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="F135" s="63"/>
-      <c r="G135" s="63"/>
+      <c r="F135" s="70"/>
+      <c r="G135" s="70"/>
     </row>
     <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="52"/>
-      <c r="B136" s="61" t="s">
+      <c r="B136" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="C136" s="62" t="s">
+      <c r="C136" s="69" t="s">
         <v>304</v>
       </c>
       <c r="D136" s="30">
@@ -5418,32 +5418,32 @@
       <c r="E136" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="F136" s="63">
-        <v>1</v>
-      </c>
-      <c r="G136" s="63" t="s">
+      <c r="F136" s="70">
+        <v>1</v>
+      </c>
+      <c r="G136" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="52"/>
-      <c r="B137" s="61"/>
-      <c r="C137" s="62"/>
+      <c r="B137" s="68"/>
+      <c r="C137" s="69"/>
       <c r="D137" s="30">
         <v>0</v>
       </c>
       <c r="E137" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="F137" s="63"/>
-      <c r="G137" s="63"/>
+      <c r="F137" s="70"/>
+      <c r="G137" s="70"/>
     </row>
     <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="52"/>
-      <c r="B138" s="61" t="s">
+      <c r="B138" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="C138" s="62" t="s">
+      <c r="C138" s="69" t="s">
         <v>420</v>
       </c>
       <c r="D138" s="30">
@@ -5452,32 +5452,32 @@
       <c r="E138" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="F138" s="63">
-        <v>1</v>
-      </c>
-      <c r="G138" s="63" t="s">
+      <c r="F138" s="70">
+        <v>1</v>
+      </c>
+      <c r="G138" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="52"/>
-      <c r="B139" s="61"/>
-      <c r="C139" s="62"/>
+      <c r="B139" s="68"/>
+      <c r="C139" s="69"/>
       <c r="D139" s="30">
         <v>0</v>
       </c>
       <c r="E139" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="F139" s="63"/>
-      <c r="G139" s="63"/>
+      <c r="F139" s="70"/>
+      <c r="G139" s="70"/>
     </row>
     <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="52"/>
-      <c r="B140" s="61" t="s">
+      <c r="B140" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="C140" s="62" t="s">
+      <c r="C140" s="69" t="s">
         <v>385</v>
       </c>
       <c r="D140" s="30">
@@ -5486,32 +5486,32 @@
       <c r="E140" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="F140" s="63">
-        <v>1</v>
-      </c>
-      <c r="G140" s="63" t="s">
+      <c r="F140" s="70">
+        <v>1</v>
+      </c>
+      <c r="G140" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="52"/>
-      <c r="B141" s="61"/>
-      <c r="C141" s="62"/>
+      <c r="B141" s="68"/>
+      <c r="C141" s="69"/>
       <c r="D141" s="30">
         <v>0</v>
       </c>
       <c r="E141" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="F141" s="63"/>
-      <c r="G141" s="63"/>
+      <c r="F141" s="70"/>
+      <c r="G141" s="70"/>
     </row>
     <row r="142" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="52"/>
-      <c r="B142" s="76" t="s">
+      <c r="B142" s="64" t="s">
         <v>452</v>
       </c>
-      <c r="C142" s="62" t="s">
+      <c r="C142" s="69" t="s">
         <v>453</v>
       </c>
       <c r="D142" s="47">
@@ -5520,32 +5520,32 @@
       <c r="E142" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="F142" s="63">
-        <v>1</v>
-      </c>
-      <c r="G142" s="63" t="s">
+      <c r="F142" s="70">
+        <v>1</v>
+      </c>
+      <c r="G142" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="52"/>
-      <c r="B143" s="82"/>
-      <c r="C143" s="62"/>
+      <c r="B143" s="76"/>
+      <c r="C143" s="69"/>
       <c r="D143" s="47">
         <v>0</v>
       </c>
       <c r="E143" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="F143" s="63"/>
-      <c r="G143" s="63"/>
+      <c r="F143" s="70"/>
+      <c r="G143" s="70"/>
     </row>
     <row r="144" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="52"/>
-      <c r="B144" s="61" t="s">
+      <c r="B144" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="C144" s="62" t="s">
+      <c r="C144" s="69" t="s">
         <v>305</v>
       </c>
       <c r="D144" s="30">
@@ -5554,32 +5554,32 @@
       <c r="E144" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="F144" s="63">
-        <v>1</v>
-      </c>
-      <c r="G144" s="63" t="s">
+      <c r="F144" s="70">
+        <v>1</v>
+      </c>
+      <c r="G144" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="52"/>
-      <c r="B145" s="61"/>
-      <c r="C145" s="62"/>
+      <c r="B145" s="68"/>
+      <c r="C145" s="69"/>
       <c r="D145" s="30">
         <v>0</v>
       </c>
       <c r="E145" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="F145" s="63"/>
-      <c r="G145" s="63"/>
+      <c r="F145" s="70"/>
+      <c r="G145" s="70"/>
     </row>
     <row r="146" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="52"/>
-      <c r="B146" s="61" t="s">
+      <c r="B146" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="C146" s="62" t="s">
+      <c r="C146" s="69" t="s">
         <v>421</v>
       </c>
       <c r="D146" s="30">
@@ -5588,32 +5588,32 @@
       <c r="E146" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="F146" s="63">
-        <v>1</v>
-      </c>
-      <c r="G146" s="63" t="s">
+      <c r="F146" s="70">
+        <v>1</v>
+      </c>
+      <c r="G146" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="52"/>
-      <c r="B147" s="61"/>
-      <c r="C147" s="62"/>
+      <c r="B147" s="68"/>
+      <c r="C147" s="69"/>
       <c r="D147" s="30">
         <v>0</v>
       </c>
       <c r="E147" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="F147" s="63"/>
-      <c r="G147" s="63"/>
+      <c r="F147" s="70"/>
+      <c r="G147" s="70"/>
     </row>
     <row r="148" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="52"/>
-      <c r="B148" s="61" t="s">
+      <c r="B148" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C148" s="62" t="s">
+      <c r="C148" s="69" t="s">
         <v>422</v>
       </c>
       <c r="D148" s="30">
@@ -5622,32 +5622,32 @@
       <c r="E148" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="F148" s="63">
-        <v>1</v>
-      </c>
-      <c r="G148" s="63" t="s">
+      <c r="F148" s="70">
+        <v>1</v>
+      </c>
+      <c r="G148" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="52"/>
-      <c r="B149" s="61"/>
-      <c r="C149" s="62"/>
+      <c r="B149" s="68"/>
+      <c r="C149" s="69"/>
       <c r="D149" s="30">
         <v>0</v>
       </c>
       <c r="E149" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="F149" s="63"/>
-      <c r="G149" s="63"/>
+      <c r="F149" s="70"/>
+      <c r="G149" s="70"/>
     </row>
     <row r="150" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="52"/>
-      <c r="B150" s="61" t="s">
+      <c r="B150" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="C150" s="62" t="s">
+      <c r="C150" s="69" t="s">
         <v>423</v>
       </c>
       <c r="D150" s="30">
@@ -5656,32 +5656,32 @@
       <c r="E150" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="F150" s="63">
-        <v>1</v>
-      </c>
-      <c r="G150" s="63" t="s">
+      <c r="F150" s="70">
+        <v>1</v>
+      </c>
+      <c r="G150" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="52"/>
-      <c r="B151" s="61"/>
-      <c r="C151" s="62"/>
+      <c r="B151" s="68"/>
+      <c r="C151" s="69"/>
       <c r="D151" s="30">
         <v>0</v>
       </c>
       <c r="E151" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="F151" s="63"/>
-      <c r="G151" s="63"/>
+      <c r="F151" s="70"/>
+      <c r="G151" s="70"/>
     </row>
     <row r="152" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="52"/>
-      <c r="B152" s="61" t="s">
+      <c r="B152" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="C152" s="62" t="s">
+      <c r="C152" s="69" t="s">
         <v>306</v>
       </c>
       <c r="D152" s="30">
@@ -5690,32 +5690,32 @@
       <c r="E152" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="F152" s="63">
-        <v>1</v>
-      </c>
-      <c r="G152" s="63" t="s">
+      <c r="F152" s="70">
+        <v>1</v>
+      </c>
+      <c r="G152" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="52"/>
-      <c r="B153" s="61"/>
-      <c r="C153" s="62"/>
+      <c r="B153" s="68"/>
+      <c r="C153" s="69"/>
       <c r="D153" s="30">
         <v>0</v>
       </c>
       <c r="E153" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="F153" s="63"/>
-      <c r="G153" s="63"/>
+      <c r="F153" s="70"/>
+      <c r="G153" s="70"/>
     </row>
     <row r="154" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="52"/>
-      <c r="B154" s="78" t="s">
+      <c r="B154" s="66" t="s">
         <v>261</v>
       </c>
-      <c r="C154" s="62" t="s">
+      <c r="C154" s="69" t="s">
         <v>307</v>
       </c>
       <c r="D154" s="25">
@@ -5724,32 +5724,32 @@
       <c r="E154" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="F154" s="63">
-        <v>1</v>
-      </c>
-      <c r="G154" s="63" t="s">
+      <c r="F154" s="70">
+        <v>1</v>
+      </c>
+      <c r="G154" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="52"/>
-      <c r="B155" s="80"/>
-      <c r="C155" s="62"/>
+      <c r="B155" s="74"/>
+      <c r="C155" s="69"/>
       <c r="D155" s="25">
         <v>0</v>
       </c>
       <c r="E155" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="F155" s="63"/>
-      <c r="G155" s="63"/>
+      <c r="F155" s="70"/>
+      <c r="G155" s="70"/>
     </row>
     <row r="156" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="52"/>
-      <c r="B156" s="78" t="s">
+      <c r="B156" s="66" t="s">
         <v>262</v>
       </c>
-      <c r="C156" s="62" t="s">
+      <c r="C156" s="69" t="s">
         <v>308</v>
       </c>
       <c r="D156" s="25">
@@ -5758,32 +5758,32 @@
       <c r="E156" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="F156" s="63">
-        <v>1</v>
-      </c>
-      <c r="G156" s="63" t="s">
+      <c r="F156" s="70">
+        <v>1</v>
+      </c>
+      <c r="G156" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="52"/>
-      <c r="B157" s="80"/>
-      <c r="C157" s="62"/>
+      <c r="B157" s="74"/>
+      <c r="C157" s="69"/>
       <c r="D157" s="25">
         <v>0</v>
       </c>
       <c r="E157" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="F157" s="63"/>
-      <c r="G157" s="63"/>
+      <c r="F157" s="70"/>
+      <c r="G157" s="70"/>
     </row>
     <row r="158" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="52"/>
-      <c r="B158" s="78" t="s">
+      <c r="B158" s="66" t="s">
         <v>263</v>
       </c>
-      <c r="C158" s="62" t="s">
+      <c r="C158" s="69" t="s">
         <v>309</v>
       </c>
       <c r="D158" s="25">
@@ -5792,32 +5792,32 @@
       <c r="E158" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="F158" s="63">
-        <v>1</v>
-      </c>
-      <c r="G158" s="63" t="s">
+      <c r="F158" s="70">
+        <v>1</v>
+      </c>
+      <c r="G158" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="52"/>
-      <c r="B159" s="80"/>
-      <c r="C159" s="62"/>
+      <c r="B159" s="74"/>
+      <c r="C159" s="69"/>
       <c r="D159" s="25">
         <v>0</v>
       </c>
       <c r="E159" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="F159" s="63"/>
-      <c r="G159" s="63"/>
+      <c r="F159" s="70"/>
+      <c r="G159" s="70"/>
     </row>
     <row r="160" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="52"/>
-      <c r="B160" s="78" t="s">
+      <c r="B160" s="66" t="s">
         <v>264</v>
       </c>
-      <c r="C160" s="62" t="s">
+      <c r="C160" s="69" t="s">
         <v>310</v>
       </c>
       <c r="D160" s="25">
@@ -5826,32 +5826,32 @@
       <c r="E160" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="F160" s="63">
-        <v>1</v>
-      </c>
-      <c r="G160" s="63" t="s">
+      <c r="F160" s="70">
+        <v>1</v>
+      </c>
+      <c r="G160" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="52"/>
-      <c r="B161" s="80"/>
-      <c r="C161" s="62"/>
+      <c r="B161" s="74"/>
+      <c r="C161" s="69"/>
       <c r="D161" s="25">
         <v>0</v>
       </c>
       <c r="E161" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="F161" s="63"/>
-      <c r="G161" s="63"/>
+      <c r="F161" s="70"/>
+      <c r="G161" s="70"/>
     </row>
     <row r="162" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="52"/>
-      <c r="B162" s="78" t="s">
+      <c r="B162" s="66" t="s">
         <v>265</v>
       </c>
-      <c r="C162" s="62" t="s">
+      <c r="C162" s="69" t="s">
         <v>311</v>
       </c>
       <c r="D162" s="25">
@@ -5860,32 +5860,32 @@
       <c r="E162" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="F162" s="63">
-        <v>1</v>
-      </c>
-      <c r="G162" s="63" t="s">
+      <c r="F162" s="70">
+        <v>1</v>
+      </c>
+      <c r="G162" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="52"/>
-      <c r="B163" s="80"/>
-      <c r="C163" s="62"/>
+      <c r="B163" s="74"/>
+      <c r="C163" s="69"/>
       <c r="D163" s="25">
         <v>0</v>
       </c>
       <c r="E163" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="F163" s="63"/>
-      <c r="G163" s="63"/>
+      <c r="F163" s="70"/>
+      <c r="G163" s="70"/>
     </row>
     <row r="164" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="52"/>
-      <c r="B164" s="78" t="s">
+      <c r="B164" s="66" t="s">
         <v>266</v>
       </c>
-      <c r="C164" s="62" t="s">
+      <c r="C164" s="69" t="s">
         <v>312</v>
       </c>
       <c r="D164" s="25">
@@ -5894,32 +5894,32 @@
       <c r="E164" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="F164" s="63">
-        <v>1</v>
-      </c>
-      <c r="G164" s="63" t="s">
+      <c r="F164" s="70">
+        <v>1</v>
+      </c>
+      <c r="G164" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="52"/>
-      <c r="B165" s="80"/>
-      <c r="C165" s="62"/>
+      <c r="B165" s="74"/>
+      <c r="C165" s="69"/>
       <c r="D165" s="25">
         <v>0</v>
       </c>
       <c r="E165" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="F165" s="63"/>
-      <c r="G165" s="63"/>
+      <c r="F165" s="70"/>
+      <c r="G165" s="70"/>
     </row>
     <row r="166" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="52"/>
-      <c r="B166" s="78" t="s">
+      <c r="B166" s="66" t="s">
         <v>267</v>
       </c>
-      <c r="C166" s="62" t="s">
+      <c r="C166" s="69" t="s">
         <v>313</v>
       </c>
       <c r="D166" s="25">
@@ -5928,32 +5928,32 @@
       <c r="E166" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="F166" s="63">
-        <v>1</v>
-      </c>
-      <c r="G166" s="63" t="s">
+      <c r="F166" s="70">
+        <v>1</v>
+      </c>
+      <c r="G166" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="167" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="52"/>
-      <c r="B167" s="80"/>
-      <c r="C167" s="62"/>
+      <c r="B167" s="74"/>
+      <c r="C167" s="69"/>
       <c r="D167" s="25">
         <v>0</v>
       </c>
       <c r="E167" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="F167" s="63"/>
-      <c r="G167" s="63"/>
+      <c r="F167" s="70"/>
+      <c r="G167" s="70"/>
     </row>
     <row r="168" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="52"/>
-      <c r="B168" s="78" t="s">
+      <c r="B168" s="66" t="s">
         <v>268</v>
       </c>
-      <c r="C168" s="62" t="s">
+      <c r="C168" s="69" t="s">
         <v>314</v>
       </c>
       <c r="D168" s="25">
@@ -5962,32 +5962,32 @@
       <c r="E168" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="F168" s="63">
-        <v>1</v>
-      </c>
-      <c r="G168" s="63" t="s">
+      <c r="F168" s="70">
+        <v>1</v>
+      </c>
+      <c r="G168" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="52"/>
-      <c r="B169" s="80"/>
-      <c r="C169" s="62"/>
+      <c r="B169" s="74"/>
+      <c r="C169" s="69"/>
       <c r="D169" s="25">
         <v>0</v>
       </c>
       <c r="E169" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="F169" s="63"/>
-      <c r="G169" s="63"/>
+      <c r="F169" s="70"/>
+      <c r="G169" s="70"/>
     </row>
     <row r="170" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="52"/>
-      <c r="B170" s="78" t="s">
+      <c r="B170" s="66" t="s">
         <v>269</v>
       </c>
-      <c r="C170" s="62" t="s">
+      <c r="C170" s="69" t="s">
         <v>315</v>
       </c>
       <c r="D170" s="25">
@@ -5996,32 +5996,32 @@
       <c r="E170" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="F170" s="63">
-        <v>1</v>
-      </c>
-      <c r="G170" s="63" t="s">
+      <c r="F170" s="70">
+        <v>1</v>
+      </c>
+      <c r="G170" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="52"/>
-      <c r="B171" s="80"/>
-      <c r="C171" s="62"/>
+      <c r="B171" s="74"/>
+      <c r="C171" s="69"/>
       <c r="D171" s="25">
         <v>0</v>
       </c>
       <c r="E171" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="F171" s="63"/>
-      <c r="G171" s="63"/>
+      <c r="F171" s="70"/>
+      <c r="G171" s="70"/>
     </row>
     <row r="172" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="52"/>
-      <c r="B172" s="62" t="s">
+      <c r="B172" s="69" t="s">
         <v>270</v>
       </c>
-      <c r="C172" s="62" t="s">
+      <c r="C172" s="69" t="s">
         <v>316</v>
       </c>
       <c r="D172" s="25">
@@ -6030,32 +6030,32 @@
       <c r="E172" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="F172" s="63">
-        <v>1</v>
-      </c>
-      <c r="G172" s="63" t="s">
+      <c r="F172" s="70">
+        <v>1</v>
+      </c>
+      <c r="G172" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="52"/>
-      <c r="B173" s="62"/>
-      <c r="C173" s="62"/>
+      <c r="B173" s="69"/>
+      <c r="C173" s="69"/>
       <c r="D173" s="25">
         <v>0</v>
       </c>
       <c r="E173" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="F173" s="63"/>
-      <c r="G173" s="63"/>
+      <c r="F173" s="70"/>
+      <c r="G173" s="70"/>
     </row>
     <row r="174" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="52"/>
-      <c r="B174" s="62" t="s">
+      <c r="B174" s="69" t="s">
         <v>271</v>
       </c>
-      <c r="C174" s="62" t="s">
+      <c r="C174" s="69" t="s">
         <v>317</v>
       </c>
       <c r="D174" s="25">
@@ -6064,32 +6064,32 @@
       <c r="E174" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="F174" s="63">
-        <v>1</v>
-      </c>
-      <c r="G174" s="63" t="s">
+      <c r="F174" s="70">
+        <v>1</v>
+      </c>
+      <c r="G174" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="175" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="52"/>
-      <c r="B175" s="62"/>
-      <c r="C175" s="62"/>
+      <c r="B175" s="69"/>
+      <c r="C175" s="69"/>
       <c r="D175" s="25">
         <v>0</v>
       </c>
       <c r="E175" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="F175" s="63"/>
-      <c r="G175" s="63"/>
+      <c r="F175" s="70"/>
+      <c r="G175" s="70"/>
     </row>
     <row r="176" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="52"/>
-      <c r="B176" s="62" t="s">
+      <c r="B176" s="69" t="s">
         <v>272</v>
       </c>
-      <c r="C176" s="62" t="s">
+      <c r="C176" s="69" t="s">
         <v>318</v>
       </c>
       <c r="D176" s="25">
@@ -6098,32 +6098,32 @@
       <c r="E176" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="F176" s="63">
-        <v>1</v>
-      </c>
-      <c r="G176" s="63" t="s">
+      <c r="F176" s="70">
+        <v>1</v>
+      </c>
+      <c r="G176" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="52"/>
-      <c r="B177" s="62"/>
-      <c r="C177" s="62"/>
+      <c r="B177" s="69"/>
+      <c r="C177" s="69"/>
       <c r="D177" s="25">
         <v>0</v>
       </c>
       <c r="E177" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="F177" s="63"/>
-      <c r="G177" s="63"/>
+      <c r="F177" s="70"/>
+      <c r="G177" s="70"/>
     </row>
     <row r="178" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="52"/>
-      <c r="B178" s="62" t="s">
+      <c r="B178" s="69" t="s">
         <v>273</v>
       </c>
-      <c r="C178" s="62" t="s">
+      <c r="C178" s="69" t="s">
         <v>319</v>
       </c>
       <c r="D178" s="25">
@@ -6132,32 +6132,32 @@
       <c r="E178" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="F178" s="63">
-        <v>1</v>
-      </c>
-      <c r="G178" s="63" t="s">
+      <c r="F178" s="70">
+        <v>1</v>
+      </c>
+      <c r="G178" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="52"/>
-      <c r="B179" s="62"/>
-      <c r="C179" s="62"/>
+      <c r="B179" s="69"/>
+      <c r="C179" s="69"/>
       <c r="D179" s="25">
         <v>0</v>
       </c>
       <c r="E179" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="F179" s="63"/>
-      <c r="G179" s="63"/>
+      <c r="F179" s="70"/>
+      <c r="G179" s="70"/>
     </row>
     <row r="180" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="52"/>
-      <c r="B180" s="62" t="s">
+      <c r="B180" s="69" t="s">
         <v>274</v>
       </c>
-      <c r="C180" s="62" t="s">
+      <c r="C180" s="69" t="s">
         <v>320</v>
       </c>
       <c r="D180" s="25">
@@ -6166,32 +6166,32 @@
       <c r="E180" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="F180" s="63">
-        <v>1</v>
-      </c>
-      <c r="G180" s="63" t="s">
+      <c r="F180" s="70">
+        <v>1</v>
+      </c>
+      <c r="G180" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="52"/>
-      <c r="B181" s="62"/>
-      <c r="C181" s="62"/>
+      <c r="B181" s="69"/>
+      <c r="C181" s="69"/>
       <c r="D181" s="25">
         <v>0</v>
       </c>
       <c r="E181" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="F181" s="63"/>
-      <c r="G181" s="63"/>
+      <c r="F181" s="70"/>
+      <c r="G181" s="70"/>
     </row>
     <row r="182" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="52"/>
-      <c r="B182" s="62" t="s">
+      <c r="B182" s="69" t="s">
         <v>275</v>
       </c>
-      <c r="C182" s="62" t="s">
+      <c r="C182" s="69" t="s">
         <v>321</v>
       </c>
       <c r="D182" s="25">
@@ -6200,32 +6200,32 @@
       <c r="E182" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="F182" s="63">
-        <v>1</v>
-      </c>
-      <c r="G182" s="63" t="s">
+      <c r="F182" s="70">
+        <v>1</v>
+      </c>
+      <c r="G182" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="52"/>
-      <c r="B183" s="62"/>
-      <c r="C183" s="62"/>
+      <c r="B183" s="69"/>
+      <c r="C183" s="69"/>
       <c r="D183" s="25">
         <v>0</v>
       </c>
       <c r="E183" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="F183" s="63"/>
-      <c r="G183" s="63"/>
+      <c r="F183" s="70"/>
+      <c r="G183" s="70"/>
     </row>
     <row r="184" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="52"/>
-      <c r="B184" s="62" t="s">
+      <c r="B184" s="69" t="s">
         <v>276</v>
       </c>
-      <c r="C184" s="62" t="s">
+      <c r="C184" s="69" t="s">
         <v>322</v>
       </c>
       <c r="D184" s="25">
@@ -6234,32 +6234,32 @@
       <c r="E184" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="F184" s="63">
-        <v>1</v>
-      </c>
-      <c r="G184" s="63" t="s">
+      <c r="F184" s="70">
+        <v>1</v>
+      </c>
+      <c r="G184" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="52"/>
-      <c r="B185" s="62"/>
-      <c r="C185" s="62"/>
+      <c r="B185" s="69"/>
+      <c r="C185" s="69"/>
       <c r="D185" s="25">
         <v>0</v>
       </c>
       <c r="E185" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="F185" s="63"/>
-      <c r="G185" s="63"/>
+      <c r="F185" s="70"/>
+      <c r="G185" s="70"/>
     </row>
     <row r="186" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="53"/>
-      <c r="B186" s="62" t="s">
+      <c r="B186" s="69" t="s">
         <v>277</v>
       </c>
-      <c r="C186" s="62" t="s">
+      <c r="C186" s="69" t="s">
         <v>323</v>
       </c>
       <c r="D186" s="25">
@@ -6268,32 +6268,32 @@
       <c r="E186" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="F186" s="63">
-        <v>1</v>
-      </c>
-      <c r="G186" s="63" t="s">
+      <c r="F186" s="70">
+        <v>1</v>
+      </c>
+      <c r="G186" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="187" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="53"/>
-      <c r="B187" s="62"/>
-      <c r="C187" s="62"/>
+      <c r="B187" s="69"/>
+      <c r="C187" s="69"/>
       <c r="D187" s="25">
         <v>0</v>
       </c>
       <c r="E187" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="F187" s="63"/>
-      <c r="G187" s="63"/>
+      <c r="F187" s="70"/>
+      <c r="G187" s="70"/>
     </row>
     <row r="188" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="52"/>
-      <c r="B188" s="62" t="s">
+      <c r="B188" s="69" t="s">
         <v>278</v>
       </c>
-      <c r="C188" s="62" t="s">
+      <c r="C188" s="69" t="s">
         <v>324</v>
       </c>
       <c r="D188" s="25">
@@ -6302,32 +6302,32 @@
       <c r="E188" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="F188" s="63">
-        <v>1</v>
-      </c>
-      <c r="G188" s="63" t="s">
+      <c r="F188" s="70">
+        <v>1</v>
+      </c>
+      <c r="G188" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="52"/>
-      <c r="B189" s="62"/>
-      <c r="C189" s="62"/>
+      <c r="B189" s="69"/>
+      <c r="C189" s="69"/>
       <c r="D189" s="25">
         <v>0</v>
       </c>
       <c r="E189" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="F189" s="63"/>
-      <c r="G189" s="63"/>
+      <c r="F189" s="70"/>
+      <c r="G189" s="70"/>
     </row>
     <row r="190" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="52"/>
-      <c r="B190" s="62" t="s">
+      <c r="B190" s="69" t="s">
         <v>377</v>
       </c>
-      <c r="C190" s="62" t="s">
+      <c r="C190" s="69" t="s">
         <v>325</v>
       </c>
       <c r="D190" s="25">
@@ -6336,32 +6336,32 @@
       <c r="E190" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="F190" s="63">
-        <v>1</v>
-      </c>
-      <c r="G190" s="63" t="s">
+      <c r="F190" s="70">
+        <v>1</v>
+      </c>
+      <c r="G190" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="191" spans="1:7" s="5" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="52"/>
-      <c r="B191" s="62"/>
-      <c r="C191" s="62"/>
+      <c r="B191" s="69"/>
+      <c r="C191" s="69"/>
       <c r="D191" s="25">
         <v>0</v>
       </c>
       <c r="E191" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="F191" s="63"/>
-      <c r="G191" s="63"/>
+      <c r="F191" s="70"/>
+      <c r="G191" s="70"/>
     </row>
     <row r="192" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="52"/>
-      <c r="B192" s="76" t="s">
+      <c r="B192" s="64" t="s">
         <v>285</v>
       </c>
-      <c r="C192" s="78" t="s">
+      <c r="C192" s="66" t="s">
         <v>442</v>
       </c>
       <c r="D192" s="25">
@@ -6370,99 +6370,99 @@
       <c r="E192" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="F192" s="63">
-        <v>1</v>
-      </c>
-      <c r="G192" s="63" t="s">
+      <c r="F192" s="70">
+        <v>1</v>
+      </c>
+      <c r="G192" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="52"/>
-      <c r="B193" s="82"/>
-      <c r="C193" s="80"/>
+      <c r="B193" s="76"/>
+      <c r="C193" s="74"/>
       <c r="D193" s="25">
         <v>0</v>
       </c>
       <c r="E193" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="F193" s="63"/>
-      <c r="G193" s="63"/>
+      <c r="F193" s="70"/>
+      <c r="G193" s="70"/>
     </row>
     <row r="194" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="52"/>
-      <c r="B194" s="81" t="s">
+      <c r="B194" s="75" t="s">
         <v>326</v>
       </c>
-      <c r="C194" s="81"/>
-      <c r="D194" s="81"/>
-      <c r="E194" s="81"/>
-      <c r="F194" s="81"/>
-      <c r="G194" s="81"/>
+      <c r="C194" s="75"/>
+      <c r="D194" s="75"/>
+      <c r="E194" s="75"/>
+      <c r="F194" s="75"/>
+      <c r="G194" s="75"/>
     </row>
     <row r="195" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A195" s="55" t="s">
+      <c r="A195" s="90" t="s">
         <v>479</v>
       </c>
-      <c r="B195" s="78" t="s">
+      <c r="B195" s="66" t="s">
         <v>357</v>
       </c>
       <c r="C195" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D195" s="83"/>
-      <c r="E195" s="83"/>
-      <c r="F195" s="63">
+      <c r="D195" s="82"/>
+      <c r="E195" s="82"/>
+      <c r="F195" s="70">
         <v>7</v>
       </c>
-      <c r="G195" s="63" t="s">
+      <c r="G195" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A196" s="57"/>
-      <c r="B196" s="77"/>
+      <c r="A196" s="91"/>
+      <c r="B196" s="65"/>
       <c r="C196" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D196" s="83"/>
-      <c r="E196" s="83"/>
-      <c r="F196" s="63"/>
-      <c r="G196" s="63"/>
+      <c r="D196" s="82"/>
+      <c r="E196" s="82"/>
+      <c r="F196" s="70"/>
+      <c r="G196" s="70"/>
     </row>
     <row r="197" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A197" s="57"/>
-      <c r="B197" s="77"/>
+      <c r="A197" s="91"/>
+      <c r="B197" s="65"/>
       <c r="C197" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D197" s="83"/>
-      <c r="E197" s="83"/>
-      <c r="F197" s="63"/>
-      <c r="G197" s="63"/>
+      <c r="D197" s="82"/>
+      <c r="E197" s="82"/>
+      <c r="F197" s="70"/>
+      <c r="G197" s="70"/>
     </row>
     <row r="198" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A198" s="57"/>
-      <c r="B198" s="77"/>
+      <c r="A198" s="91"/>
+      <c r="B198" s="65"/>
       <c r="C198" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D198" s="83"/>
-      <c r="E198" s="83"/>
-      <c r="F198" s="63"/>
-      <c r="G198" s="63"/>
+      <c r="D198" s="82"/>
+      <c r="E198" s="82"/>
+      <c r="F198" s="70"/>
+      <c r="G198" s="70"/>
     </row>
     <row r="199" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A199" s="56"/>
-      <c r="B199" s="82"/>
+      <c r="A199" s="92"/>
+      <c r="B199" s="76"/>
       <c r="C199" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D199" s="83"/>
-      <c r="E199" s="83"/>
-      <c r="F199" s="63"/>
-      <c r="G199" s="63"/>
+      <c r="D199" s="82"/>
+      <c r="E199" s="82"/>
+      <c r="F199" s="70"/>
+      <c r="G199" s="70"/>
     </row>
     <row r="200" spans="1:7" s="5" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="52" t="s">
@@ -6523,23 +6523,23 @@
     </row>
     <row r="203" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="52"/>
-      <c r="B203" s="81" t="s">
+      <c r="B203" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="C203" s="81"/>
-      <c r="D203" s="81"/>
-      <c r="E203" s="81"/>
-      <c r="F203" s="81"/>
-      <c r="G203" s="81"/>
+      <c r="C203" s="75"/>
+      <c r="D203" s="75"/>
+      <c r="E203" s="75"/>
+      <c r="F203" s="75"/>
+      <c r="G203" s="75"/>
     </row>
     <row r="204" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A204" s="55" t="s">
+      <c r="A204" s="90" t="s">
         <v>484</v>
       </c>
-      <c r="B204" s="61" t="s">
+      <c r="B204" s="68" t="s">
         <v>373</v>
       </c>
-      <c r="C204" s="62" t="s">
+      <c r="C204" s="69" t="s">
         <v>99</v>
       </c>
       <c r="D204" s="25">
@@ -6548,47 +6548,47 @@
       <c r="E204" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="F204" s="63">
-        <v>1</v>
-      </c>
-      <c r="G204" s="63" t="s">
+      <c r="F204" s="70">
+        <v>1</v>
+      </c>
+      <c r="G204" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A205" s="57"/>
-      <c r="B205" s="61"/>
-      <c r="C205" s="62"/>
+      <c r="A205" s="91"/>
+      <c r="B205" s="68"/>
+      <c r="C205" s="69"/>
       <c r="D205" s="25">
         <v>1</v>
       </c>
       <c r="E205" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="F205" s="63"/>
-      <c r="G205" s="63"/>
+      <c r="F205" s="70"/>
+      <c r="G205" s="70"/>
     </row>
     <row r="206" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A206" s="56"/>
-      <c r="B206" s="61"/>
-      <c r="C206" s="62"/>
+      <c r="A206" s="92"/>
+      <c r="B206" s="68"/>
+      <c r="C206" s="69"/>
       <c r="D206" s="25">
         <v>2</v>
       </c>
       <c r="E206" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="F206" s="63"/>
-      <c r="G206" s="63"/>
+      <c r="F206" s="70"/>
+      <c r="G206" s="70"/>
     </row>
     <row r="207" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A207" s="55" t="s">
+      <c r="A207" s="90" t="s">
         <v>484</v>
       </c>
-      <c r="B207" s="61" t="s">
+      <c r="B207" s="68" t="s">
         <v>374</v>
       </c>
-      <c r="C207" s="62" t="s">
+      <c r="C207" s="69" t="s">
         <v>103</v>
       </c>
       <c r="D207" s="25">
@@ -6597,47 +6597,47 @@
       <c r="E207" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="F207" s="63">
-        <v>1</v>
-      </c>
-      <c r="G207" s="63" t="s">
+      <c r="F207" s="70">
+        <v>1</v>
+      </c>
+      <c r="G207" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="208" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A208" s="57"/>
-      <c r="B208" s="61"/>
-      <c r="C208" s="62"/>
+      <c r="A208" s="91"/>
+      <c r="B208" s="68"/>
+      <c r="C208" s="69"/>
       <c r="D208" s="25">
         <v>1</v>
       </c>
       <c r="E208" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="F208" s="63"/>
-      <c r="G208" s="63"/>
+      <c r="F208" s="70"/>
+      <c r="G208" s="70"/>
     </row>
     <row r="209" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A209" s="56"/>
-      <c r="B209" s="61"/>
-      <c r="C209" s="62"/>
+      <c r="A209" s="92"/>
+      <c r="B209" s="68"/>
+      <c r="C209" s="69"/>
       <c r="D209" s="25">
         <v>2</v>
       </c>
       <c r="E209" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="F209" s="63"/>
-      <c r="G209" s="63"/>
+      <c r="F209" s="70"/>
+      <c r="G209" s="70"/>
     </row>
     <row r="210" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A210" s="55" t="s">
+      <c r="A210" s="90" t="s">
         <v>484</v>
       </c>
-      <c r="B210" s="61" t="s">
+      <c r="B210" s="68" t="s">
         <v>375</v>
       </c>
-      <c r="C210" s="62" t="s">
+      <c r="C210" s="69" t="s">
         <v>104</v>
       </c>
       <c r="D210" s="25">
@@ -6646,47 +6646,47 @@
       <c r="E210" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="F210" s="63">
-        <v>1</v>
-      </c>
-      <c r="G210" s="63" t="s">
+      <c r="F210" s="70">
+        <v>1</v>
+      </c>
+      <c r="G210" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="211" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A211" s="57"/>
-      <c r="B211" s="61"/>
-      <c r="C211" s="62"/>
+      <c r="A211" s="91"/>
+      <c r="B211" s="68"/>
+      <c r="C211" s="69"/>
       <c r="D211" s="25">
         <v>1</v>
       </c>
       <c r="E211" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="F211" s="63"/>
-      <c r="G211" s="63"/>
+      <c r="F211" s="70"/>
+      <c r="G211" s="70"/>
     </row>
     <row r="212" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A212" s="56"/>
-      <c r="B212" s="61"/>
-      <c r="C212" s="62"/>
+      <c r="A212" s="92"/>
+      <c r="B212" s="68"/>
+      <c r="C212" s="69"/>
       <c r="D212" s="25">
         <v>2</v>
       </c>
       <c r="E212" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="F212" s="63"/>
-      <c r="G212" s="63"/>
+      <c r="F212" s="70"/>
+      <c r="G212" s="70"/>
     </row>
     <row r="213" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A213" s="55" t="s">
+      <c r="A213" s="90" t="s">
         <v>484</v>
       </c>
-      <c r="B213" s="61" t="s">
+      <c r="B213" s="68" t="s">
         <v>376</v>
       </c>
-      <c r="C213" s="62" t="s">
+      <c r="C213" s="69" t="s">
         <v>105</v>
       </c>
       <c r="D213" s="25">
@@ -6695,47 +6695,47 @@
       <c r="E213" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="F213" s="63">
-        <v>1</v>
-      </c>
-      <c r="G213" s="63" t="s">
+      <c r="F213" s="70">
+        <v>1</v>
+      </c>
+      <c r="G213" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A214" s="57"/>
-      <c r="B214" s="61"/>
-      <c r="C214" s="62"/>
+      <c r="A214" s="91"/>
+      <c r="B214" s="68"/>
+      <c r="C214" s="69"/>
       <c r="D214" s="25">
         <v>1</v>
       </c>
       <c r="E214" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="F214" s="63"/>
-      <c r="G214" s="63"/>
+      <c r="F214" s="70"/>
+      <c r="G214" s="70"/>
     </row>
     <row r="215" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A215" s="56"/>
-      <c r="B215" s="61"/>
-      <c r="C215" s="62"/>
+      <c r="A215" s="92"/>
+      <c r="B215" s="68"/>
+      <c r="C215" s="69"/>
       <c r="D215" s="25">
         <v>2</v>
       </c>
       <c r="E215" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="F215" s="63"/>
-      <c r="G215" s="63"/>
+      <c r="F215" s="70"/>
+      <c r="G215" s="70"/>
     </row>
     <row r="216" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A216" s="55" t="s">
+      <c r="A216" s="90" t="s">
         <v>487</v>
       </c>
-      <c r="B216" s="76" t="s">
+      <c r="B216" s="64" t="s">
         <v>360</v>
       </c>
-      <c r="C216" s="78" t="s">
+      <c r="C216" s="66" t="s">
         <v>106</v>
       </c>
       <c r="D216" s="45">
@@ -6744,138 +6744,138 @@
       <c r="E216" s="14" t="s">
         <v>392</v>
       </c>
-      <c r="F216" s="70">
+      <c r="F216" s="61">
         <v>3</v>
       </c>
-      <c r="G216" s="70" t="s">
+      <c r="G216" s="61" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="217" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A217" s="57"/>
-      <c r="B217" s="77"/>
-      <c r="C217" s="79"/>
+      <c r="A217" s="91"/>
+      <c r="B217" s="65"/>
+      <c r="C217" s="67"/>
       <c r="D217" s="45">
         <v>504</v>
       </c>
       <c r="E217" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F217" s="71"/>
-      <c r="G217" s="71"/>
+      <c r="F217" s="62"/>
+      <c r="G217" s="62"/>
     </row>
     <row r="218" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A218" s="57"/>
-      <c r="B218" s="77"/>
-      <c r="C218" s="79"/>
+      <c r="A218" s="91"/>
+      <c r="B218" s="65"/>
+      <c r="C218" s="67"/>
       <c r="D218" s="45">
         <v>505</v>
       </c>
       <c r="E218" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="F218" s="71"/>
-      <c r="G218" s="71"/>
+      <c r="F218" s="62"/>
+      <c r="G218" s="62"/>
     </row>
     <row r="219" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A219" s="57"/>
-      <c r="B219" s="77"/>
-      <c r="C219" s="79"/>
+      <c r="A219" s="91"/>
+      <c r="B219" s="65"/>
+      <c r="C219" s="67"/>
       <c r="D219" s="50">
         <v>506</v>
       </c>
       <c r="E219" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="F219" s="71"/>
-      <c r="G219" s="71"/>
+      <c r="F219" s="62"/>
+      <c r="G219" s="62"/>
     </row>
     <row r="220" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A220" s="57"/>
-      <c r="B220" s="77"/>
-      <c r="C220" s="79"/>
+      <c r="A220" s="91"/>
+      <c r="B220" s="65"/>
+      <c r="C220" s="67"/>
       <c r="D220" s="50">
         <v>519</v>
       </c>
       <c r="E220" s="14" t="s">
         <v>446</v>
       </c>
-      <c r="F220" s="71"/>
-      <c r="G220" s="71"/>
+      <c r="F220" s="62"/>
+      <c r="G220" s="62"/>
     </row>
     <row r="221" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A221" s="57"/>
-      <c r="B221" s="77"/>
-      <c r="C221" s="79"/>
+      <c r="A221" s="91"/>
+      <c r="B221" s="65"/>
+      <c r="C221" s="67"/>
       <c r="D221" s="50">
         <v>523</v>
       </c>
       <c r="E221" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="F221" s="71"/>
-      <c r="G221" s="71"/>
+      <c r="F221" s="62"/>
+      <c r="G221" s="62"/>
     </row>
     <row r="222" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A222" s="57"/>
-      <c r="B222" s="77"/>
-      <c r="C222" s="79"/>
+      <c r="A222" s="91"/>
+      <c r="B222" s="65"/>
+      <c r="C222" s="67"/>
       <c r="D222" s="50">
         <v>543</v>
       </c>
       <c r="E222" s="14" t="s">
         <v>433</v>
       </c>
-      <c r="F222" s="71"/>
-      <c r="G222" s="71"/>
+      <c r="F222" s="62"/>
+      <c r="G222" s="62"/>
     </row>
     <row r="223" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A223" s="57"/>
-      <c r="B223" s="77"/>
-      <c r="C223" s="79"/>
+      <c r="A223" s="91"/>
+      <c r="B223" s="65"/>
+      <c r="C223" s="67"/>
       <c r="D223" s="50">
         <v>544</v>
       </c>
       <c r="E223" s="14" t="s">
         <v>436</v>
       </c>
-      <c r="F223" s="71"/>
-      <c r="G223" s="71"/>
+      <c r="F223" s="62"/>
+      <c r="G223" s="62"/>
     </row>
     <row r="224" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A224" s="57"/>
-      <c r="B224" s="77"/>
-      <c r="C224" s="79"/>
+      <c r="A224" s="91"/>
+      <c r="B224" s="65"/>
+      <c r="C224" s="67"/>
       <c r="D224" s="50">
         <v>545</v>
       </c>
       <c r="E224" s="14" t="s">
         <v>432</v>
       </c>
-      <c r="F224" s="71"/>
-      <c r="G224" s="71"/>
+      <c r="F224" s="62"/>
+      <c r="G224" s="62"/>
     </row>
     <row r="225" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A225" s="56"/>
-      <c r="B225" s="77"/>
-      <c r="C225" s="79"/>
+      <c r="A225" s="92"/>
+      <c r="B225" s="65"/>
+      <c r="C225" s="67"/>
       <c r="D225" s="50">
         <v>546</v>
       </c>
       <c r="E225" s="14" t="s">
         <v>435</v>
       </c>
-      <c r="F225" s="71"/>
-      <c r="G225" s="71"/>
+      <c r="F225" s="62"/>
+      <c r="G225" s="62"/>
     </row>
     <row r="226" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A226" s="55" t="s">
+      <c r="A226" s="90" t="s">
         <v>487</v>
       </c>
-      <c r="B226" s="64" t="s">
+      <c r="B226" s="55" t="s">
         <v>361</v>
       </c>
-      <c r="C226" s="67" t="s">
+      <c r="C226" s="58" t="s">
         <v>107</v>
       </c>
       <c r="D226" s="50">
@@ -6884,151 +6884,151 @@
       <c r="E226" s="14" t="s">
         <v>392</v>
       </c>
-      <c r="F226" s="70">
+      <c r="F226" s="61">
         <v>3</v>
       </c>
-      <c r="G226" s="70" t="s">
+      <c r="G226" s="61" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="227" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A227" s="57"/>
-      <c r="B227" s="65"/>
-      <c r="C227" s="68"/>
+      <c r="A227" s="91"/>
+      <c r="B227" s="56"/>
+      <c r="C227" s="59"/>
       <c r="D227" s="50">
         <v>508</v>
       </c>
       <c r="E227" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F227" s="71"/>
-      <c r="G227" s="71"/>
+      <c r="F227" s="62"/>
+      <c r="G227" s="62"/>
     </row>
     <row r="228" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A228" s="57"/>
-      <c r="B228" s="65"/>
-      <c r="C228" s="68"/>
+      <c r="A228" s="91"/>
+      <c r="B228" s="56"/>
+      <c r="C228" s="59"/>
       <c r="D228" s="50">
         <v>509</v>
       </c>
       <c r="E228" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F228" s="71"/>
-      <c r="G228" s="71"/>
+      <c r="F228" s="62"/>
+      <c r="G228" s="62"/>
     </row>
     <row r="229" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A229" s="57"/>
-      <c r="B229" s="65"/>
-      <c r="C229" s="68"/>
+      <c r="A229" s="91"/>
+      <c r="B229" s="56"/>
+      <c r="C229" s="59"/>
       <c r="D229" s="50">
         <v>510</v>
       </c>
       <c r="E229" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="F229" s="71"/>
-      <c r="G229" s="71"/>
+      <c r="F229" s="62"/>
+      <c r="G229" s="62"/>
     </row>
     <row r="230" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A230" s="57"/>
-      <c r="B230" s="65"/>
-      <c r="C230" s="68"/>
+      <c r="A230" s="91"/>
+      <c r="B230" s="56"/>
+      <c r="C230" s="59"/>
       <c r="D230" s="50">
         <v>520</v>
       </c>
       <c r="E230" s="14" t="s">
         <v>446</v>
       </c>
-      <c r="F230" s="71"/>
-      <c r="G230" s="71"/>
+      <c r="F230" s="62"/>
+      <c r="G230" s="62"/>
     </row>
     <row r="231" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A231" s="57"/>
-      <c r="B231" s="65"/>
-      <c r="C231" s="68"/>
+      <c r="A231" s="91"/>
+      <c r="B231" s="56"/>
+      <c r="C231" s="59"/>
       <c r="D231" s="50">
         <v>524</v>
       </c>
       <c r="E231" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="F231" s="71"/>
-      <c r="G231" s="71"/>
+      <c r="F231" s="62"/>
+      <c r="G231" s="62"/>
     </row>
     <row r="232" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A232" s="57"/>
-      <c r="B232" s="65"/>
-      <c r="C232" s="68"/>
+      <c r="A232" s="91"/>
+      <c r="B232" s="56"/>
+      <c r="C232" s="59"/>
       <c r="D232" s="50">
         <v>547</v>
       </c>
       <c r="E232" s="14" t="s">
         <v>432</v>
       </c>
-      <c r="F232" s="71"/>
-      <c r="G232" s="71"/>
+      <c r="F232" s="62"/>
+      <c r="G232" s="62"/>
     </row>
     <row r="233" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A233" s="57"/>
-      <c r="B233" s="65"/>
-      <c r="C233" s="68"/>
+      <c r="A233" s="91"/>
+      <c r="B233" s="56"/>
+      <c r="C233" s="59"/>
       <c r="D233" s="50">
         <v>548</v>
       </c>
       <c r="E233" s="14" t="s">
         <v>448</v>
       </c>
-      <c r="F233" s="71"/>
-      <c r="G233" s="71"/>
+      <c r="F233" s="62"/>
+      <c r="G233" s="62"/>
     </row>
     <row r="234" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A234" s="57"/>
-      <c r="B234" s="65"/>
-      <c r="C234" s="68"/>
+      <c r="A234" s="91"/>
+      <c r="B234" s="56"/>
+      <c r="C234" s="59"/>
       <c r="D234" s="50">
         <v>549</v>
       </c>
       <c r="E234" s="14" t="s">
         <v>449</v>
       </c>
-      <c r="F234" s="71"/>
-      <c r="G234" s="71"/>
+      <c r="F234" s="62"/>
+      <c r="G234" s="62"/>
     </row>
     <row r="235" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A235" s="57"/>
-      <c r="B235" s="65"/>
-      <c r="C235" s="68"/>
+      <c r="A235" s="91"/>
+      <c r="B235" s="56"/>
+      <c r="C235" s="59"/>
       <c r="D235" s="50">
         <v>550</v>
       </c>
       <c r="E235" s="14" t="s">
         <v>435</v>
       </c>
-      <c r="F235" s="71"/>
-      <c r="G235" s="71"/>
+      <c r="F235" s="62"/>
+      <c r="G235" s="62"/>
     </row>
     <row r="236" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A236" s="56"/>
-      <c r="B236" s="66"/>
-      <c r="C236" s="69"/>
+      <c r="A236" s="92"/>
+      <c r="B236" s="57"/>
+      <c r="C236" s="60"/>
       <c r="D236" s="50">
         <v>564</v>
       </c>
       <c r="E236" s="14" t="s">
         <v>478</v>
       </c>
-      <c r="F236" s="72"/>
-      <c r="G236" s="72"/>
+      <c r="F236" s="63"/>
+      <c r="G236" s="63"/>
     </row>
     <row r="237" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A237" s="55" t="s">
+      <c r="A237" s="90" t="s">
         <v>487</v>
       </c>
-      <c r="B237" s="64" t="s">
+      <c r="B237" s="55" t="s">
         <v>362</v>
       </c>
-      <c r="C237" s="67" t="s">
+      <c r="C237" s="58" t="s">
         <v>108</v>
       </c>
       <c r="D237" s="50">
@@ -7037,151 +7037,151 @@
       <c r="E237" s="14" t="s">
         <v>392</v>
       </c>
-      <c r="F237" s="70">
+      <c r="F237" s="61">
         <v>3</v>
       </c>
-      <c r="G237" s="70" t="s">
+      <c r="G237" s="61" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="238" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A238" s="57"/>
-      <c r="B238" s="65"/>
-      <c r="C238" s="68"/>
+      <c r="A238" s="91"/>
+      <c r="B238" s="56"/>
+      <c r="C238" s="59"/>
       <c r="D238" s="50">
         <v>512</v>
       </c>
       <c r="E238" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F238" s="71"/>
-      <c r="G238" s="71"/>
+      <c r="F238" s="62"/>
+      <c r="G238" s="62"/>
     </row>
     <row r="239" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A239" s="57"/>
-      <c r="B239" s="65"/>
-      <c r="C239" s="68"/>
+      <c r="A239" s="91"/>
+      <c r="B239" s="56"/>
+      <c r="C239" s="59"/>
       <c r="D239" s="50">
         <v>513</v>
       </c>
       <c r="E239" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="F239" s="71"/>
-      <c r="G239" s="71"/>
+      <c r="F239" s="62"/>
+      <c r="G239" s="62"/>
     </row>
     <row r="240" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A240" s="57"/>
-      <c r="B240" s="65"/>
-      <c r="C240" s="68"/>
+      <c r="A240" s="91"/>
+      <c r="B240" s="56"/>
+      <c r="C240" s="59"/>
       <c r="D240" s="50">
         <v>514</v>
       </c>
       <c r="E240" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F240" s="71"/>
-      <c r="G240" s="71"/>
+      <c r="F240" s="62"/>
+      <c r="G240" s="62"/>
     </row>
     <row r="241" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A241" s="57"/>
-      <c r="B241" s="65"/>
-      <c r="C241" s="68"/>
+      <c r="A241" s="91"/>
+      <c r="B241" s="56"/>
+      <c r="C241" s="59"/>
       <c r="D241" s="50">
         <v>521</v>
       </c>
       <c r="E241" s="14" t="s">
         <v>446</v>
       </c>
-      <c r="F241" s="71"/>
-      <c r="G241" s="71"/>
+      <c r="F241" s="62"/>
+      <c r="G241" s="62"/>
     </row>
     <row r="242" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A242" s="57"/>
-      <c r="B242" s="65"/>
-      <c r="C242" s="68"/>
+      <c r="A242" s="91"/>
+      <c r="B242" s="56"/>
+      <c r="C242" s="59"/>
       <c r="D242" s="50">
         <v>525</v>
       </c>
       <c r="E242" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="F242" s="71"/>
-      <c r="G242" s="71"/>
+      <c r="F242" s="62"/>
+      <c r="G242" s="62"/>
     </row>
     <row r="243" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A243" s="57"/>
-      <c r="B243" s="65"/>
-      <c r="C243" s="68"/>
+      <c r="A243" s="91"/>
+      <c r="B243" s="56"/>
+      <c r="C243" s="59"/>
       <c r="D243" s="50">
         <v>551</v>
       </c>
       <c r="E243" s="14" t="s">
         <v>432</v>
       </c>
-      <c r="F243" s="71"/>
-      <c r="G243" s="71"/>
+      <c r="F243" s="62"/>
+      <c r="G243" s="62"/>
     </row>
     <row r="244" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A244" s="57"/>
-      <c r="B244" s="65"/>
-      <c r="C244" s="68"/>
+      <c r="A244" s="91"/>
+      <c r="B244" s="56"/>
+      <c r="C244" s="59"/>
       <c r="D244" s="50">
         <v>552</v>
       </c>
       <c r="E244" s="14" t="s">
         <v>448</v>
       </c>
-      <c r="F244" s="71"/>
-      <c r="G244" s="71"/>
+      <c r="F244" s="62"/>
+      <c r="G244" s="62"/>
     </row>
     <row r="245" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A245" s="57"/>
-      <c r="B245" s="65"/>
-      <c r="C245" s="68"/>
+      <c r="A245" s="91"/>
+      <c r="B245" s="56"/>
+      <c r="C245" s="59"/>
       <c r="D245" s="50">
         <v>553</v>
       </c>
       <c r="E245" s="14" t="s">
         <v>434</v>
       </c>
-      <c r="F245" s="71"/>
-      <c r="G245" s="71"/>
+      <c r="F245" s="62"/>
+      <c r="G245" s="62"/>
     </row>
     <row r="246" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A246" s="57"/>
-      <c r="B246" s="65"/>
-      <c r="C246" s="68"/>
+      <c r="A246" s="91"/>
+      <c r="B246" s="56"/>
+      <c r="C246" s="59"/>
       <c r="D246" s="50">
         <v>554</v>
       </c>
       <c r="E246" s="14" t="s">
         <v>435</v>
       </c>
-      <c r="F246" s="71"/>
-      <c r="G246" s="71"/>
+      <c r="F246" s="62"/>
+      <c r="G246" s="62"/>
     </row>
     <row r="247" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A247" s="56"/>
-      <c r="B247" s="66"/>
-      <c r="C247" s="69"/>
+      <c r="A247" s="92"/>
+      <c r="B247" s="57"/>
+      <c r="C247" s="60"/>
       <c r="D247" s="50">
         <v>565</v>
       </c>
       <c r="E247" s="14" t="s">
         <v>478</v>
       </c>
-      <c r="F247" s="72"/>
-      <c r="G247" s="72"/>
+      <c r="F247" s="63"/>
+      <c r="G247" s="63"/>
     </row>
     <row r="248" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A248" s="55" t="s">
+      <c r="A248" s="90" t="s">
         <v>487</v>
       </c>
-      <c r="B248" s="76" t="s">
+      <c r="B248" s="64" t="s">
         <v>363</v>
       </c>
-      <c r="C248" s="78" t="s">
+      <c r="C248" s="66" t="s">
         <v>109</v>
       </c>
       <c r="D248" s="50">
@@ -7190,129 +7190,129 @@
       <c r="E248" s="14" t="s">
         <v>392</v>
       </c>
-      <c r="F248" s="70">
+      <c r="F248" s="61">
         <v>3</v>
       </c>
-      <c r="G248" s="70" t="s">
+      <c r="G248" s="61" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="249" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A249" s="57"/>
-      <c r="B249" s="77"/>
-      <c r="C249" s="79"/>
+      <c r="A249" s="91"/>
+      <c r="B249" s="65"/>
+      <c r="C249" s="67"/>
       <c r="D249" s="50">
         <v>516</v>
       </c>
       <c r="E249" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F249" s="71"/>
-      <c r="G249" s="71"/>
+      <c r="F249" s="62"/>
+      <c r="G249" s="62"/>
     </row>
     <row r="250" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A250" s="57"/>
-      <c r="B250" s="77"/>
-      <c r="C250" s="79"/>
+      <c r="A250" s="91"/>
+      <c r="B250" s="65"/>
+      <c r="C250" s="67"/>
       <c r="D250" s="50">
         <v>517</v>
       </c>
       <c r="E250" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="F250" s="71"/>
-      <c r="G250" s="71"/>
+      <c r="F250" s="62"/>
+      <c r="G250" s="62"/>
     </row>
     <row r="251" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A251" s="57"/>
-      <c r="B251" s="77"/>
-      <c r="C251" s="79"/>
+      <c r="A251" s="91"/>
+      <c r="B251" s="65"/>
+      <c r="C251" s="67"/>
       <c r="D251" s="50">
         <v>518</v>
       </c>
       <c r="E251" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="F251" s="71"/>
-      <c r="G251" s="71"/>
+      <c r="F251" s="62"/>
+      <c r="G251" s="62"/>
     </row>
     <row r="252" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A252" s="57"/>
-      <c r="B252" s="77"/>
-      <c r="C252" s="79"/>
+      <c r="A252" s="91"/>
+      <c r="B252" s="65"/>
+      <c r="C252" s="67"/>
       <c r="D252" s="50">
         <v>522</v>
       </c>
       <c r="E252" s="14" t="s">
         <v>446</v>
       </c>
-      <c r="F252" s="71"/>
-      <c r="G252" s="71"/>
+      <c r="F252" s="62"/>
+      <c r="G252" s="62"/>
     </row>
     <row r="253" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A253" s="57"/>
-      <c r="B253" s="77"/>
-      <c r="C253" s="79"/>
+      <c r="A253" s="91"/>
+      <c r="B253" s="65"/>
+      <c r="C253" s="67"/>
       <c r="D253" s="50">
         <v>526</v>
       </c>
       <c r="E253" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="F253" s="71"/>
-      <c r="G253" s="71"/>
+      <c r="F253" s="62"/>
+      <c r="G253" s="62"/>
     </row>
     <row r="254" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A254" s="57"/>
-      <c r="B254" s="77"/>
-      <c r="C254" s="79"/>
+      <c r="A254" s="91"/>
+      <c r="B254" s="65"/>
+      <c r="C254" s="67"/>
       <c r="D254" s="50">
         <v>555</v>
       </c>
       <c r="E254" s="14" t="s">
         <v>433</v>
       </c>
-      <c r="F254" s="71"/>
-      <c r="G254" s="71"/>
+      <c r="F254" s="62"/>
+      <c r="G254" s="62"/>
     </row>
     <row r="255" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A255" s="57"/>
-      <c r="B255" s="77"/>
-      <c r="C255" s="79"/>
+      <c r="A255" s="91"/>
+      <c r="B255" s="65"/>
+      <c r="C255" s="67"/>
       <c r="D255" s="50">
         <v>556</v>
       </c>
       <c r="E255" s="14" t="s">
         <v>436</v>
       </c>
-      <c r="F255" s="71"/>
-      <c r="G255" s="71"/>
+      <c r="F255" s="62"/>
+      <c r="G255" s="62"/>
     </row>
     <row r="256" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A256" s="57"/>
-      <c r="B256" s="77"/>
-      <c r="C256" s="79"/>
+      <c r="A256" s="91"/>
+      <c r="B256" s="65"/>
+      <c r="C256" s="67"/>
       <c r="D256" s="50">
         <v>557</v>
       </c>
       <c r="E256" s="14" t="s">
         <v>432</v>
       </c>
-      <c r="F256" s="71"/>
-      <c r="G256" s="71"/>
+      <c r="F256" s="62"/>
+      <c r="G256" s="62"/>
     </row>
     <row r="257" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A257" s="57"/>
-      <c r="B257" s="77"/>
-      <c r="C257" s="79"/>
+      <c r="A257" s="91"/>
+      <c r="B257" s="65"/>
+      <c r="C257" s="67"/>
       <c r="D257" s="50">
         <v>558</v>
       </c>
       <c r="E257" s="14" t="s">
         <v>435</v>
       </c>
-      <c r="F257" s="71"/>
-      <c r="G257" s="71"/>
+      <c r="F257" s="62"/>
+      <c r="G257" s="62"/>
     </row>
     <row r="258" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A258" s="51" t="s">
@@ -7475,13 +7475,13 @@
       </c>
     </row>
     <row r="266" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A266" s="55" t="s">
+      <c r="A266" s="90" t="s">
         <v>484</v>
       </c>
-      <c r="B266" s="61" t="s">
+      <c r="B266" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="C266" s="62" t="s">
+      <c r="C266" s="69" t="s">
         <v>386</v>
       </c>
       <c r="D266" s="8">
@@ -7490,25 +7490,25 @@
       <c r="E266" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F266" s="63">
-        <v>1</v>
-      </c>
-      <c r="G266" s="63" t="s">
+      <c r="F266" s="70">
+        <v>1</v>
+      </c>
+      <c r="G266" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="267" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A267" s="56"/>
-      <c r="B267" s="61"/>
-      <c r="C267" s="62"/>
+      <c r="A267" s="92"/>
+      <c r="B267" s="68"/>
+      <c r="C267" s="69"/>
       <c r="D267" s="8">
         <v>1</v>
       </c>
       <c r="E267" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F267" s="63"/>
-      <c r="G267" s="63"/>
+      <c r="F267" s="70"/>
+      <c r="G267" s="70"/>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A268" s="52" t="s">
@@ -7588,23 +7588,23 @@
     </row>
     <row r="272" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A272" s="52"/>
-      <c r="B272" s="73" t="s">
+      <c r="B272" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="C272" s="74"/>
-      <c r="D272" s="74"/>
-      <c r="E272" s="74"/>
-      <c r="F272" s="74"/>
-      <c r="G272" s="75"/>
+      <c r="C272" s="88"/>
+      <c r="D272" s="88"/>
+      <c r="E272" s="88"/>
+      <c r="F272" s="88"/>
+      <c r="G272" s="89"/>
     </row>
     <row r="273" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A273" s="55" t="s">
+      <c r="A273" s="90" t="s">
         <v>484</v>
       </c>
-      <c r="B273" s="76" t="s">
+      <c r="B273" s="64" t="s">
         <v>372</v>
       </c>
-      <c r="C273" s="78" t="s">
+      <c r="C273" s="66" t="s">
         <v>148</v>
       </c>
       <c r="D273" s="45">
@@ -7613,103 +7613,103 @@
       <c r="E273" s="45" t="s">
         <v>280</v>
       </c>
-      <c r="F273" s="70">
-        <v>1</v>
-      </c>
-      <c r="G273" s="70" t="s">
+      <c r="F273" s="61">
+        <v>1</v>
+      </c>
+      <c r="G273" s="61" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="274" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A274" s="57"/>
-      <c r="B274" s="77"/>
-      <c r="C274" s="79"/>
+      <c r="A274" s="91"/>
+      <c r="B274" s="65"/>
+      <c r="C274" s="67"/>
       <c r="D274" s="45">
         <v>2</v>
       </c>
       <c r="E274" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="F274" s="71"/>
-      <c r="G274" s="71"/>
+      <c r="F274" s="62"/>
+      <c r="G274" s="62"/>
     </row>
     <row r="275" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A275" s="57"/>
-      <c r="B275" s="77"/>
-      <c r="C275" s="79"/>
+      <c r="A275" s="91"/>
+      <c r="B275" s="65"/>
+      <c r="C275" s="67"/>
       <c r="D275" s="45">
         <v>3</v>
       </c>
       <c r="E275" s="45" t="s">
         <v>281</v>
       </c>
-      <c r="F275" s="71"/>
-      <c r="G275" s="71"/>
+      <c r="F275" s="62"/>
+      <c r="G275" s="62"/>
     </row>
     <row r="276" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A276" s="57"/>
-      <c r="B276" s="77"/>
-      <c r="C276" s="79"/>
+      <c r="A276" s="91"/>
+      <c r="B276" s="65"/>
+      <c r="C276" s="67"/>
       <c r="D276" s="45">
         <v>4</v>
       </c>
       <c r="E276" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="F276" s="71"/>
-      <c r="G276" s="71"/>
+      <c r="F276" s="62"/>
+      <c r="G276" s="62"/>
     </row>
     <row r="277" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A277" s="57"/>
-      <c r="B277" s="77"/>
-      <c r="C277" s="79"/>
+      <c r="A277" s="91"/>
+      <c r="B277" s="65"/>
+      <c r="C277" s="67"/>
       <c r="D277" s="45">
         <v>6</v>
       </c>
       <c r="E277" s="45" t="s">
         <v>279</v>
       </c>
-      <c r="F277" s="71"/>
-      <c r="G277" s="71"/>
+      <c r="F277" s="62"/>
+      <c r="G277" s="62"/>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A278" s="57"/>
-      <c r="B278" s="77"/>
-      <c r="C278" s="79"/>
+      <c r="A278" s="91"/>
+      <c r="B278" s="65"/>
+      <c r="C278" s="67"/>
       <c r="D278" s="45">
         <v>7</v>
       </c>
       <c r="E278" s="45" t="s">
         <v>450</v>
       </c>
-      <c r="F278" s="71"/>
-      <c r="G278" s="71"/>
+      <c r="F278" s="62"/>
+      <c r="G278" s="62"/>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A279" s="57"/>
-      <c r="B279" s="77"/>
-      <c r="C279" s="79"/>
+      <c r="A279" s="91"/>
+      <c r="B279" s="65"/>
+      <c r="C279" s="67"/>
       <c r="D279" s="45">
         <v>8</v>
       </c>
       <c r="E279" s="45" t="s">
         <v>282</v>
       </c>
-      <c r="F279" s="71"/>
-      <c r="G279" s="71"/>
+      <c r="F279" s="62"/>
+      <c r="G279" s="62"/>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A280" s="56"/>
-      <c r="B280" s="77"/>
-      <c r="C280" s="79"/>
+      <c r="A280" s="92"/>
+      <c r="B280" s="65"/>
+      <c r="C280" s="67"/>
       <c r="D280" s="45">
         <v>9</v>
       </c>
       <c r="E280" s="45" t="s">
         <v>283</v>
       </c>
-      <c r="F280" s="71"/>
-      <c r="G280" s="71"/>
+      <c r="F280" s="62"/>
+      <c r="G280" s="62"/>
     </row>
     <row r="281" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A281" s="52" t="s">
@@ -7827,23 +7827,23 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A287" s="52"/>
-      <c r="B287" s="73" t="s">
+      <c r="B287" s="87" t="s">
         <v>145</v>
       </c>
-      <c r="C287" s="74"/>
-      <c r="D287" s="74"/>
-      <c r="E287" s="74"/>
-      <c r="F287" s="74"/>
-      <c r="G287" s="75"/>
+      <c r="C287" s="88"/>
+      <c r="D287" s="88"/>
+      <c r="E287" s="88"/>
+      <c r="F287" s="88"/>
+      <c r="G287" s="89"/>
     </row>
     <row r="288" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A288" s="55" t="s">
+      <c r="A288" s="90" t="s">
         <v>484</v>
       </c>
-      <c r="B288" s="61" t="s">
+      <c r="B288" s="68" t="s">
         <v>149</v>
       </c>
-      <c r="C288" s="62" t="s">
+      <c r="C288" s="69" t="s">
         <v>191</v>
       </c>
       <c r="D288" s="18" t="s">
@@ -7852,112 +7852,112 @@
       <c r="E288" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="F288" s="63">
-        <v>1</v>
-      </c>
-      <c r="G288" s="63" t="s">
+      <c r="F288" s="70">
+        <v>1</v>
+      </c>
+      <c r="G288" s="70" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A289" s="57"/>
-      <c r="B289" s="61"/>
-      <c r="C289" s="62"/>
+      <c r="A289" s="91"/>
+      <c r="B289" s="68"/>
+      <c r="C289" s="69"/>
       <c r="D289" s="18" t="s">
         <v>114</v>
       </c>
       <c r="E289" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="F289" s="63"/>
-      <c r="G289" s="63"/>
+      <c r="F289" s="70"/>
+      <c r="G289" s="70"/>
     </row>
     <row r="290" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A290" s="57"/>
-      <c r="B290" s="61"/>
-      <c r="C290" s="62"/>
+      <c r="A290" s="91"/>
+      <c r="B290" s="68"/>
+      <c r="C290" s="69"/>
       <c r="D290" s="18" t="s">
         <v>121</v>
       </c>
       <c r="E290" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="F290" s="63"/>
-      <c r="G290" s="63"/>
+      <c r="F290" s="70"/>
+      <c r="G290" s="70"/>
     </row>
     <row r="291" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A291" s="57"/>
-      <c r="B291" s="61"/>
-      <c r="C291" s="62"/>
+      <c r="A291" s="91"/>
+      <c r="B291" s="68"/>
+      <c r="C291" s="69"/>
       <c r="D291" s="18" t="s">
         <v>123</v>
       </c>
       <c r="E291" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="F291" s="63"/>
-      <c r="G291" s="63"/>
+      <c r="F291" s="70"/>
+      <c r="G291" s="70"/>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A292" s="57"/>
-      <c r="B292" s="61"/>
-      <c r="C292" s="62"/>
+      <c r="A292" s="91"/>
+      <c r="B292" s="68"/>
+      <c r="C292" s="69"/>
       <c r="D292" s="18" t="s">
         <v>124</v>
       </c>
       <c r="E292" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="F292" s="63"/>
-      <c r="G292" s="63"/>
+      <c r="F292" s="70"/>
+      <c r="G292" s="70"/>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A293" s="57"/>
-      <c r="B293" s="61"/>
-      <c r="C293" s="62"/>
+      <c r="A293" s="91"/>
+      <c r="B293" s="68"/>
+      <c r="C293" s="69"/>
       <c r="D293" s="18" t="s">
         <v>122</v>
       </c>
       <c r="E293" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="F293" s="63"/>
-      <c r="G293" s="63"/>
+      <c r="F293" s="70"/>
+      <c r="G293" s="70"/>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A294" s="57"/>
-      <c r="B294" s="61"/>
-      <c r="C294" s="62"/>
+      <c r="A294" s="91"/>
+      <c r="B294" s="68"/>
+      <c r="C294" s="69"/>
       <c r="D294" s="18" t="s">
         <v>125</v>
       </c>
       <c r="E294" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="F294" s="63"/>
-      <c r="G294" s="63"/>
+      <c r="F294" s="70"/>
+      <c r="G294" s="70"/>
     </row>
     <row r="295" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A295" s="56"/>
-      <c r="B295" s="61"/>
-      <c r="C295" s="62"/>
+      <c r="A295" s="92"/>
+      <c r="B295" s="68"/>
+      <c r="C295" s="69"/>
       <c r="D295" s="18" t="s">
         <v>120</v>
       </c>
       <c r="E295" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="F295" s="63"/>
-      <c r="G295" s="63"/>
+      <c r="F295" s="70"/>
+      <c r="G295" s="70"/>
     </row>
     <row r="296" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A296" s="55" t="s">
+      <c r="A296" s="90" t="s">
         <v>484</v>
       </c>
-      <c r="B296" s="61" t="s">
+      <c r="B296" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="C296" s="62" t="s">
+      <c r="C296" s="69" t="s">
         <v>200</v>
       </c>
       <c r="D296" s="18" t="s">
@@ -7966,112 +7966,112 @@
       <c r="E296" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="F296" s="63">
-        <v>1</v>
-      </c>
-      <c r="G296" s="63" t="s">
+      <c r="F296" s="70">
+        <v>1</v>
+      </c>
+      <c r="G296" s="70" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A297" s="57"/>
-      <c r="B297" s="61"/>
-      <c r="C297" s="62"/>
+      <c r="A297" s="91"/>
+      <c r="B297" s="68"/>
+      <c r="C297" s="69"/>
       <c r="D297" s="18" t="s">
         <v>114</v>
       </c>
       <c r="E297" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="F297" s="63"/>
-      <c r="G297" s="63"/>
+      <c r="F297" s="70"/>
+      <c r="G297" s="70"/>
     </row>
     <row r="298" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A298" s="57"/>
-      <c r="B298" s="61"/>
-      <c r="C298" s="62"/>
+      <c r="A298" s="91"/>
+      <c r="B298" s="68"/>
+      <c r="C298" s="69"/>
       <c r="D298" s="18" t="s">
         <v>121</v>
       </c>
       <c r="E298" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="F298" s="63"/>
-      <c r="G298" s="63"/>
+      <c r="F298" s="70"/>
+      <c r="G298" s="70"/>
     </row>
     <row r="299" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A299" s="57"/>
-      <c r="B299" s="61"/>
-      <c r="C299" s="62"/>
+      <c r="A299" s="91"/>
+      <c r="B299" s="68"/>
+      <c r="C299" s="69"/>
       <c r="D299" s="18" t="s">
         <v>123</v>
       </c>
       <c r="E299" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="F299" s="63"/>
-      <c r="G299" s="63"/>
+      <c r="F299" s="70"/>
+      <c r="G299" s="70"/>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A300" s="57"/>
-      <c r="B300" s="61"/>
-      <c r="C300" s="62"/>
+      <c r="A300" s="91"/>
+      <c r="B300" s="68"/>
+      <c r="C300" s="69"/>
       <c r="D300" s="18" t="s">
         <v>124</v>
       </c>
       <c r="E300" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="F300" s="63"/>
-      <c r="G300" s="63"/>
+      <c r="F300" s="70"/>
+      <c r="G300" s="70"/>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A301" s="57"/>
-      <c r="B301" s="61"/>
-      <c r="C301" s="62"/>
+      <c r="A301" s="91"/>
+      <c r="B301" s="68"/>
+      <c r="C301" s="69"/>
       <c r="D301" s="18" t="s">
         <v>122</v>
       </c>
       <c r="E301" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="F301" s="63"/>
-      <c r="G301" s="63"/>
+      <c r="F301" s="70"/>
+      <c r="G301" s="70"/>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A302" s="57"/>
-      <c r="B302" s="61"/>
-      <c r="C302" s="62"/>
+      <c r="A302" s="91"/>
+      <c r="B302" s="68"/>
+      <c r="C302" s="69"/>
       <c r="D302" s="18" t="s">
         <v>125</v>
       </c>
       <c r="E302" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="F302" s="63"/>
-      <c r="G302" s="63"/>
+      <c r="F302" s="70"/>
+      <c r="G302" s="70"/>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A303" s="56"/>
-      <c r="B303" s="61"/>
-      <c r="C303" s="62"/>
+      <c r="A303" s="92"/>
+      <c r="B303" s="68"/>
+      <c r="C303" s="69"/>
       <c r="D303" s="18" t="s">
         <v>120</v>
       </c>
       <c r="E303" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="F303" s="63"/>
-      <c r="G303" s="63"/>
+      <c r="F303" s="70"/>
+      <c r="G303" s="70"/>
     </row>
     <row r="304" spans="1:7" ht="27" x14ac:dyDescent="0.35">
-      <c r="A304" s="55" t="s">
+      <c r="A304" s="90" t="s">
         <v>489</v>
       </c>
-      <c r="B304" s="61" t="s">
+      <c r="B304" s="68" t="s">
         <v>151</v>
       </c>
-      <c r="C304" s="62" t="s">
+      <c r="C304" s="69" t="s">
         <v>201</v>
       </c>
       <c r="D304" s="18" t="s">
@@ -8080,86 +8080,86 @@
       <c r="E304" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="F304" s="63">
-        <v>1</v>
-      </c>
-      <c r="G304" s="63" t="s">
+      <c r="F304" s="70">
+        <v>1</v>
+      </c>
+      <c r="G304" s="70" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="305" spans="1:7" ht="45" x14ac:dyDescent="0.35">
-      <c r="A305" s="57"/>
-      <c r="B305" s="61"/>
-      <c r="C305" s="62"/>
+      <c r="A305" s="91"/>
+      <c r="B305" s="68"/>
+      <c r="C305" s="69"/>
       <c r="D305" s="18" t="s">
         <v>114</v>
       </c>
       <c r="E305" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="F305" s="63"/>
-      <c r="G305" s="63"/>
+      <c r="F305" s="70"/>
+      <c r="G305" s="70"/>
     </row>
     <row r="306" spans="1:7" ht="36" x14ac:dyDescent="0.35">
-      <c r="A306" s="57"/>
-      <c r="B306" s="61"/>
-      <c r="C306" s="62"/>
+      <c r="A306" s="91"/>
+      <c r="B306" s="68"/>
+      <c r="C306" s="69"/>
       <c r="D306" s="18" t="s">
         <v>121</v>
       </c>
       <c r="E306" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="F306" s="63"/>
-      <c r="G306" s="63"/>
+      <c r="F306" s="70"/>
+      <c r="G306" s="70"/>
     </row>
     <row r="307" spans="1:7" s="3" customFormat="1" ht="54" x14ac:dyDescent="0.35">
-      <c r="A307" s="57"/>
-      <c r="B307" s="61"/>
-      <c r="C307" s="62"/>
+      <c r="A307" s="91"/>
+      <c r="B307" s="68"/>
+      <c r="C307" s="69"/>
       <c r="D307" s="18" t="s">
         <v>123</v>
       </c>
       <c r="E307" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="F307" s="63"/>
-      <c r="G307" s="63"/>
+      <c r="F307" s="70"/>
+      <c r="G307" s="70"/>
     </row>
     <row r="308" spans="1:7" s="3" customFormat="1" ht="36" x14ac:dyDescent="0.35">
-      <c r="A308" s="57"/>
-      <c r="B308" s="61"/>
-      <c r="C308" s="62"/>
+      <c r="A308" s="91"/>
+      <c r="B308" s="68"/>
+      <c r="C308" s="69"/>
       <c r="D308" s="18" t="s">
         <v>124</v>
       </c>
       <c r="E308" s="19" t="s">
         <v>389</v>
       </c>
-      <c r="F308" s="63"/>
-      <c r="G308" s="63"/>
+      <c r="F308" s="70"/>
+      <c r="G308" s="70"/>
     </row>
     <row r="309" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A309" s="56"/>
-      <c r="B309" s="61"/>
-      <c r="C309" s="62"/>
+      <c r="A309" s="92"/>
+      <c r="B309" s="68"/>
+      <c r="C309" s="69"/>
       <c r="D309" s="18" t="s">
         <v>122</v>
       </c>
       <c r="E309" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="F309" s="63"/>
-      <c r="G309" s="63"/>
+      <c r="F309" s="70"/>
+      <c r="G309" s="70"/>
     </row>
     <row r="310" spans="1:7" s="3" customFormat="1" ht="27" x14ac:dyDescent="0.35">
-      <c r="A310" s="58" t="s">
+      <c r="A310" s="93" t="s">
         <v>489</v>
       </c>
-      <c r="B310" s="61" t="s">
+      <c r="B310" s="68" t="s">
         <v>152</v>
       </c>
-      <c r="C310" s="62" t="s">
+      <c r="C310" s="69" t="s">
         <v>381</v>
       </c>
       <c r="D310" s="28" t="s">
@@ -8168,86 +8168,86 @@
       <c r="E310" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="F310" s="63">
+      <c r="F310" s="70">
         <v>2</v>
       </c>
-      <c r="G310" s="63" t="s">
+      <c r="G310" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="311" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.35">
-      <c r="A311" s="59"/>
-      <c r="B311" s="61"/>
-      <c r="C311" s="62"/>
+      <c r="A311" s="94"/>
+      <c r="B311" s="68"/>
+      <c r="C311" s="69"/>
       <c r="D311" s="28" t="s">
         <v>114</v>
       </c>
       <c r="E311" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="F311" s="63"/>
-      <c r="G311" s="63"/>
+      <c r="F311" s="70"/>
+      <c r="G311" s="70"/>
     </row>
     <row r="312" spans="1:7" s="3" customFormat="1" ht="36" x14ac:dyDescent="0.35">
-      <c r="A312" s="59"/>
-      <c r="B312" s="61"/>
-      <c r="C312" s="62"/>
+      <c r="A312" s="94"/>
+      <c r="B312" s="68"/>
+      <c r="C312" s="69"/>
       <c r="D312" s="28" t="s">
         <v>121</v>
       </c>
       <c r="E312" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="F312" s="63"/>
-      <c r="G312" s="63"/>
+      <c r="F312" s="70"/>
+      <c r="G312" s="70"/>
     </row>
     <row r="313" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A313" s="59"/>
-      <c r="B313" s="61"/>
-      <c r="C313" s="62"/>
+      <c r="A313" s="94"/>
+      <c r="B313" s="68"/>
+      <c r="C313" s="69"/>
       <c r="D313" s="28" t="s">
         <v>123</v>
       </c>
       <c r="E313" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="F313" s="63"/>
-      <c r="G313" s="63"/>
+      <c r="F313" s="70"/>
+      <c r="G313" s="70"/>
     </row>
     <row r="314" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A314" s="59"/>
-      <c r="B314" s="61"/>
-      <c r="C314" s="62"/>
+      <c r="A314" s="94"/>
+      <c r="B314" s="68"/>
+      <c r="C314" s="69"/>
       <c r="D314" s="28" t="s">
         <v>124</v>
       </c>
       <c r="E314" s="27" t="s">
         <v>390</v>
       </c>
-      <c r="F314" s="63"/>
-      <c r="G314" s="63"/>
+      <c r="F314" s="70"/>
+      <c r="G314" s="70"/>
     </row>
     <row r="315" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A315" s="60"/>
-      <c r="B315" s="61"/>
-      <c r="C315" s="62"/>
+      <c r="A315" s="95"/>
+      <c r="B315" s="68"/>
+      <c r="C315" s="69"/>
       <c r="D315" s="28" t="s">
         <v>122</v>
       </c>
       <c r="E315" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="F315" s="63"/>
-      <c r="G315" s="63"/>
+      <c r="F315" s="70"/>
+      <c r="G315" s="70"/>
     </row>
     <row r="316" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A316" s="55" t="s">
+      <c r="A316" s="90" t="s">
         <v>484</v>
       </c>
-      <c r="B316" s="61" t="s">
+      <c r="B316" s="68" t="s">
         <v>153</v>
       </c>
-      <c r="C316" s="62" t="s">
+      <c r="C316" s="69" t="s">
         <v>210</v>
       </c>
       <c r="D316" s="20">
@@ -8256,268 +8256,268 @@
       <c r="E316" s="19" t="s">
         <v>391</v>
       </c>
-      <c r="F316" s="63">
+      <c r="F316" s="70">
         <v>2</v>
       </c>
-      <c r="G316" s="63" t="s">
+      <c r="G316" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="317" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A317" s="57"/>
-      <c r="B317" s="61"/>
-      <c r="C317" s="62"/>
+      <c r="A317" s="91"/>
+      <c r="B317" s="68"/>
+      <c r="C317" s="69"/>
       <c r="D317" s="20">
         <v>2</v>
       </c>
       <c r="E317" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="F317" s="63"/>
-      <c r="G317" s="63"/>
+      <c r="F317" s="70"/>
+      <c r="G317" s="70"/>
     </row>
     <row r="318" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A318" s="57"/>
-      <c r="B318" s="61"/>
-      <c r="C318" s="62"/>
+      <c r="A318" s="91"/>
+      <c r="B318" s="68"/>
+      <c r="C318" s="69"/>
       <c r="D318" s="20">
         <v>3</v>
       </c>
       <c r="E318" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="F318" s="63"/>
-      <c r="G318" s="63"/>
+      <c r="F318" s="70"/>
+      <c r="G318" s="70"/>
     </row>
     <row r="319" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A319" s="57"/>
-      <c r="B319" s="61"/>
-      <c r="C319" s="62"/>
+      <c r="A319" s="91"/>
+      <c r="B319" s="68"/>
+      <c r="C319" s="69"/>
       <c r="D319" s="20">
         <v>4</v>
       </c>
       <c r="E319" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="F319" s="63"/>
-      <c r="G319" s="63"/>
+      <c r="F319" s="70"/>
+      <c r="G319" s="70"/>
     </row>
     <row r="320" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A320" s="57"/>
-      <c r="B320" s="61"/>
-      <c r="C320" s="62"/>
+      <c r="A320" s="91"/>
+      <c r="B320" s="68"/>
+      <c r="C320" s="69"/>
       <c r="D320" s="20">
         <v>5</v>
       </c>
       <c r="E320" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="F320" s="63"/>
-      <c r="G320" s="63"/>
+      <c r="F320" s="70"/>
+      <c r="G320" s="70"/>
     </row>
     <row r="321" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A321" s="57"/>
-      <c r="B321" s="61"/>
-      <c r="C321" s="62"/>
+      <c r="A321" s="91"/>
+      <c r="B321" s="68"/>
+      <c r="C321" s="69"/>
       <c r="D321" s="20">
         <v>6</v>
       </c>
       <c r="E321" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="F321" s="63"/>
-      <c r="G321" s="63"/>
+      <c r="F321" s="70"/>
+      <c r="G321" s="70"/>
     </row>
     <row r="322" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A322" s="57"/>
-      <c r="B322" s="61"/>
-      <c r="C322" s="62"/>
+      <c r="A322" s="91"/>
+      <c r="B322" s="68"/>
+      <c r="C322" s="69"/>
       <c r="D322" s="20">
         <v>7</v>
       </c>
       <c r="E322" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="F322" s="63"/>
-      <c r="G322" s="63"/>
+      <c r="F322" s="70"/>
+      <c r="G322" s="70"/>
     </row>
     <row r="323" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A323" s="57"/>
-      <c r="B323" s="61"/>
-      <c r="C323" s="62"/>
+      <c r="A323" s="91"/>
+      <c r="B323" s="68"/>
+      <c r="C323" s="69"/>
       <c r="D323" s="20">
         <v>8</v>
       </c>
       <c r="E323" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="F323" s="63"/>
-      <c r="G323" s="63"/>
+      <c r="F323" s="70"/>
+      <c r="G323" s="70"/>
     </row>
     <row r="324" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A324" s="57"/>
-      <c r="B324" s="61"/>
-      <c r="C324" s="62"/>
+      <c r="A324" s="91"/>
+      <c r="B324" s="68"/>
+      <c r="C324" s="69"/>
       <c r="D324" s="20">
         <v>9</v>
       </c>
       <c r="E324" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="F324" s="63"/>
-      <c r="G324" s="63"/>
+      <c r="F324" s="70"/>
+      <c r="G324" s="70"/>
     </row>
     <row r="325" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A325" s="57"/>
-      <c r="B325" s="61"/>
-      <c r="C325" s="62"/>
+      <c r="A325" s="91"/>
+      <c r="B325" s="68"/>
+      <c r="C325" s="69"/>
       <c r="D325" s="20">
         <v>10</v>
       </c>
       <c r="E325" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="F325" s="63"/>
-      <c r="G325" s="63"/>
+      <c r="F325" s="70"/>
+      <c r="G325" s="70"/>
     </row>
     <row r="326" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A326" s="57"/>
-      <c r="B326" s="61"/>
-      <c r="C326" s="62"/>
+      <c r="A326" s="91"/>
+      <c r="B326" s="68"/>
+      <c r="C326" s="69"/>
       <c r="D326" s="20">
         <v>11</v>
       </c>
       <c r="E326" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="F326" s="63"/>
-      <c r="G326" s="63"/>
+      <c r="F326" s="70"/>
+      <c r="G326" s="70"/>
     </row>
     <row r="327" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A327" s="57"/>
-      <c r="B327" s="61"/>
-      <c r="C327" s="62"/>
+      <c r="A327" s="91"/>
+      <c r="B327" s="68"/>
+      <c r="C327" s="69"/>
       <c r="D327" s="20">
         <v>12</v>
       </c>
       <c r="E327" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="F327" s="63"/>
-      <c r="G327" s="63"/>
+      <c r="F327" s="70"/>
+      <c r="G327" s="70"/>
     </row>
     <row r="328" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A328" s="57"/>
-      <c r="B328" s="61"/>
-      <c r="C328" s="62"/>
+      <c r="A328" s="91"/>
+      <c r="B328" s="68"/>
+      <c r="C328" s="69"/>
       <c r="D328" s="20">
         <v>13</v>
       </c>
       <c r="E328" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="F328" s="63"/>
-      <c r="G328" s="63"/>
+      <c r="F328" s="70"/>
+      <c r="G328" s="70"/>
     </row>
     <row r="329" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A329" s="57"/>
-      <c r="B329" s="61"/>
-      <c r="C329" s="62"/>
+      <c r="A329" s="91"/>
+      <c r="B329" s="68"/>
+      <c r="C329" s="69"/>
       <c r="D329" s="20">
         <v>14</v>
       </c>
       <c r="E329" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="F329" s="63"/>
-      <c r="G329" s="63"/>
+      <c r="F329" s="70"/>
+      <c r="G329" s="70"/>
     </row>
     <row r="330" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A330" s="57"/>
-      <c r="B330" s="61"/>
-      <c r="C330" s="62"/>
+      <c r="A330" s="91"/>
+      <c r="B330" s="68"/>
+      <c r="C330" s="69"/>
       <c r="D330" s="20">
         <v>15</v>
       </c>
       <c r="E330" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="F330" s="63"/>
-      <c r="G330" s="63"/>
+      <c r="F330" s="70"/>
+      <c r="G330" s="70"/>
     </row>
     <row r="331" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A331" s="57"/>
-      <c r="B331" s="61"/>
-      <c r="C331" s="62"/>
+      <c r="A331" s="91"/>
+      <c r="B331" s="68"/>
+      <c r="C331" s="69"/>
       <c r="D331" s="20">
         <v>16</v>
       </c>
       <c r="E331" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="F331" s="63"/>
-      <c r="G331" s="63"/>
+      <c r="F331" s="70"/>
+      <c r="G331" s="70"/>
     </row>
     <row r="332" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A332" s="57"/>
-      <c r="B332" s="61"/>
-      <c r="C332" s="62"/>
+      <c r="A332" s="91"/>
+      <c r="B332" s="68"/>
+      <c r="C332" s="69"/>
       <c r="D332" s="20">
         <v>17</v>
       </c>
       <c r="E332" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="F332" s="63"/>
-      <c r="G332" s="63"/>
+      <c r="F332" s="70"/>
+      <c r="G332" s="70"/>
     </row>
     <row r="333" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A333" s="57"/>
-      <c r="B333" s="61"/>
-      <c r="C333" s="62"/>
+      <c r="A333" s="91"/>
+      <c r="B333" s="68"/>
+      <c r="C333" s="69"/>
       <c r="D333" s="20">
         <v>18</v>
       </c>
       <c r="E333" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="F333" s="63"/>
-      <c r="G333" s="63"/>
+      <c r="F333" s="70"/>
+      <c r="G333" s="70"/>
     </row>
     <row r="334" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A334" s="57"/>
-      <c r="B334" s="61"/>
-      <c r="C334" s="62"/>
+      <c r="A334" s="91"/>
+      <c r="B334" s="68"/>
+      <c r="C334" s="69"/>
       <c r="D334" s="20">
         <v>19</v>
       </c>
       <c r="E334" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="F334" s="63"/>
-      <c r="G334" s="63"/>
+      <c r="F334" s="70"/>
+      <c r="G334" s="70"/>
     </row>
     <row r="335" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A335" s="56"/>
-      <c r="B335" s="61"/>
-      <c r="C335" s="62"/>
+      <c r="A335" s="92"/>
+      <c r="B335" s="68"/>
+      <c r="C335" s="69"/>
       <c r="D335" s="20">
         <v>20</v>
       </c>
       <c r="E335" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="F335" s="63"/>
-      <c r="G335" s="63"/>
+      <c r="F335" s="70"/>
+      <c r="G335" s="70"/>
     </row>
     <row r="336" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A336" s="55" t="s">
+      <c r="A336" s="90" t="s">
         <v>484</v>
       </c>
-      <c r="B336" s="61" t="s">
+      <c r="B336" s="68" t="s">
         <v>154</v>
       </c>
-      <c r="C336" s="62" t="s">
+      <c r="C336" s="69" t="s">
         <v>230</v>
       </c>
       <c r="D336" s="20" t="s">
@@ -8526,229 +8526,229 @@
       <c r="E336" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="F336" s="63">
-        <v>1</v>
-      </c>
-      <c r="G336" s="63" t="s">
+      <c r="F336" s="70">
+        <v>1</v>
+      </c>
+      <c r="G336" s="70" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="337" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A337" s="57"/>
-      <c r="B337" s="61"/>
-      <c r="C337" s="62"/>
+      <c r="A337" s="91"/>
+      <c r="B337" s="68"/>
+      <c r="C337" s="69"/>
       <c r="D337" s="20" t="s">
         <v>114</v>
       </c>
       <c r="E337" s="19" t="s">
         <v>462</v>
       </c>
-      <c r="F337" s="63"/>
-      <c r="G337" s="63"/>
+      <c r="F337" s="70"/>
+      <c r="G337" s="70"/>
     </row>
     <row r="338" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A338" s="57"/>
-      <c r="B338" s="61"/>
-      <c r="C338" s="62"/>
+      <c r="A338" s="91"/>
+      <c r="B338" s="68"/>
+      <c r="C338" s="69"/>
       <c r="D338" s="20" t="s">
         <v>121</v>
       </c>
       <c r="E338" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="F338" s="63"/>
-      <c r="G338" s="63"/>
+      <c r="F338" s="70"/>
+      <c r="G338" s="70"/>
     </row>
     <row r="339" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A339" s="57"/>
-      <c r="B339" s="61"/>
-      <c r="C339" s="62"/>
+      <c r="A339" s="91"/>
+      <c r="B339" s="68"/>
+      <c r="C339" s="69"/>
       <c r="D339" s="20" t="s">
         <v>123</v>
       </c>
       <c r="E339" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="F339" s="63"/>
-      <c r="G339" s="63"/>
+      <c r="F339" s="70"/>
+      <c r="G339" s="70"/>
     </row>
     <row r="340" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A340" s="57"/>
-      <c r="B340" s="61"/>
-      <c r="C340" s="62"/>
+      <c r="A340" s="91"/>
+      <c r="B340" s="68"/>
+      <c r="C340" s="69"/>
       <c r="D340" s="20" t="s">
         <v>124</v>
       </c>
       <c r="E340" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="F340" s="63"/>
-      <c r="G340" s="63"/>
+      <c r="F340" s="70"/>
+      <c r="G340" s="70"/>
     </row>
     <row r="341" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A341" s="57"/>
-      <c r="B341" s="61"/>
-      <c r="C341" s="62"/>
+      <c r="A341" s="91"/>
+      <c r="B341" s="68"/>
+      <c r="C341" s="69"/>
       <c r="D341" s="20" t="s">
         <v>122</v>
       </c>
       <c r="E341" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="F341" s="63"/>
-      <c r="G341" s="63"/>
+      <c r="F341" s="70"/>
+      <c r="G341" s="70"/>
     </row>
     <row r="342" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A342" s="57"/>
-      <c r="B342" s="61"/>
-      <c r="C342" s="62"/>
+      <c r="A342" s="91"/>
+      <c r="B342" s="68"/>
+      <c r="C342" s="69"/>
       <c r="D342" s="20" t="s">
         <v>125</v>
       </c>
       <c r="E342" s="19" t="s">
         <v>467</v>
       </c>
-      <c r="F342" s="63"/>
-      <c r="G342" s="63"/>
+      <c r="F342" s="70"/>
+      <c r="G342" s="70"/>
     </row>
     <row r="343" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A343" s="57"/>
-      <c r="B343" s="61"/>
-      <c r="C343" s="62"/>
+      <c r="A343" s="91"/>
+      <c r="B343" s="68"/>
+      <c r="C343" s="69"/>
       <c r="D343" s="20" t="s">
         <v>120</v>
       </c>
       <c r="E343" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="F343" s="63"/>
-      <c r="G343" s="63"/>
+      <c r="F343" s="70"/>
+      <c r="G343" s="70"/>
     </row>
     <row r="344" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A344" s="57"/>
-      <c r="B344" s="61"/>
-      <c r="C344" s="62"/>
+      <c r="A344" s="91"/>
+      <c r="B344" s="68"/>
+      <c r="C344" s="69"/>
       <c r="D344" s="20" t="s">
         <v>118</v>
       </c>
       <c r="E344" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="F344" s="63"/>
-      <c r="G344" s="63"/>
+      <c r="F344" s="70"/>
+      <c r="G344" s="70"/>
     </row>
     <row r="345" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A345" s="57"/>
-      <c r="B345" s="61"/>
-      <c r="C345" s="62"/>
+      <c r="A345" s="91"/>
+      <c r="B345" s="68"/>
+      <c r="C345" s="69"/>
       <c r="D345" s="20" t="s">
         <v>126</v>
       </c>
       <c r="E345" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="F345" s="63"/>
-      <c r="G345" s="63"/>
+      <c r="F345" s="70"/>
+      <c r="G345" s="70"/>
     </row>
     <row r="346" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A346" s="57"/>
-      <c r="B346" s="61"/>
-      <c r="C346" s="62"/>
+      <c r="A346" s="91"/>
+      <c r="B346" s="68"/>
+      <c r="C346" s="69"/>
       <c r="D346" s="20" t="s">
         <v>127</v>
       </c>
       <c r="E346" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="F346" s="63"/>
-      <c r="G346" s="63"/>
+      <c r="F346" s="70"/>
+      <c r="G346" s="70"/>
     </row>
     <row r="347" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A347" s="57"/>
-      <c r="B347" s="61"/>
-      <c r="C347" s="62"/>
+      <c r="A347" s="91"/>
+      <c r="B347" s="68"/>
+      <c r="C347" s="69"/>
       <c r="D347" s="20" t="s">
         <v>128</v>
       </c>
       <c r="E347" s="19" t="s">
         <v>472</v>
       </c>
-      <c r="F347" s="63"/>
-      <c r="G347" s="63"/>
+      <c r="F347" s="70"/>
+      <c r="G347" s="70"/>
     </row>
     <row r="348" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A348" s="57"/>
-      <c r="B348" s="61"/>
-      <c r="C348" s="62"/>
+      <c r="A348" s="91"/>
+      <c r="B348" s="68"/>
+      <c r="C348" s="69"/>
       <c r="D348" s="20" t="s">
         <v>129</v>
       </c>
       <c r="E348" s="19" t="s">
         <v>473</v>
       </c>
-      <c r="F348" s="63"/>
-      <c r="G348" s="63"/>
+      <c r="F348" s="70"/>
+      <c r="G348" s="70"/>
     </row>
     <row r="349" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A349" s="57"/>
-      <c r="B349" s="61"/>
-      <c r="C349" s="62"/>
+      <c r="A349" s="91"/>
+      <c r="B349" s="68"/>
+      <c r="C349" s="69"/>
       <c r="D349" s="20" t="s">
         <v>116</v>
       </c>
       <c r="E349" s="19" t="s">
         <v>474</v>
       </c>
-      <c r="F349" s="63"/>
-      <c r="G349" s="63"/>
+      <c r="F349" s="70"/>
+      <c r="G349" s="70"/>
     </row>
     <row r="350" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A350" s="57"/>
-      <c r="B350" s="61"/>
-      <c r="C350" s="62"/>
+      <c r="A350" s="91"/>
+      <c r="B350" s="68"/>
+      <c r="C350" s="69"/>
       <c r="D350" s="20" t="s">
         <v>130</v>
       </c>
       <c r="E350" s="19" t="s">
         <v>475</v>
       </c>
-      <c r="F350" s="63"/>
-      <c r="G350" s="63"/>
+      <c r="F350" s="70"/>
+      <c r="G350" s="70"/>
     </row>
     <row r="351" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A351" s="57"/>
-      <c r="B351" s="61"/>
-      <c r="C351" s="62"/>
+      <c r="A351" s="91"/>
+      <c r="B351" s="68"/>
+      <c r="C351" s="69"/>
       <c r="D351" s="20" t="s">
         <v>113</v>
       </c>
       <c r="E351" s="19" t="s">
         <v>476</v>
       </c>
-      <c r="F351" s="63"/>
-      <c r="G351" s="63"/>
+      <c r="F351" s="70"/>
+      <c r="G351" s="70"/>
     </row>
     <row r="352" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A352" s="56"/>
-      <c r="B352" s="61"/>
-      <c r="C352" s="62"/>
+      <c r="A352" s="92"/>
+      <c r="B352" s="68"/>
+      <c r="C352" s="69"/>
       <c r="D352" s="20" t="s">
         <v>131</v>
       </c>
       <c r="E352" s="19" t="s">
         <v>477</v>
       </c>
-      <c r="F352" s="63"/>
-      <c r="G352" s="63"/>
+      <c r="F352" s="70"/>
+      <c r="G352" s="70"/>
     </row>
     <row r="353" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A353" s="55" t="s">
+      <c r="A353" s="90" t="s">
         <v>484</v>
       </c>
-      <c r="B353" s="61" t="s">
+      <c r="B353" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="C353" s="62" t="s">
+      <c r="C353" s="69" t="s">
         <v>232</v>
       </c>
       <c r="D353" s="18" t="s">
@@ -8757,60 +8757,60 @@
       <c r="E353" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="F353" s="63">
-        <v>1</v>
-      </c>
-      <c r="G353" s="63" t="s">
+      <c r="F353" s="70">
+        <v>1</v>
+      </c>
+      <c r="G353" s="70" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="354" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A354" s="57"/>
-      <c r="B354" s="61"/>
-      <c r="C354" s="62"/>
+      <c r="A354" s="91"/>
+      <c r="B354" s="68"/>
+      <c r="C354" s="69"/>
       <c r="D354" s="18" t="s">
         <v>114</v>
       </c>
       <c r="E354" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="F354" s="63"/>
-      <c r="G354" s="63"/>
+      <c r="F354" s="70"/>
+      <c r="G354" s="70"/>
     </row>
     <row r="355" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A355" s="57"/>
-      <c r="B355" s="61"/>
-      <c r="C355" s="62"/>
+      <c r="A355" s="91"/>
+      <c r="B355" s="68"/>
+      <c r="C355" s="69"/>
       <c r="D355" s="18" t="s">
         <v>121</v>
       </c>
       <c r="E355" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="F355" s="63"/>
-      <c r="G355" s="63"/>
+      <c r="F355" s="70"/>
+      <c r="G355" s="70"/>
     </row>
     <row r="356" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A356" s="56"/>
-      <c r="B356" s="61"/>
-      <c r="C356" s="62"/>
+      <c r="A356" s="92"/>
+      <c r="B356" s="68"/>
+      <c r="C356" s="69"/>
       <c r="D356" s="18" t="s">
         <v>123</v>
       </c>
       <c r="E356" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="F356" s="63"/>
-      <c r="G356" s="63"/>
+      <c r="F356" s="70"/>
+      <c r="G356" s="70"/>
     </row>
     <row r="357" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A357" s="55" t="s">
+      <c r="A357" s="90" t="s">
         <v>484</v>
       </c>
-      <c r="B357" s="61" t="s">
+      <c r="B357" s="68" t="s">
         <v>156</v>
       </c>
-      <c r="C357" s="62" t="s">
+      <c r="C357" s="69" t="s">
         <v>237</v>
       </c>
       <c r="D357" s="18" t="s">
@@ -8819,73 +8819,73 @@
       <c r="E357" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="F357" s="63">
-        <v>1</v>
-      </c>
-      <c r="G357" s="63" t="s">
+      <c r="F357" s="70">
+        <v>1</v>
+      </c>
+      <c r="G357" s="70" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="358" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A358" s="57"/>
-      <c r="B358" s="61"/>
-      <c r="C358" s="62"/>
+      <c r="A358" s="91"/>
+      <c r="B358" s="68"/>
+      <c r="C358" s="69"/>
       <c r="D358" s="18" t="s">
         <v>114</v>
       </c>
       <c r="E358" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="F358" s="63"/>
-      <c r="G358" s="63"/>
+      <c r="F358" s="70"/>
+      <c r="G358" s="70"/>
     </row>
     <row r="359" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A359" s="57"/>
-      <c r="B359" s="61"/>
-      <c r="C359" s="62"/>
+      <c r="A359" s="91"/>
+      <c r="B359" s="68"/>
+      <c r="C359" s="69"/>
       <c r="D359" s="18" t="s">
         <v>121</v>
       </c>
       <c r="E359" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="F359" s="63"/>
-      <c r="G359" s="63"/>
+      <c r="F359" s="70"/>
+      <c r="G359" s="70"/>
     </row>
     <row r="360" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A360" s="57"/>
-      <c r="B360" s="61"/>
-      <c r="C360" s="62"/>
+      <c r="A360" s="91"/>
+      <c r="B360" s="68"/>
+      <c r="C360" s="69"/>
       <c r="D360" s="18" t="s">
         <v>123</v>
       </c>
       <c r="E360" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="F360" s="63"/>
-      <c r="G360" s="63"/>
+      <c r="F360" s="70"/>
+      <c r="G360" s="70"/>
     </row>
     <row r="361" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A361" s="56"/>
-      <c r="B361" s="61"/>
-      <c r="C361" s="62"/>
+      <c r="A361" s="92"/>
+      <c r="B361" s="68"/>
+      <c r="C361" s="69"/>
       <c r="D361" s="18" t="s">
         <v>124</v>
       </c>
       <c r="E361" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="F361" s="63"/>
-      <c r="G361" s="63"/>
+      <c r="F361" s="70"/>
+      <c r="G361" s="70"/>
     </row>
     <row r="362" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A362" s="55" t="s">
+      <c r="A362" s="90" t="s">
         <v>484</v>
       </c>
-      <c r="B362" s="61" t="s">
+      <c r="B362" s="68" t="s">
         <v>157</v>
       </c>
-      <c r="C362" s="62" t="s">
+      <c r="C362" s="69" t="s">
         <v>242</v>
       </c>
       <c r="D362" s="18" t="s">
@@ -8894,73 +8894,73 @@
       <c r="E362" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="F362" s="63">
-        <v>1</v>
-      </c>
-      <c r="G362" s="63" t="s">
+      <c r="F362" s="70">
+        <v>1</v>
+      </c>
+      <c r="G362" s="70" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="363" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A363" s="57"/>
-      <c r="B363" s="61"/>
-      <c r="C363" s="62"/>
+      <c r="A363" s="91"/>
+      <c r="B363" s="68"/>
+      <c r="C363" s="69"/>
       <c r="D363" s="18" t="s">
         <v>114</v>
       </c>
       <c r="E363" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="F363" s="63"/>
-      <c r="G363" s="63"/>
+      <c r="F363" s="70"/>
+      <c r="G363" s="70"/>
     </row>
     <row r="364" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A364" s="57"/>
-      <c r="B364" s="61"/>
-      <c r="C364" s="62"/>
+      <c r="A364" s="91"/>
+      <c r="B364" s="68"/>
+      <c r="C364" s="69"/>
       <c r="D364" s="18" t="s">
         <v>121</v>
       </c>
       <c r="E364" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="F364" s="63"/>
-      <c r="G364" s="63"/>
+      <c r="F364" s="70"/>
+      <c r="G364" s="70"/>
     </row>
     <row r="365" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A365" s="57"/>
-      <c r="B365" s="61"/>
-      <c r="C365" s="62"/>
+      <c r="A365" s="91"/>
+      <c r="B365" s="68"/>
+      <c r="C365" s="69"/>
       <c r="D365" s="18" t="s">
         <v>123</v>
       </c>
       <c r="E365" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="F365" s="63"/>
-      <c r="G365" s="63"/>
+      <c r="F365" s="70"/>
+      <c r="G365" s="70"/>
     </row>
     <row r="366" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A366" s="56"/>
-      <c r="B366" s="61"/>
-      <c r="C366" s="62"/>
+      <c r="A366" s="92"/>
+      <c r="B366" s="68"/>
+      <c r="C366" s="69"/>
       <c r="D366" s="18" t="s">
         <v>124</v>
       </c>
       <c r="E366" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="F366" s="63"/>
-      <c r="G366" s="63"/>
+      <c r="F366" s="70"/>
+      <c r="G366" s="70"/>
     </row>
     <row r="367" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A367" s="55" t="s">
+      <c r="A367" s="90" t="s">
         <v>484</v>
       </c>
-      <c r="B367" s="61" t="s">
+      <c r="B367" s="68" t="s">
         <v>158</v>
       </c>
-      <c r="C367" s="62" t="s">
+      <c r="C367" s="69" t="s">
         <v>243</v>
       </c>
       <c r="D367" s="18" t="s">
@@ -8969,73 +8969,73 @@
       <c r="E367" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="F367" s="63">
-        <v>1</v>
-      </c>
-      <c r="G367" s="63" t="s">
+      <c r="F367" s="70">
+        <v>1</v>
+      </c>
+      <c r="G367" s="70" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="368" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A368" s="57"/>
-      <c r="B368" s="61"/>
-      <c r="C368" s="62"/>
+      <c r="A368" s="91"/>
+      <c r="B368" s="68"/>
+      <c r="C368" s="69"/>
       <c r="D368" s="18" t="s">
         <v>114</v>
       </c>
       <c r="E368" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="F368" s="63"/>
-      <c r="G368" s="63"/>
+      <c r="F368" s="70"/>
+      <c r="G368" s="70"/>
     </row>
     <row r="369" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A369" s="57"/>
-      <c r="B369" s="61"/>
-      <c r="C369" s="62"/>
+      <c r="A369" s="91"/>
+      <c r="B369" s="68"/>
+      <c r="C369" s="69"/>
       <c r="D369" s="18" t="s">
         <v>121</v>
       </c>
       <c r="E369" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="F369" s="63"/>
-      <c r="G369" s="63"/>
+      <c r="F369" s="70"/>
+      <c r="G369" s="70"/>
     </row>
     <row r="370" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A370" s="57"/>
-      <c r="B370" s="61"/>
-      <c r="C370" s="62"/>
+      <c r="A370" s="91"/>
+      <c r="B370" s="68"/>
+      <c r="C370" s="69"/>
       <c r="D370" s="18" t="s">
         <v>123</v>
       </c>
       <c r="E370" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="F370" s="63"/>
-      <c r="G370" s="63"/>
+      <c r="F370" s="70"/>
+      <c r="G370" s="70"/>
     </row>
     <row r="371" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A371" s="56"/>
-      <c r="B371" s="61"/>
-      <c r="C371" s="62"/>
+      <c r="A371" s="92"/>
+      <c r="B371" s="68"/>
+      <c r="C371" s="69"/>
       <c r="D371" s="18" t="s">
         <v>124</v>
       </c>
       <c r="E371" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="F371" s="63"/>
-      <c r="G371" s="63"/>
+      <c r="F371" s="70"/>
+      <c r="G371" s="70"/>
     </row>
     <row r="372" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A372" s="55" t="s">
+      <c r="A372" s="90" t="s">
         <v>484</v>
       </c>
-      <c r="B372" s="61" t="s">
+      <c r="B372" s="68" t="s">
         <v>159</v>
       </c>
-      <c r="C372" s="62" t="s">
+      <c r="C372" s="69" t="s">
         <v>244</v>
       </c>
       <c r="D372" s="18" t="s">
@@ -9044,73 +9044,73 @@
       <c r="E372" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="F372" s="63">
-        <v>1</v>
-      </c>
-      <c r="G372" s="63" t="s">
+      <c r="F372" s="70">
+        <v>1</v>
+      </c>
+      <c r="G372" s="70" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="373" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A373" s="57"/>
-      <c r="B373" s="61"/>
-      <c r="C373" s="62"/>
+      <c r="A373" s="91"/>
+      <c r="B373" s="68"/>
+      <c r="C373" s="69"/>
       <c r="D373" s="18" t="s">
         <v>114</v>
       </c>
       <c r="E373" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="F373" s="63"/>
-      <c r="G373" s="63"/>
+      <c r="F373" s="70"/>
+      <c r="G373" s="70"/>
     </row>
     <row r="374" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A374" s="57"/>
-      <c r="B374" s="61"/>
-      <c r="C374" s="62"/>
+      <c r="A374" s="91"/>
+      <c r="B374" s="68"/>
+      <c r="C374" s="69"/>
       <c r="D374" s="18" t="s">
         <v>121</v>
       </c>
       <c r="E374" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="F374" s="63"/>
-      <c r="G374" s="63"/>
+      <c r="F374" s="70"/>
+      <c r="G374" s="70"/>
     </row>
     <row r="375" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A375" s="57"/>
-      <c r="B375" s="61"/>
-      <c r="C375" s="62"/>
+      <c r="A375" s="91"/>
+      <c r="B375" s="68"/>
+      <c r="C375" s="69"/>
       <c r="D375" s="18" t="s">
         <v>123</v>
       </c>
       <c r="E375" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="F375" s="63"/>
-      <c r="G375" s="63"/>
+      <c r="F375" s="70"/>
+      <c r="G375" s="70"/>
     </row>
     <row r="376" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A376" s="56"/>
-      <c r="B376" s="61"/>
-      <c r="C376" s="62"/>
+      <c r="A376" s="92"/>
+      <c r="B376" s="68"/>
+      <c r="C376" s="69"/>
       <c r="D376" s="18" t="s">
         <v>124</v>
       </c>
       <c r="E376" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="F376" s="63"/>
-      <c r="G376" s="63"/>
+      <c r="F376" s="70"/>
+      <c r="G376" s="70"/>
     </row>
     <row r="377" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A377" s="55" t="s">
+      <c r="A377" s="90" t="s">
         <v>484</v>
       </c>
-      <c r="B377" s="61" t="s">
+      <c r="B377" s="68" t="s">
         <v>160</v>
       </c>
-      <c r="C377" s="62" t="s">
+      <c r="C377" s="69" t="s">
         <v>247</v>
       </c>
       <c r="D377" s="18" t="s">
@@ -9119,73 +9119,73 @@
       <c r="E377" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="F377" s="63">
-        <v>1</v>
-      </c>
-      <c r="G377" s="63" t="s">
+      <c r="F377" s="70">
+        <v>1</v>
+      </c>
+      <c r="G377" s="70" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="378" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A378" s="57"/>
-      <c r="B378" s="61"/>
-      <c r="C378" s="62"/>
+      <c r="A378" s="91"/>
+      <c r="B378" s="68"/>
+      <c r="C378" s="69"/>
       <c r="D378" s="18" t="s">
         <v>114</v>
       </c>
       <c r="E378" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="F378" s="63"/>
-      <c r="G378" s="63"/>
+      <c r="F378" s="70"/>
+      <c r="G378" s="70"/>
     </row>
     <row r="379" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A379" s="57"/>
-      <c r="B379" s="61"/>
-      <c r="C379" s="62"/>
+      <c r="A379" s="91"/>
+      <c r="B379" s="68"/>
+      <c r="C379" s="69"/>
       <c r="D379" s="18" t="s">
         <v>121</v>
       </c>
       <c r="E379" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="F379" s="63"/>
-      <c r="G379" s="63"/>
+      <c r="F379" s="70"/>
+      <c r="G379" s="70"/>
     </row>
     <row r="380" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A380" s="57"/>
-      <c r="B380" s="61"/>
-      <c r="C380" s="62"/>
+      <c r="A380" s="91"/>
+      <c r="B380" s="68"/>
+      <c r="C380" s="69"/>
       <c r="D380" s="18" t="s">
         <v>123</v>
       </c>
       <c r="E380" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="F380" s="63"/>
-      <c r="G380" s="63"/>
+      <c r="F380" s="70"/>
+      <c r="G380" s="70"/>
     </row>
     <row r="381" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A381" s="56"/>
-      <c r="B381" s="61"/>
-      <c r="C381" s="62"/>
+      <c r="A381" s="92"/>
+      <c r="B381" s="68"/>
+      <c r="C381" s="69"/>
       <c r="D381" s="18" t="s">
         <v>124</v>
       </c>
       <c r="E381" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="F381" s="63"/>
-      <c r="G381" s="63"/>
+      <c r="F381" s="70"/>
+      <c r="G381" s="70"/>
     </row>
     <row r="382" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A382" s="55" t="s">
+      <c r="A382" s="90" t="s">
         <v>484</v>
       </c>
-      <c r="B382" s="61" t="s">
+      <c r="B382" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="C382" s="62" t="s">
+      <c r="C382" s="69" t="s">
         <v>248</v>
       </c>
       <c r="D382" s="18" t="s">
@@ -9194,73 +9194,73 @@
       <c r="E382" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="F382" s="63">
-        <v>1</v>
-      </c>
-      <c r="G382" s="63" t="s">
+      <c r="F382" s="70">
+        <v>1</v>
+      </c>
+      <c r="G382" s="70" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="383" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A383" s="57"/>
-      <c r="B383" s="61"/>
-      <c r="C383" s="62"/>
+      <c r="A383" s="91"/>
+      <c r="B383" s="68"/>
+      <c r="C383" s="69"/>
       <c r="D383" s="18" t="s">
         <v>114</v>
       </c>
       <c r="E383" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="F383" s="63"/>
-      <c r="G383" s="63"/>
+      <c r="F383" s="70"/>
+      <c r="G383" s="70"/>
     </row>
     <row r="384" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A384" s="57"/>
-      <c r="B384" s="61"/>
-      <c r="C384" s="62"/>
+      <c r="A384" s="91"/>
+      <c r="B384" s="68"/>
+      <c r="C384" s="69"/>
       <c r="D384" s="18" t="s">
         <v>121</v>
       </c>
       <c r="E384" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="F384" s="63"/>
-      <c r="G384" s="63"/>
+      <c r="F384" s="70"/>
+      <c r="G384" s="70"/>
     </row>
     <row r="385" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A385" s="57"/>
-      <c r="B385" s="61"/>
-      <c r="C385" s="62"/>
+      <c r="A385" s="91"/>
+      <c r="B385" s="68"/>
+      <c r="C385" s="69"/>
       <c r="D385" s="18" t="s">
         <v>123</v>
       </c>
       <c r="E385" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="F385" s="63"/>
-      <c r="G385" s="63"/>
+      <c r="F385" s="70"/>
+      <c r="G385" s="70"/>
     </row>
     <row r="386" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A386" s="56"/>
-      <c r="B386" s="61"/>
-      <c r="C386" s="62"/>
+      <c r="A386" s="92"/>
+      <c r="B386" s="68"/>
+      <c r="C386" s="69"/>
       <c r="D386" s="18" t="s">
         <v>124</v>
       </c>
       <c r="E386" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="F386" s="63"/>
-      <c r="G386" s="63"/>
+      <c r="F386" s="70"/>
+      <c r="G386" s="70"/>
     </row>
     <row r="387" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A387" s="55" t="s">
+      <c r="A387" s="90" t="s">
         <v>484</v>
       </c>
-      <c r="B387" s="61" t="s">
+      <c r="B387" s="68" t="s">
         <v>162</v>
       </c>
-      <c r="C387" s="62" t="s">
+      <c r="C387" s="69" t="s">
         <v>395</v>
       </c>
       <c r="D387" s="18" t="s">
@@ -9269,73 +9269,73 @@
       <c r="E387" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="F387" s="63">
-        <v>1</v>
-      </c>
-      <c r="G387" s="63" t="s">
+      <c r="F387" s="70">
+        <v>1</v>
+      </c>
+      <c r="G387" s="70" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="388" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A388" s="57"/>
-      <c r="B388" s="61"/>
-      <c r="C388" s="62"/>
+      <c r="A388" s="91"/>
+      <c r="B388" s="68"/>
+      <c r="C388" s="69"/>
       <c r="D388" s="18" t="s">
         <v>114</v>
       </c>
       <c r="E388" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="F388" s="63"/>
-      <c r="G388" s="63"/>
+      <c r="F388" s="70"/>
+      <c r="G388" s="70"/>
     </row>
     <row r="389" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A389" s="57"/>
-      <c r="B389" s="61"/>
-      <c r="C389" s="62"/>
+      <c r="A389" s="91"/>
+      <c r="B389" s="68"/>
+      <c r="C389" s="69"/>
       <c r="D389" s="18" t="s">
         <v>121</v>
       </c>
       <c r="E389" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="F389" s="63"/>
-      <c r="G389" s="63"/>
+      <c r="F389" s="70"/>
+      <c r="G389" s="70"/>
     </row>
     <row r="390" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A390" s="57"/>
-      <c r="B390" s="61"/>
-      <c r="C390" s="62"/>
+      <c r="A390" s="91"/>
+      <c r="B390" s="68"/>
+      <c r="C390" s="69"/>
       <c r="D390" s="18" t="s">
         <v>123</v>
       </c>
       <c r="E390" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="F390" s="63"/>
-      <c r="G390" s="63"/>
+      <c r="F390" s="70"/>
+      <c r="G390" s="70"/>
     </row>
     <row r="391" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A391" s="56"/>
-      <c r="B391" s="61"/>
-      <c r="C391" s="62"/>
+      <c r="A391" s="92"/>
+      <c r="B391" s="68"/>
+      <c r="C391" s="69"/>
       <c r="D391" s="18" t="s">
         <v>124</v>
       </c>
       <c r="E391" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="F391" s="63"/>
-      <c r="G391" s="63"/>
+      <c r="F391" s="70"/>
+      <c r="G391" s="70"/>
     </row>
     <row r="392" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A392" s="55" t="s">
+      <c r="A392" s="90" t="s">
         <v>484</v>
       </c>
-      <c r="B392" s="61" t="s">
+      <c r="B392" s="68" t="s">
         <v>163</v>
       </c>
-      <c r="C392" s="62" t="s">
+      <c r="C392" s="69" t="s">
         <v>249</v>
       </c>
       <c r="D392" s="18" t="s">
@@ -9344,73 +9344,73 @@
       <c r="E392" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="F392" s="63">
-        <v>1</v>
-      </c>
-      <c r="G392" s="63" t="s">
+      <c r="F392" s="70">
+        <v>1</v>
+      </c>
+      <c r="G392" s="70" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="393" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A393" s="57"/>
-      <c r="B393" s="61"/>
-      <c r="C393" s="62"/>
+      <c r="A393" s="91"/>
+      <c r="B393" s="68"/>
+      <c r="C393" s="69"/>
       <c r="D393" s="18" t="s">
         <v>114</v>
       </c>
       <c r="E393" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="F393" s="63"/>
-      <c r="G393" s="63"/>
+      <c r="F393" s="70"/>
+      <c r="G393" s="70"/>
     </row>
     <row r="394" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A394" s="57"/>
-      <c r="B394" s="61"/>
-      <c r="C394" s="62"/>
+      <c r="A394" s="91"/>
+      <c r="B394" s="68"/>
+      <c r="C394" s="69"/>
       <c r="D394" s="18" t="s">
         <v>121</v>
       </c>
       <c r="E394" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="F394" s="63"/>
-      <c r="G394" s="63"/>
+      <c r="F394" s="70"/>
+      <c r="G394" s="70"/>
     </row>
     <row r="395" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A395" s="57"/>
-      <c r="B395" s="61"/>
-      <c r="C395" s="62"/>
+      <c r="A395" s="91"/>
+      <c r="B395" s="68"/>
+      <c r="C395" s="69"/>
       <c r="D395" s="18" t="s">
         <v>123</v>
       </c>
       <c r="E395" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="F395" s="63"/>
-      <c r="G395" s="63"/>
+      <c r="F395" s="70"/>
+      <c r="G395" s="70"/>
     </row>
     <row r="396" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A396" s="56"/>
-      <c r="B396" s="61"/>
-      <c r="C396" s="62"/>
+      <c r="A396" s="92"/>
+      <c r="B396" s="68"/>
+      <c r="C396" s="69"/>
       <c r="D396" s="18" t="s">
         <v>124</v>
       </c>
       <c r="E396" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="F396" s="63"/>
-      <c r="G396" s="63"/>
+      <c r="F396" s="70"/>
+      <c r="G396" s="70"/>
     </row>
     <row r="397" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A397" s="55" t="s">
+      <c r="A397" s="90" t="s">
         <v>484</v>
       </c>
-      <c r="B397" s="61" t="s">
+      <c r="B397" s="68" t="s">
         <v>164</v>
       </c>
-      <c r="C397" s="62" t="s">
+      <c r="C397" s="69" t="s">
         <v>250</v>
       </c>
       <c r="D397" s="18" t="s">
@@ -9419,73 +9419,73 @@
       <c r="E397" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="F397" s="63">
-        <v>1</v>
-      </c>
-      <c r="G397" s="63" t="s">
+      <c r="F397" s="70">
+        <v>1</v>
+      </c>
+      <c r="G397" s="70" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="398" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A398" s="57"/>
-      <c r="B398" s="61"/>
-      <c r="C398" s="62"/>
+      <c r="A398" s="91"/>
+      <c r="B398" s="68"/>
+      <c r="C398" s="69"/>
       <c r="D398" s="18" t="s">
         <v>114</v>
       </c>
       <c r="E398" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="F398" s="63"/>
-      <c r="G398" s="63"/>
+      <c r="F398" s="70"/>
+      <c r="G398" s="70"/>
     </row>
     <row r="399" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A399" s="57"/>
-      <c r="B399" s="61"/>
-      <c r="C399" s="62"/>
+      <c r="A399" s="91"/>
+      <c r="B399" s="68"/>
+      <c r="C399" s="69"/>
       <c r="D399" s="18" t="s">
         <v>121</v>
       </c>
       <c r="E399" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="F399" s="63"/>
-      <c r="G399" s="63"/>
+      <c r="F399" s="70"/>
+      <c r="G399" s="70"/>
     </row>
     <row r="400" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A400" s="57"/>
-      <c r="B400" s="61"/>
-      <c r="C400" s="62"/>
+      <c r="A400" s="91"/>
+      <c r="B400" s="68"/>
+      <c r="C400" s="69"/>
       <c r="D400" s="18" t="s">
         <v>123</v>
       </c>
       <c r="E400" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="F400" s="63"/>
-      <c r="G400" s="63"/>
+      <c r="F400" s="70"/>
+      <c r="G400" s="70"/>
     </row>
     <row r="401" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A401" s="56"/>
-      <c r="B401" s="61"/>
-      <c r="C401" s="62"/>
+      <c r="A401" s="92"/>
+      <c r="B401" s="68"/>
+      <c r="C401" s="69"/>
       <c r="D401" s="18" t="s">
         <v>124</v>
       </c>
       <c r="E401" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="F401" s="63"/>
-      <c r="G401" s="63"/>
+      <c r="F401" s="70"/>
+      <c r="G401" s="70"/>
     </row>
     <row r="402" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A402" s="55" t="s">
+      <c r="A402" s="90" t="s">
         <v>484</v>
       </c>
-      <c r="B402" s="61" t="s">
+      <c r="B402" s="68" t="s">
         <v>165</v>
       </c>
-      <c r="C402" s="62" t="s">
+      <c r="C402" s="69" t="s">
         <v>251</v>
       </c>
       <c r="D402" s="18" t="s">
@@ -9494,73 +9494,73 @@
       <c r="E402" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="F402" s="63">
-        <v>1</v>
-      </c>
-      <c r="G402" s="63" t="s">
+      <c r="F402" s="70">
+        <v>1</v>
+      </c>
+      <c r="G402" s="70" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="403" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A403" s="57"/>
-      <c r="B403" s="61"/>
-      <c r="C403" s="62"/>
+      <c r="A403" s="91"/>
+      <c r="B403" s="68"/>
+      <c r="C403" s="69"/>
       <c r="D403" s="18" t="s">
         <v>114</v>
       </c>
       <c r="E403" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="F403" s="63"/>
-      <c r="G403" s="63"/>
+      <c r="F403" s="70"/>
+      <c r="G403" s="70"/>
     </row>
     <row r="404" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A404" s="57"/>
-      <c r="B404" s="61"/>
-      <c r="C404" s="62"/>
+      <c r="A404" s="91"/>
+      <c r="B404" s="68"/>
+      <c r="C404" s="69"/>
       <c r="D404" s="18" t="s">
         <v>121</v>
       </c>
       <c r="E404" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="F404" s="63"/>
-      <c r="G404" s="63"/>
+      <c r="F404" s="70"/>
+      <c r="G404" s="70"/>
     </row>
     <row r="405" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A405" s="57"/>
-      <c r="B405" s="61"/>
-      <c r="C405" s="62"/>
+      <c r="A405" s="91"/>
+      <c r="B405" s="68"/>
+      <c r="C405" s="69"/>
       <c r="D405" s="18" t="s">
         <v>123</v>
       </c>
       <c r="E405" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="F405" s="63"/>
-      <c r="G405" s="63"/>
+      <c r="F405" s="70"/>
+      <c r="G405" s="70"/>
     </row>
     <row r="406" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A406" s="56"/>
-      <c r="B406" s="61"/>
-      <c r="C406" s="62"/>
+      <c r="A406" s="92"/>
+      <c r="B406" s="68"/>
+      <c r="C406" s="69"/>
       <c r="D406" s="18" t="s">
         <v>124</v>
       </c>
       <c r="E406" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="F406" s="63"/>
-      <c r="G406" s="63"/>
+      <c r="F406" s="70"/>
+      <c r="G406" s="70"/>
     </row>
     <row r="407" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A407" s="55" t="s">
+      <c r="A407" s="90" t="s">
         <v>484</v>
       </c>
-      <c r="B407" s="61" t="s">
+      <c r="B407" s="68" t="s">
         <v>166</v>
       </c>
-      <c r="C407" s="62" t="s">
+      <c r="C407" s="69" t="s">
         <v>252</v>
       </c>
       <c r="D407" s="18" t="s">
@@ -9569,34 +9569,34 @@
       <c r="E407" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="F407" s="63">
-        <v>1</v>
-      </c>
-      <c r="G407" s="63" t="s">
+      <c r="F407" s="70">
+        <v>1</v>
+      </c>
+      <c r="G407" s="70" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="408" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A408" s="56"/>
-      <c r="B408" s="61"/>
-      <c r="C408" s="62"/>
+      <c r="A408" s="92"/>
+      <c r="B408" s="68"/>
+      <c r="C408" s="69"/>
       <c r="D408" s="18" t="s">
         <v>114</v>
       </c>
       <c r="E408" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="F408" s="63"/>
-      <c r="G408" s="63"/>
+      <c r="F408" s="70"/>
+      <c r="G408" s="70"/>
     </row>
     <row r="409" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A409" s="55" t="s">
+      <c r="A409" s="90" t="s">
         <v>484</v>
       </c>
-      <c r="B409" s="61" t="s">
+      <c r="B409" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="C409" s="62" t="s">
+      <c r="C409" s="69" t="s">
         <v>254</v>
       </c>
       <c r="D409" s="18" t="s">
@@ -9605,73 +9605,73 @@
       <c r="E409" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="F409" s="63">
-        <v>1</v>
-      </c>
-      <c r="G409" s="63" t="s">
+      <c r="F409" s="70">
+        <v>1</v>
+      </c>
+      <c r="G409" s="70" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="410" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A410" s="57"/>
-      <c r="B410" s="61"/>
-      <c r="C410" s="62"/>
+      <c r="A410" s="91"/>
+      <c r="B410" s="68"/>
+      <c r="C410" s="69"/>
       <c r="D410" s="18" t="s">
         <v>114</v>
       </c>
       <c r="E410" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="F410" s="63"/>
-      <c r="G410" s="63"/>
+      <c r="F410" s="70"/>
+      <c r="G410" s="70"/>
     </row>
     <row r="411" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A411" s="57"/>
-      <c r="B411" s="61"/>
-      <c r="C411" s="62"/>
+      <c r="A411" s="91"/>
+      <c r="B411" s="68"/>
+      <c r="C411" s="69"/>
       <c r="D411" s="18" t="s">
         <v>121</v>
       </c>
       <c r="E411" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="F411" s="63"/>
-      <c r="G411" s="63"/>
+      <c r="F411" s="70"/>
+      <c r="G411" s="70"/>
     </row>
     <row r="412" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A412" s="57"/>
-      <c r="B412" s="61"/>
-      <c r="C412" s="62"/>
+      <c r="A412" s="91"/>
+      <c r="B412" s="68"/>
+      <c r="C412" s="69"/>
       <c r="D412" s="18" t="s">
         <v>123</v>
       </c>
       <c r="E412" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="F412" s="63"/>
-      <c r="G412" s="63"/>
+      <c r="F412" s="70"/>
+      <c r="G412" s="70"/>
     </row>
     <row r="413" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A413" s="56"/>
-      <c r="B413" s="61"/>
-      <c r="C413" s="62"/>
+      <c r="A413" s="92"/>
+      <c r="B413" s="68"/>
+      <c r="C413" s="69"/>
       <c r="D413" s="18" t="s">
         <v>124</v>
       </c>
       <c r="E413" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="F413" s="63"/>
-      <c r="G413" s="63"/>
+      <c r="F413" s="70"/>
+      <c r="G413" s="70"/>
     </row>
     <row r="414" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A414" s="55" t="s">
+      <c r="A414" s="90" t="s">
         <v>484</v>
       </c>
-      <c r="B414" s="61" t="s">
+      <c r="B414" s="68" t="s">
         <v>168</v>
       </c>
-      <c r="C414" s="62" t="s">
+      <c r="C414" s="69" t="s">
         <v>255</v>
       </c>
       <c r="D414" s="18" t="s">
@@ -9680,34 +9680,34 @@
       <c r="E414" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="F414" s="63">
-        <v>1</v>
-      </c>
-      <c r="G414" s="63" t="s">
+      <c r="F414" s="70">
+        <v>1</v>
+      </c>
+      <c r="G414" s="70" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="415" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A415" s="56"/>
-      <c r="B415" s="61"/>
-      <c r="C415" s="62"/>
+      <c r="A415" s="92"/>
+      <c r="B415" s="68"/>
+      <c r="C415" s="69"/>
       <c r="D415" s="18" t="s">
         <v>114</v>
       </c>
       <c r="E415" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="F415" s="63"/>
-      <c r="G415" s="63"/>
+      <c r="F415" s="70"/>
+      <c r="G415" s="70"/>
     </row>
     <row r="416" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A416" s="55" t="s">
+      <c r="A416" s="90" t="s">
         <v>484</v>
       </c>
-      <c r="B416" s="61" t="s">
+      <c r="B416" s="68" t="s">
         <v>169</v>
       </c>
-      <c r="C416" s="62" t="s">
+      <c r="C416" s="69" t="s">
         <v>256</v>
       </c>
       <c r="D416" s="18" t="s">
@@ -9716,34 +9716,34 @@
       <c r="E416" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="F416" s="63">
-        <v>1</v>
-      </c>
-      <c r="G416" s="63" t="s">
+      <c r="F416" s="70">
+        <v>1</v>
+      </c>
+      <c r="G416" s="70" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="417" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A417" s="56"/>
-      <c r="B417" s="61"/>
-      <c r="C417" s="62"/>
+      <c r="A417" s="92"/>
+      <c r="B417" s="68"/>
+      <c r="C417" s="69"/>
       <c r="D417" s="18" t="s">
         <v>114</v>
       </c>
       <c r="E417" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="F417" s="63"/>
-      <c r="G417" s="63"/>
+      <c r="F417" s="70"/>
+      <c r="G417" s="70"/>
     </row>
     <row r="418" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A418" s="55" t="s">
+      <c r="A418" s="90" t="s">
         <v>484</v>
       </c>
-      <c r="B418" s="61" t="s">
+      <c r="B418" s="68" t="s">
         <v>170</v>
       </c>
-      <c r="C418" s="62" t="s">
+      <c r="C418" s="69" t="s">
         <v>257</v>
       </c>
       <c r="D418" s="18" t="s">
@@ -9752,73 +9752,73 @@
       <c r="E418" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="F418" s="63">
-        <v>1</v>
-      </c>
-      <c r="G418" s="63" t="s">
+      <c r="F418" s="70">
+        <v>1</v>
+      </c>
+      <c r="G418" s="70" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="419" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A419" s="57"/>
-      <c r="B419" s="61"/>
-      <c r="C419" s="62"/>
+      <c r="A419" s="91"/>
+      <c r="B419" s="68"/>
+      <c r="C419" s="69"/>
       <c r="D419" s="18" t="s">
         <v>114</v>
       </c>
       <c r="E419" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="F419" s="63"/>
-      <c r="G419" s="63"/>
+      <c r="F419" s="70"/>
+      <c r="G419" s="70"/>
     </row>
     <row r="420" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A420" s="57"/>
-      <c r="B420" s="61"/>
-      <c r="C420" s="62"/>
+      <c r="A420" s="91"/>
+      <c r="B420" s="68"/>
+      <c r="C420" s="69"/>
       <c r="D420" s="18" t="s">
         <v>121</v>
       </c>
       <c r="E420" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="F420" s="63"/>
-      <c r="G420" s="63"/>
+      <c r="F420" s="70"/>
+      <c r="G420" s="70"/>
     </row>
     <row r="421" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A421" s="57"/>
-      <c r="B421" s="61"/>
-      <c r="C421" s="62"/>
+      <c r="A421" s="91"/>
+      <c r="B421" s="68"/>
+      <c r="C421" s="69"/>
       <c r="D421" s="18" t="s">
         <v>123</v>
       </c>
       <c r="E421" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="F421" s="63"/>
-      <c r="G421" s="63"/>
+      <c r="F421" s="70"/>
+      <c r="G421" s="70"/>
     </row>
     <row r="422" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A422" s="56"/>
-      <c r="B422" s="61"/>
-      <c r="C422" s="62"/>
+      <c r="A422" s="92"/>
+      <c r="B422" s="68"/>
+      <c r="C422" s="69"/>
       <c r="D422" s="18" t="s">
         <v>124</v>
       </c>
       <c r="E422" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="F422" s="63"/>
-      <c r="G422" s="63"/>
+      <c r="F422" s="70"/>
+      <c r="G422" s="70"/>
     </row>
     <row r="423" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A423" s="55" t="s">
+      <c r="A423" s="90" t="s">
         <v>484</v>
       </c>
-      <c r="B423" s="61" t="s">
+      <c r="B423" s="68" t="s">
         <v>171</v>
       </c>
-      <c r="C423" s="62" t="s">
+      <c r="C423" s="69" t="s">
         <v>258</v>
       </c>
       <c r="D423" s="18" t="s">
@@ -9827,34 +9827,34 @@
       <c r="E423" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="F423" s="63">
-        <v>1</v>
-      </c>
-      <c r="G423" s="63" t="s">
+      <c r="F423" s="70">
+        <v>1</v>
+      </c>
+      <c r="G423" s="70" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="424" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A424" s="56"/>
-      <c r="B424" s="61"/>
-      <c r="C424" s="62"/>
+      <c r="A424" s="92"/>
+      <c r="B424" s="68"/>
+      <c r="C424" s="69"/>
       <c r="D424" s="18" t="s">
         <v>114</v>
       </c>
       <c r="E424" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="F424" s="63"/>
-      <c r="G424" s="63"/>
+      <c r="F424" s="70"/>
+      <c r="G424" s="70"/>
     </row>
     <row r="425" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A425" s="55" t="s">
+      <c r="A425" s="90" t="s">
         <v>484</v>
       </c>
-      <c r="B425" s="61" t="s">
+      <c r="B425" s="68" t="s">
         <v>172</v>
       </c>
-      <c r="C425" s="62" t="s">
+      <c r="C425" s="69" t="s">
         <v>259</v>
       </c>
       <c r="D425" s="18" t="s">
@@ -9863,73 +9863,73 @@
       <c r="E425" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="F425" s="63">
-        <v>1</v>
-      </c>
-      <c r="G425" s="63" t="s">
+      <c r="F425" s="70">
+        <v>1</v>
+      </c>
+      <c r="G425" s="70" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="426" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A426" s="57"/>
-      <c r="B426" s="61"/>
-      <c r="C426" s="62"/>
+      <c r="A426" s="91"/>
+      <c r="B426" s="68"/>
+      <c r="C426" s="69"/>
       <c r="D426" s="18" t="s">
         <v>114</v>
       </c>
       <c r="E426" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="F426" s="63"/>
-      <c r="G426" s="63"/>
+      <c r="F426" s="70"/>
+      <c r="G426" s="70"/>
     </row>
     <row r="427" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A427" s="57"/>
-      <c r="B427" s="61"/>
-      <c r="C427" s="62"/>
+      <c r="A427" s="91"/>
+      <c r="B427" s="68"/>
+      <c r="C427" s="69"/>
       <c r="D427" s="18" t="s">
         <v>121</v>
       </c>
       <c r="E427" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="F427" s="63"/>
-      <c r="G427" s="63"/>
+      <c r="F427" s="70"/>
+      <c r="G427" s="70"/>
     </row>
     <row r="428" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A428" s="57"/>
-      <c r="B428" s="61"/>
-      <c r="C428" s="62"/>
+      <c r="A428" s="91"/>
+      <c r="B428" s="68"/>
+      <c r="C428" s="69"/>
       <c r="D428" s="18" t="s">
         <v>123</v>
       </c>
       <c r="E428" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="F428" s="63"/>
-      <c r="G428" s="63"/>
+      <c r="F428" s="70"/>
+      <c r="G428" s="70"/>
     </row>
     <row r="429" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A429" s="56"/>
-      <c r="B429" s="61"/>
-      <c r="C429" s="62"/>
+      <c r="A429" s="92"/>
+      <c r="B429" s="68"/>
+      <c r="C429" s="69"/>
       <c r="D429" s="18" t="s">
         <v>124</v>
       </c>
       <c r="E429" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="F429" s="63"/>
-      <c r="G429" s="63"/>
+      <c r="F429" s="70"/>
+      <c r="G429" s="70"/>
     </row>
     <row r="430" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A430" s="55" t="s">
+      <c r="A430" s="90" t="s">
         <v>484</v>
       </c>
-      <c r="B430" s="61" t="s">
+      <c r="B430" s="68" t="s">
         <v>173</v>
       </c>
-      <c r="C430" s="62" t="s">
+      <c r="C430" s="69" t="s">
         <v>260</v>
       </c>
       <c r="D430" s="18" t="s">
@@ -9938,143 +9938,587 @@
       <c r="E430" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="F430" s="63">
-        <v>1</v>
-      </c>
-      <c r="G430" s="63" t="s">
+      <c r="F430" s="70">
+        <v>1</v>
+      </c>
+      <c r="G430" s="70" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A431" s="56"/>
-      <c r="B431" s="61"/>
-      <c r="C431" s="62"/>
+      <c r="A431" s="92"/>
+      <c r="B431" s="68"/>
+      <c r="C431" s="69"/>
       <c r="D431" s="18" t="s">
         <v>114</v>
       </c>
       <c r="E431" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="F431" s="63"/>
-      <c r="G431" s="63"/>
+      <c r="F431" s="70"/>
+      <c r="G431" s="70"/>
     </row>
     <row r="432" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B432" s="94" t="s">
+      <c r="B432" s="72" t="s">
         <v>454</v>
       </c>
-      <c r="C432" s="94"/>
-      <c r="D432" s="94"/>
-      <c r="E432" s="94"/>
-      <c r="F432" s="94"/>
-      <c r="G432" s="94"/>
+      <c r="C432" s="72"/>
+      <c r="D432" s="72"/>
+      <c r="E432" s="72"/>
+      <c r="F432" s="72"/>
+      <c r="G432" s="72"/>
     </row>
     <row r="433" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A433" s="12"/>
-      <c r="B433" s="95" t="s">
+      <c r="B433" s="73" t="s">
         <v>457</v>
       </c>
-      <c r="C433" s="95"/>
-      <c r="D433" s="95"/>
-      <c r="E433" s="95"/>
-      <c r="F433" s="95"/>
-      <c r="G433" s="95"/>
+      <c r="C433" s="73"/>
+      <c r="D433" s="73"/>
+      <c r="E433" s="73"/>
+      <c r="F433" s="73"/>
+      <c r="G433" s="73"/>
     </row>
     <row r="434" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A434" s="12"/>
-      <c r="B434" s="95" t="s">
+      <c r="B434" s="73" t="s">
         <v>455</v>
       </c>
-      <c r="C434" s="95"/>
-      <c r="D434" s="95"/>
-      <c r="E434" s="95"/>
-      <c r="F434" s="95"/>
-      <c r="G434" s="95"/>
+      <c r="C434" s="73"/>
+      <c r="D434" s="73"/>
+      <c r="E434" s="73"/>
+      <c r="F434" s="73"/>
+      <c r="G434" s="73"/>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B435" s="93" t="s">
+      <c r="B435" s="71" t="s">
         <v>399</v>
       </c>
-      <c r="C435" s="93"/>
-      <c r="D435" s="93"/>
-      <c r="E435" s="93"/>
-      <c r="F435" s="93"/>
-      <c r="G435" s="93"/>
+      <c r="C435" s="71"/>
+      <c r="D435" s="71"/>
+      <c r="E435" s="71"/>
+      <c r="F435" s="71"/>
+      <c r="G435" s="71"/>
     </row>
     <row r="436" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B436" s="95" t="s">
+      <c r="B436" s="73" t="s">
         <v>456</v>
       </c>
-      <c r="C436" s="95"/>
-      <c r="D436" s="95"/>
-      <c r="E436" s="95"/>
-      <c r="F436" s="95"/>
-      <c r="G436" s="95"/>
+      <c r="C436" s="73"/>
+      <c r="D436" s="73"/>
+      <c r="E436" s="73"/>
+      <c r="F436" s="73"/>
+      <c r="G436" s="73"/>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B437" s="95" t="s">
+      <c r="B437" s="73" t="s">
         <v>458</v>
       </c>
-      <c r="C437" s="95"/>
-      <c r="D437" s="95"/>
-      <c r="E437" s="95"/>
-      <c r="F437" s="95"/>
-      <c r="G437" s="95"/>
+      <c r="C437" s="73"/>
+      <c r="D437" s="73"/>
+      <c r="E437" s="73"/>
+      <c r="F437" s="73"/>
+      <c r="G437" s="73"/>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B438" s="93" t="s">
+      <c r="B438" s="71" t="s">
         <v>334</v>
       </c>
-      <c r="C438" s="93"/>
-      <c r="D438" s="93"/>
-      <c r="E438" s="93"/>
-      <c r="F438" s="93"/>
-      <c r="G438" s="93"/>
+      <c r="C438" s="71"/>
+      <c r="D438" s="71"/>
+      <c r="E438" s="71"/>
+      <c r="F438" s="71"/>
+      <c r="G438" s="71"/>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B439" s="93" t="s">
+      <c r="B439" s="71" t="s">
         <v>335</v>
       </c>
-      <c r="C439" s="93"/>
-      <c r="D439" s="93"/>
-      <c r="E439" s="93"/>
-      <c r="F439" s="93"/>
-      <c r="G439" s="93"/>
+      <c r="C439" s="71"/>
+      <c r="D439" s="71"/>
+      <c r="E439" s="71"/>
+      <c r="F439" s="71"/>
+      <c r="G439" s="71"/>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B440" s="93" t="s">
+      <c r="B440" s="71" t="s">
         <v>336</v>
       </c>
-      <c r="C440" s="93"/>
-      <c r="D440" s="93"/>
-      <c r="E440" s="93"/>
-      <c r="F440" s="93"/>
-      <c r="G440" s="93"/>
+      <c r="C440" s="71"/>
+      <c r="D440" s="71"/>
+      <c r="E440" s="71"/>
+      <c r="F440" s="71"/>
+      <c r="G440" s="71"/>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B441" s="93" t="s">
+      <c r="B441" s="71" t="s">
         <v>337</v>
       </c>
-      <c r="C441" s="93"/>
-      <c r="D441" s="93"/>
-      <c r="E441" s="93"/>
-      <c r="F441" s="93"/>
-      <c r="G441" s="93"/>
+      <c r="C441" s="71"/>
+      <c r="D441" s="71"/>
+      <c r="E441" s="71"/>
+      <c r="F441" s="71"/>
+      <c r="G441" s="71"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D191:E193">
     <sortCondition ref="D191"/>
   </sortState>
   <mergeCells count="488">
-    <mergeCell ref="B237:B247"/>
-    <mergeCell ref="C237:C247"/>
-    <mergeCell ref="F237:F247"/>
-    <mergeCell ref="G237:G247"/>
-    <mergeCell ref="B248:B257"/>
-    <mergeCell ref="C248:C257"/>
-    <mergeCell ref="F248:F257"/>
-    <mergeCell ref="G248:G257"/>
-    <mergeCell ref="B357:B361"/>
-    <mergeCell ref="C357:C361"/>
+    <mergeCell ref="A407:A408"/>
+    <mergeCell ref="A409:A413"/>
+    <mergeCell ref="A414:A415"/>
+    <mergeCell ref="A416:A417"/>
+    <mergeCell ref="A418:A422"/>
+    <mergeCell ref="A423:A424"/>
+    <mergeCell ref="A425:A429"/>
+    <mergeCell ref="A430:A431"/>
+    <mergeCell ref="A362:A366"/>
+    <mergeCell ref="A367:A371"/>
+    <mergeCell ref="A372:A376"/>
+    <mergeCell ref="A377:A381"/>
+    <mergeCell ref="A382:A386"/>
+    <mergeCell ref="A387:A391"/>
+    <mergeCell ref="A392:A396"/>
+    <mergeCell ref="A397:A401"/>
+    <mergeCell ref="A402:A406"/>
+    <mergeCell ref="A273:A280"/>
+    <mergeCell ref="A288:A295"/>
+    <mergeCell ref="A296:A303"/>
+    <mergeCell ref="A304:A309"/>
+    <mergeCell ref="A310:A315"/>
+    <mergeCell ref="A316:A335"/>
+    <mergeCell ref="A336:A352"/>
+    <mergeCell ref="A353:A356"/>
+    <mergeCell ref="A357:A361"/>
+    <mergeCell ref="A210:A212"/>
+    <mergeCell ref="A213:A215"/>
+    <mergeCell ref="A216:A225"/>
+    <mergeCell ref="A226:A236"/>
+    <mergeCell ref="A237:A247"/>
+    <mergeCell ref="A248:A257"/>
+    <mergeCell ref="A266:A267"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="A195:A199"/>
+    <mergeCell ref="A204:A206"/>
+    <mergeCell ref="A207:A209"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A47:A60"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="B430:B431"/>
+    <mergeCell ref="C430:C431"/>
+    <mergeCell ref="F430:F431"/>
+    <mergeCell ref="G430:G431"/>
+    <mergeCell ref="F423:F424"/>
+    <mergeCell ref="G423:G424"/>
+    <mergeCell ref="B425:B429"/>
+    <mergeCell ref="B414:B415"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="F19:F23"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="B287:G287"/>
+    <mergeCell ref="B272:G272"/>
+    <mergeCell ref="F372:F376"/>
+    <mergeCell ref="C409:C413"/>
+    <mergeCell ref="F409:F413"/>
+    <mergeCell ref="G409:G413"/>
+    <mergeCell ref="B423:B424"/>
+    <mergeCell ref="C423:C424"/>
+    <mergeCell ref="C425:C429"/>
+    <mergeCell ref="F425:F429"/>
+    <mergeCell ref="G425:G429"/>
+    <mergeCell ref="B418:B422"/>
+    <mergeCell ref="F377:F381"/>
+    <mergeCell ref="C418:C422"/>
+    <mergeCell ref="F418:F422"/>
+    <mergeCell ref="G418:G422"/>
+    <mergeCell ref="B407:B408"/>
+    <mergeCell ref="C407:C408"/>
+    <mergeCell ref="F407:F408"/>
+    <mergeCell ref="G407:G408"/>
+    <mergeCell ref="B409:B413"/>
+    <mergeCell ref="C414:C415"/>
+    <mergeCell ref="F414:F415"/>
+    <mergeCell ref="G414:G415"/>
+    <mergeCell ref="F387:F391"/>
+    <mergeCell ref="G387:G391"/>
+    <mergeCell ref="B392:B396"/>
+    <mergeCell ref="C392:C396"/>
+    <mergeCell ref="F392:F396"/>
+    <mergeCell ref="G392:G396"/>
+    <mergeCell ref="B382:B386"/>
+    <mergeCell ref="C382:C386"/>
+    <mergeCell ref="F382:F386"/>
+    <mergeCell ref="G382:G386"/>
+    <mergeCell ref="B216:B225"/>
+    <mergeCell ref="C216:C225"/>
+    <mergeCell ref="B336:B352"/>
+    <mergeCell ref="C336:C352"/>
+    <mergeCell ref="F336:F352"/>
+    <mergeCell ref="G336:G352"/>
+    <mergeCell ref="B353:B356"/>
+    <mergeCell ref="C353:C356"/>
+    <mergeCell ref="F353:F356"/>
+    <mergeCell ref="G353:G356"/>
+    <mergeCell ref="F216:F225"/>
+    <mergeCell ref="G216:G225"/>
+    <mergeCell ref="B288:B295"/>
+    <mergeCell ref="C288:C295"/>
+    <mergeCell ref="F288:F295"/>
+    <mergeCell ref="G288:G295"/>
+    <mergeCell ref="B266:B267"/>
+    <mergeCell ref="C266:C267"/>
+    <mergeCell ref="F266:F267"/>
+    <mergeCell ref="G266:G267"/>
+    <mergeCell ref="B226:B236"/>
+    <mergeCell ref="C226:C236"/>
+    <mergeCell ref="F226:F236"/>
+    <mergeCell ref="G226:G236"/>
+    <mergeCell ref="B190:B191"/>
+    <mergeCell ref="C190:C191"/>
+    <mergeCell ref="F190:F191"/>
+    <mergeCell ref="G190:G191"/>
+    <mergeCell ref="B210:B212"/>
+    <mergeCell ref="C210:C212"/>
+    <mergeCell ref="F210:F212"/>
+    <mergeCell ref="G210:G212"/>
+    <mergeCell ref="B213:B215"/>
+    <mergeCell ref="C213:C215"/>
+    <mergeCell ref="F213:F215"/>
+    <mergeCell ref="G213:G215"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="C184:C185"/>
+    <mergeCell ref="B207:B209"/>
+    <mergeCell ref="C207:C209"/>
+    <mergeCell ref="F207:F209"/>
+    <mergeCell ref="G207:G209"/>
+    <mergeCell ref="C192:C193"/>
+    <mergeCell ref="F192:F193"/>
+    <mergeCell ref="G192:G193"/>
+    <mergeCell ref="B203:G203"/>
+    <mergeCell ref="B204:B206"/>
+    <mergeCell ref="C204:C206"/>
+    <mergeCell ref="F204:F206"/>
+    <mergeCell ref="G204:G206"/>
+    <mergeCell ref="B194:G194"/>
+    <mergeCell ref="B195:B199"/>
+    <mergeCell ref="D195:D199"/>
+    <mergeCell ref="E195:E199"/>
+    <mergeCell ref="F195:F199"/>
+    <mergeCell ref="G195:G199"/>
+    <mergeCell ref="F188:F189"/>
+    <mergeCell ref="G188:G189"/>
+    <mergeCell ref="B192:B193"/>
+    <mergeCell ref="F184:F185"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="C168:C169"/>
+    <mergeCell ref="F168:F169"/>
+    <mergeCell ref="G168:G169"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="F166:F167"/>
+    <mergeCell ref="G166:G167"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="F134:F135"/>
+    <mergeCell ref="G134:G135"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="F136:F137"/>
+    <mergeCell ref="G136:G137"/>
+    <mergeCell ref="G144:G145"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="F138:F139"/>
+    <mergeCell ref="G138:G139"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="F140:F141"/>
+    <mergeCell ref="G140:G141"/>
+    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="F144:F145"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="F142:F143"/>
+    <mergeCell ref="G142:G143"/>
+    <mergeCell ref="G184:G185"/>
+    <mergeCell ref="B186:B187"/>
+    <mergeCell ref="C186:C187"/>
+    <mergeCell ref="F186:F187"/>
+    <mergeCell ref="G186:G187"/>
+    <mergeCell ref="B188:B189"/>
+    <mergeCell ref="C188:C189"/>
+    <mergeCell ref="B156:B157"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="F164:F165"/>
+    <mergeCell ref="B174:B175"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="F174:F175"/>
+    <mergeCell ref="G174:G175"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="B180:B181"/>
+    <mergeCell ref="B182:B183"/>
+    <mergeCell ref="F182:F183"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="F172:F173"/>
+    <mergeCell ref="G172:G173"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="G154:G155"/>
+    <mergeCell ref="F178:F179"/>
+    <mergeCell ref="G178:G179"/>
+    <mergeCell ref="F180:F181"/>
+    <mergeCell ref="G180:G181"/>
+    <mergeCell ref="G182:G183"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="F152:F153"/>
+    <mergeCell ref="G152:G153"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="C182:C183"/>
+    <mergeCell ref="G170:G171"/>
+    <mergeCell ref="C156:C157"/>
+    <mergeCell ref="C158:C159"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="C162:C163"/>
+    <mergeCell ref="G164:G165"/>
+    <mergeCell ref="F176:F177"/>
+    <mergeCell ref="G176:G177"/>
+    <mergeCell ref="F162:F163"/>
+    <mergeCell ref="G162:G163"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="G132:G133"/>
+    <mergeCell ref="B128:B129"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="F128:F129"/>
+    <mergeCell ref="G128:G129"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="F130:F131"/>
+    <mergeCell ref="G130:G131"/>
+    <mergeCell ref="F86:F88"/>
+    <mergeCell ref="G86:G88"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="F65:F67"/>
+    <mergeCell ref="G65:G67"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="D72:D76"/>
+    <mergeCell ref="E72:E76"/>
+    <mergeCell ref="F72:F76"/>
+    <mergeCell ref="G72:G76"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="F80:F83"/>
+    <mergeCell ref="G80:G83"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="F61:F64"/>
+    <mergeCell ref="G61:G64"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="C24:C29"/>
+    <mergeCell ref="F24:F29"/>
+    <mergeCell ref="G24:G29"/>
+    <mergeCell ref="E35:E39"/>
+    <mergeCell ref="F35:F39"/>
+    <mergeCell ref="G35:G39"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="F30:F34"/>
+    <mergeCell ref="G30:G34"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="B47:B60"/>
+    <mergeCell ref="C47:C60"/>
+    <mergeCell ref="F47:F60"/>
+    <mergeCell ref="G47:G60"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="B273:B280"/>
+    <mergeCell ref="C273:C280"/>
+    <mergeCell ref="F273:F280"/>
+    <mergeCell ref="G273:G280"/>
+    <mergeCell ref="F156:F157"/>
+    <mergeCell ref="G156:G157"/>
+    <mergeCell ref="B89:G89"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="G92:G93"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B1:G2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="G8:G12"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="B310:B315"/>
+    <mergeCell ref="C310:C315"/>
+    <mergeCell ref="F310:F315"/>
+    <mergeCell ref="G310:G315"/>
+    <mergeCell ref="B316:B335"/>
+    <mergeCell ref="C316:C335"/>
+    <mergeCell ref="F316:F335"/>
+    <mergeCell ref="G316:G335"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="G94:G95"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="G96:G97"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="G110:G111"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="G121:G122"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="F110:F111"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="F112:F113"/>
+    <mergeCell ref="G112:G113"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="G126:G127"/>
+    <mergeCell ref="B125:G125"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="G123:G124"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="G114:G115"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="B146:B147"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="F146:F147"/>
+    <mergeCell ref="G146:G147"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="F148:F149"/>
+    <mergeCell ref="G148:G149"/>
+    <mergeCell ref="B176:B177"/>
+    <mergeCell ref="B170:B171"/>
+    <mergeCell ref="F170:F171"/>
+    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="F150:F151"/>
+    <mergeCell ref="G150:G151"/>
+    <mergeCell ref="B158:B159"/>
+    <mergeCell ref="F158:F159"/>
+    <mergeCell ref="G158:G159"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="F160:F161"/>
+    <mergeCell ref="G160:G161"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="F154:F155"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="C367:C371"/>
+    <mergeCell ref="F367:F371"/>
+    <mergeCell ref="G367:G371"/>
+    <mergeCell ref="B441:G441"/>
+    <mergeCell ref="B432:G432"/>
+    <mergeCell ref="B434:G434"/>
+    <mergeCell ref="B435:G435"/>
+    <mergeCell ref="B433:G433"/>
+    <mergeCell ref="B436:G436"/>
+    <mergeCell ref="B437:G437"/>
+    <mergeCell ref="B438:G438"/>
+    <mergeCell ref="B439:G439"/>
+    <mergeCell ref="B440:G440"/>
+    <mergeCell ref="B402:B406"/>
+    <mergeCell ref="C402:C406"/>
+    <mergeCell ref="F402:F406"/>
+    <mergeCell ref="G402:G406"/>
+    <mergeCell ref="G377:G381"/>
+    <mergeCell ref="B416:B417"/>
+    <mergeCell ref="C416:C417"/>
+    <mergeCell ref="F416:F417"/>
+    <mergeCell ref="G416:G417"/>
+    <mergeCell ref="B387:B391"/>
+    <mergeCell ref="C387:C391"/>
     <mergeCell ref="B397:B401"/>
     <mergeCell ref="C397:C401"/>
     <mergeCell ref="F397:F401"/>
@@ -10099,460 +10543,16 @@
     <mergeCell ref="B377:B381"/>
     <mergeCell ref="C377:C381"/>
     <mergeCell ref="G372:G376"/>
-    <mergeCell ref="C367:C371"/>
-    <mergeCell ref="F367:F371"/>
-    <mergeCell ref="G367:G371"/>
-    <mergeCell ref="B441:G441"/>
-    <mergeCell ref="B432:G432"/>
-    <mergeCell ref="B434:G434"/>
-    <mergeCell ref="B435:G435"/>
-    <mergeCell ref="B433:G433"/>
-    <mergeCell ref="B436:G436"/>
-    <mergeCell ref="B437:G437"/>
-    <mergeCell ref="B438:G438"/>
-    <mergeCell ref="B439:G439"/>
-    <mergeCell ref="B440:G440"/>
-    <mergeCell ref="B146:B147"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="F146:F147"/>
-    <mergeCell ref="G146:G147"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="F148:F149"/>
-    <mergeCell ref="G148:G149"/>
-    <mergeCell ref="B176:B177"/>
-    <mergeCell ref="B170:B171"/>
-    <mergeCell ref="F170:F171"/>
-    <mergeCell ref="B150:B151"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="F150:F151"/>
-    <mergeCell ref="G150:G151"/>
-    <mergeCell ref="B158:B159"/>
-    <mergeCell ref="F158:F159"/>
-    <mergeCell ref="G158:G159"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="F160:F161"/>
-    <mergeCell ref="G160:G161"/>
-    <mergeCell ref="C154:C155"/>
-    <mergeCell ref="F154:F155"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="G108:G109"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="F112:F113"/>
-    <mergeCell ref="G112:G113"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="G126:G127"/>
-    <mergeCell ref="B125:G125"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="G123:G124"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="G114:G115"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="G100:G101"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="G121:G122"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="G106:G107"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="F110:F111"/>
-    <mergeCell ref="G102:G103"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="F104:F105"/>
-    <mergeCell ref="G104:G105"/>
-    <mergeCell ref="B116:G116"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="B310:B315"/>
-    <mergeCell ref="C310:C315"/>
-    <mergeCell ref="F310:F315"/>
-    <mergeCell ref="G310:G315"/>
-    <mergeCell ref="B316:B335"/>
-    <mergeCell ref="C316:C335"/>
-    <mergeCell ref="F316:F335"/>
-    <mergeCell ref="G316:G335"/>
-    <mergeCell ref="F94:F95"/>
-    <mergeCell ref="G94:G95"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="G96:G97"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="G110:G111"/>
-    <mergeCell ref="B1:G2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="F8:F12"/>
-    <mergeCell ref="G8:G12"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="D35:D39"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="B273:B280"/>
-    <mergeCell ref="C273:C280"/>
-    <mergeCell ref="F273:F280"/>
-    <mergeCell ref="G273:G280"/>
-    <mergeCell ref="F156:F157"/>
-    <mergeCell ref="G156:G157"/>
-    <mergeCell ref="B89:G89"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="G92:G93"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="F61:F64"/>
-    <mergeCell ref="G61:G64"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="G43:G46"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="C24:C29"/>
-    <mergeCell ref="F24:F29"/>
-    <mergeCell ref="G24:G29"/>
-    <mergeCell ref="E35:E39"/>
-    <mergeCell ref="F35:F39"/>
-    <mergeCell ref="G35:G39"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="F30:F34"/>
-    <mergeCell ref="G30:G34"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="B47:B60"/>
-    <mergeCell ref="C47:C60"/>
-    <mergeCell ref="F47:F60"/>
-    <mergeCell ref="G47:G60"/>
-    <mergeCell ref="F86:F88"/>
-    <mergeCell ref="G86:G88"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="F65:F67"/>
-    <mergeCell ref="G65:G67"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="D72:D76"/>
-    <mergeCell ref="E72:E76"/>
-    <mergeCell ref="F72:F76"/>
-    <mergeCell ref="G72:G76"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="F80:F83"/>
-    <mergeCell ref="G80:G83"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="C132:C133"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="G132:G133"/>
-    <mergeCell ref="B128:B129"/>
-    <mergeCell ref="C128:C129"/>
-    <mergeCell ref="F128:F129"/>
-    <mergeCell ref="G128:G129"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="F130:F131"/>
-    <mergeCell ref="G130:G131"/>
-    <mergeCell ref="B152:B153"/>
-    <mergeCell ref="G154:G155"/>
-    <mergeCell ref="F178:F179"/>
-    <mergeCell ref="G178:G179"/>
-    <mergeCell ref="F180:F181"/>
-    <mergeCell ref="G180:G181"/>
-    <mergeCell ref="G182:G183"/>
-    <mergeCell ref="C152:C153"/>
-    <mergeCell ref="F152:F153"/>
-    <mergeCell ref="G152:G153"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="C182:C183"/>
-    <mergeCell ref="G170:G171"/>
-    <mergeCell ref="C156:C157"/>
-    <mergeCell ref="C158:C159"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="C162:C163"/>
-    <mergeCell ref="G164:G165"/>
-    <mergeCell ref="F176:F177"/>
-    <mergeCell ref="G176:G177"/>
-    <mergeCell ref="F162:F163"/>
-    <mergeCell ref="G162:G163"/>
-    <mergeCell ref="G184:G185"/>
-    <mergeCell ref="B186:B187"/>
-    <mergeCell ref="C186:C187"/>
-    <mergeCell ref="F186:F187"/>
-    <mergeCell ref="G186:G187"/>
-    <mergeCell ref="B188:B189"/>
-    <mergeCell ref="C188:C189"/>
-    <mergeCell ref="B156:B157"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="B164:B165"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="F164:F165"/>
-    <mergeCell ref="B134:B135"/>
-    <mergeCell ref="C134:C135"/>
-    <mergeCell ref="F134:F135"/>
-    <mergeCell ref="G134:G135"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="F136:F137"/>
-    <mergeCell ref="G136:G137"/>
-    <mergeCell ref="G144:G145"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="F138:F139"/>
-    <mergeCell ref="G138:G139"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="F140:F141"/>
-    <mergeCell ref="G140:G141"/>
-    <mergeCell ref="B144:B145"/>
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="F144:F145"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="F142:F143"/>
-    <mergeCell ref="G142:G143"/>
-    <mergeCell ref="B174:B175"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="F174:F175"/>
-    <mergeCell ref="G174:G175"/>
-    <mergeCell ref="B154:B155"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="B180:B181"/>
-    <mergeCell ref="B182:B183"/>
-    <mergeCell ref="F182:F183"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="C172:C173"/>
-    <mergeCell ref="F172:F173"/>
-    <mergeCell ref="G172:G173"/>
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="F168:F169"/>
-    <mergeCell ref="G168:G169"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="F166:F167"/>
-    <mergeCell ref="G166:G167"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="C184:C185"/>
-    <mergeCell ref="B207:B209"/>
-    <mergeCell ref="C207:C209"/>
-    <mergeCell ref="F207:F209"/>
-    <mergeCell ref="G207:G209"/>
-    <mergeCell ref="C192:C193"/>
-    <mergeCell ref="F192:F193"/>
-    <mergeCell ref="G192:G193"/>
-    <mergeCell ref="B203:G203"/>
-    <mergeCell ref="B204:B206"/>
-    <mergeCell ref="C204:C206"/>
-    <mergeCell ref="F204:F206"/>
-    <mergeCell ref="G204:G206"/>
-    <mergeCell ref="B194:G194"/>
-    <mergeCell ref="B195:B199"/>
-    <mergeCell ref="D195:D199"/>
-    <mergeCell ref="E195:E199"/>
-    <mergeCell ref="F195:F199"/>
-    <mergeCell ref="G195:G199"/>
-    <mergeCell ref="F188:F189"/>
-    <mergeCell ref="G188:G189"/>
-    <mergeCell ref="B192:B193"/>
-    <mergeCell ref="F184:F185"/>
-    <mergeCell ref="B190:B191"/>
-    <mergeCell ref="C190:C191"/>
-    <mergeCell ref="F190:F191"/>
-    <mergeCell ref="G190:G191"/>
-    <mergeCell ref="B210:B212"/>
-    <mergeCell ref="C210:C212"/>
-    <mergeCell ref="F210:F212"/>
-    <mergeCell ref="G210:G212"/>
-    <mergeCell ref="B213:B215"/>
-    <mergeCell ref="C213:C215"/>
-    <mergeCell ref="F213:F215"/>
-    <mergeCell ref="G213:G215"/>
-    <mergeCell ref="B216:B225"/>
-    <mergeCell ref="C216:C225"/>
-    <mergeCell ref="B336:B352"/>
-    <mergeCell ref="C336:C352"/>
-    <mergeCell ref="F336:F352"/>
-    <mergeCell ref="G336:G352"/>
-    <mergeCell ref="B353:B356"/>
-    <mergeCell ref="C353:C356"/>
-    <mergeCell ref="F353:F356"/>
-    <mergeCell ref="G353:G356"/>
-    <mergeCell ref="F216:F225"/>
-    <mergeCell ref="G216:G225"/>
-    <mergeCell ref="B288:B295"/>
-    <mergeCell ref="C288:C295"/>
-    <mergeCell ref="F288:F295"/>
-    <mergeCell ref="G288:G295"/>
-    <mergeCell ref="B266:B267"/>
-    <mergeCell ref="C266:C267"/>
-    <mergeCell ref="F266:F267"/>
-    <mergeCell ref="G266:G267"/>
-    <mergeCell ref="B226:B236"/>
-    <mergeCell ref="C226:C236"/>
-    <mergeCell ref="F226:F236"/>
-    <mergeCell ref="G226:G236"/>
-    <mergeCell ref="B402:B406"/>
-    <mergeCell ref="C402:C406"/>
-    <mergeCell ref="F402:F406"/>
-    <mergeCell ref="G402:G406"/>
-    <mergeCell ref="G377:G381"/>
-    <mergeCell ref="B416:B417"/>
-    <mergeCell ref="C416:C417"/>
-    <mergeCell ref="F416:F417"/>
-    <mergeCell ref="G416:G417"/>
-    <mergeCell ref="B387:B391"/>
-    <mergeCell ref="C387:C391"/>
-    <mergeCell ref="F387:F391"/>
-    <mergeCell ref="G387:G391"/>
-    <mergeCell ref="B392:B396"/>
-    <mergeCell ref="C392:C396"/>
-    <mergeCell ref="F392:F396"/>
-    <mergeCell ref="G392:G396"/>
-    <mergeCell ref="B382:B386"/>
-    <mergeCell ref="C382:C386"/>
-    <mergeCell ref="F382:F386"/>
-    <mergeCell ref="G382:G386"/>
-    <mergeCell ref="F377:F381"/>
-    <mergeCell ref="C418:C422"/>
-    <mergeCell ref="F418:F422"/>
-    <mergeCell ref="G418:G422"/>
-    <mergeCell ref="B407:B408"/>
-    <mergeCell ref="C407:C408"/>
-    <mergeCell ref="F407:F408"/>
-    <mergeCell ref="G407:G408"/>
-    <mergeCell ref="B409:B413"/>
-    <mergeCell ref="C414:C415"/>
-    <mergeCell ref="F414:F415"/>
-    <mergeCell ref="G414:G415"/>
-    <mergeCell ref="B430:B431"/>
-    <mergeCell ref="C430:C431"/>
-    <mergeCell ref="F430:F431"/>
-    <mergeCell ref="G430:G431"/>
-    <mergeCell ref="F423:F424"/>
-    <mergeCell ref="G423:G424"/>
-    <mergeCell ref="B425:B429"/>
-    <mergeCell ref="B414:B415"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="F19:F23"/>
-    <mergeCell ref="G19:G23"/>
-    <mergeCell ref="B287:G287"/>
-    <mergeCell ref="B272:G272"/>
-    <mergeCell ref="F372:F376"/>
-    <mergeCell ref="C409:C413"/>
-    <mergeCell ref="F409:F413"/>
-    <mergeCell ref="G409:G413"/>
-    <mergeCell ref="B423:B424"/>
-    <mergeCell ref="C423:C424"/>
-    <mergeCell ref="C425:C429"/>
-    <mergeCell ref="F425:F429"/>
-    <mergeCell ref="G425:G429"/>
-    <mergeCell ref="B418:B422"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A47:A60"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="A210:A212"/>
-    <mergeCell ref="A213:A215"/>
-    <mergeCell ref="A216:A225"/>
-    <mergeCell ref="A226:A236"/>
-    <mergeCell ref="A237:A247"/>
-    <mergeCell ref="A248:A257"/>
-    <mergeCell ref="A266:A267"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="A195:A199"/>
-    <mergeCell ref="A204:A206"/>
-    <mergeCell ref="A207:A209"/>
-    <mergeCell ref="A273:A280"/>
-    <mergeCell ref="A288:A295"/>
-    <mergeCell ref="A296:A303"/>
-    <mergeCell ref="A304:A309"/>
-    <mergeCell ref="A310:A315"/>
-    <mergeCell ref="A316:A335"/>
-    <mergeCell ref="A336:A352"/>
-    <mergeCell ref="A353:A356"/>
-    <mergeCell ref="A357:A361"/>
-    <mergeCell ref="A407:A408"/>
-    <mergeCell ref="A409:A413"/>
-    <mergeCell ref="A414:A415"/>
-    <mergeCell ref="A416:A417"/>
-    <mergeCell ref="A418:A422"/>
-    <mergeCell ref="A423:A424"/>
-    <mergeCell ref="A425:A429"/>
-    <mergeCell ref="A430:A431"/>
-    <mergeCell ref="A362:A366"/>
-    <mergeCell ref="A367:A371"/>
-    <mergeCell ref="A372:A376"/>
-    <mergeCell ref="A377:A381"/>
-    <mergeCell ref="A382:A386"/>
-    <mergeCell ref="A387:A391"/>
-    <mergeCell ref="A392:A396"/>
-    <mergeCell ref="A397:A401"/>
-    <mergeCell ref="A402:A406"/>
+    <mergeCell ref="B237:B247"/>
+    <mergeCell ref="C237:C247"/>
+    <mergeCell ref="F237:F247"/>
+    <mergeCell ref="G237:G247"/>
+    <mergeCell ref="B248:B257"/>
+    <mergeCell ref="C248:C257"/>
+    <mergeCell ref="F248:F257"/>
+    <mergeCell ref="G248:G257"/>
+    <mergeCell ref="B357:B361"/>
+    <mergeCell ref="C357:C361"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -10579,44 +10579,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="77" t="s">
         <v>401</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96" t="s">
+      <c r="D2" s="98"/>
+      <c r="E2" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="96" t="s">
+      <c r="F2" s="98" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="96"/>
-      <c r="B3" s="96"/>
+      <c r="A3" s="98"/>
+      <c r="B3" s="98"/>
       <c r="C3" s="38" t="s">
         <v>70</v>
       </c>
       <c r="D3" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
     </row>
     <row r="4" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="37" t="s">
@@ -10635,10 +10635,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="96" t="s">
         <v>425</v>
       </c>
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="97" t="s">
         <v>403</v>
       </c>
       <c r="C5" s="31" t="s">
@@ -10647,48 +10647,48 @@
       <c r="D5" s="31" t="s">
         <v>405</v>
       </c>
-      <c r="E5" s="97">
+      <c r="E5" s="96">
         <v>2</v>
       </c>
-      <c r="F5" s="97" t="s">
+      <c r="F5" s="96" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="97"/>
-      <c r="B6" s="98"/>
+      <c r="A6" s="96"/>
+      <c r="B6" s="97"/>
       <c r="C6" s="31" t="s">
         <v>406</v>
       </c>
       <c r="D6" s="31" t="s">
         <v>407</v>
       </c>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
     </row>
     <row r="7" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="97"/>
-      <c r="B7" s="98"/>
+      <c r="A7" s="96"/>
+      <c r="B7" s="97"/>
       <c r="C7" s="31" t="s">
         <v>408</v>
       </c>
       <c r="D7" s="31" t="s">
         <v>409</v>
       </c>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
     </row>
     <row r="8" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="97"/>
-      <c r="B8" s="98"/>
+      <c r="A8" s="96"/>
+      <c r="B8" s="97"/>
       <c r="C8" s="31" t="s">
         <v>410</v>
       </c>
       <c r="D8" s="31" t="s">
         <v>411</v>
       </c>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
     </row>
     <row r="9" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="37" t="s">
@@ -10771,10 +10771,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="97" t="s">
+      <c r="A14" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="98" t="s">
+      <c r="B14" s="97" t="s">
         <v>386</v>
       </c>
       <c r="C14" s="36">
@@ -10783,30 +10783,30 @@
       <c r="D14" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="E14" s="97">
-        <v>1</v>
-      </c>
-      <c r="F14" s="63" t="s">
+      <c r="E14" s="96">
+        <v>1</v>
+      </c>
+      <c r="F14" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="97"/>
-      <c r="B15" s="98"/>
+      <c r="A15" s="96"/>
+      <c r="B15" s="97"/>
       <c r="C15" s="36">
         <v>1</v>
       </c>
       <c r="D15" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="E15" s="97"/>
-      <c r="F15" s="63"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="70"/>
     </row>
     <row r="16" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="97" t="s">
+      <c r="A16" s="96" t="s">
         <v>431</v>
       </c>
-      <c r="B16" s="98" t="s">
+      <c r="B16" s="97" t="s">
         <v>451</v>
       </c>
       <c r="C16" s="40">
@@ -10815,24 +10815,24 @@
       <c r="D16" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="97">
-        <v>1</v>
-      </c>
-      <c r="F16" s="63" t="s">
+      <c r="E16" s="96">
+        <v>1</v>
+      </c>
+      <c r="F16" s="70" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="97"/>
-      <c r="B17" s="98"/>
+      <c r="A17" s="96"/>
+      <c r="B17" s="97"/>
       <c r="C17" s="40">
         <v>1</v>
       </c>
       <c r="D17" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="E17" s="97"/>
-      <c r="F17" s="63"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="70"/>
     </row>
     <row r="18" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="39"/>
@@ -10843,6 +10843,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="E5:E8"/>
     <mergeCell ref="F5:F8"/>
     <mergeCell ref="A16:A17"/>
@@ -10855,12 +10861,6 @@
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="B5:B8"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
